--- a/etf_dfs/EWG.xlsx
+++ b/etf_dfs/EWG.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Open</t>
   </si>
@@ -37,7 +37,10 @@
     <t>Return</t>
   </si>
   <si>
-    <t>Return_12</t>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>Trend</t>
   </si>
   <si>
     <t>EWG</t>
@@ -404,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J311"/>
+  <dimension ref="A1:K312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,8 +441,11 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>35125</v>
       </c>
@@ -456,13 +462,13 @@
         <v>13.5</v>
       </c>
       <c r="F2">
-        <v>7.478107452392578</v>
+        <v>7.422338485717773</v>
       </c>
       <c r="G2">
         <v>300100</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>35156</v>
       </c>
@@ -479,7 +485,7 @@
         <v>12.875</v>
       </c>
       <c r="F3">
-        <v>7.131900310516357</v>
+        <v>7.078710556030273</v>
       </c>
       <c r="G3">
         <v>1000</v>
@@ -488,7 +494,7 @@
         <v>-0.04629629629629628</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>35186</v>
       </c>
@@ -505,7 +511,7 @@
         <v>13.1875</v>
       </c>
       <c r="F4">
-        <v>7.30500602722168</v>
+        <v>7.250524997711182</v>
       </c>
       <c r="G4">
         <v>400</v>
@@ -513,8 +519,11 @@
       <c r="H4">
         <v>0.02427184466019416</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="I4">
+        <v>0.04989921100606253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>35217</v>
       </c>
@@ -531,7 +540,7 @@
         <v>13.625</v>
       </c>
       <c r="F5">
-        <v>7.547351360321045</v>
+        <v>7.491063117980957</v>
       </c>
       <c r="G5">
         <v>400</v>
@@ -539,8 +548,11 @@
       <c r="H5">
         <v>0.03317535545023698</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="I5">
+        <v>0.04354093563105448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>35247</v>
       </c>
@@ -557,7 +569,7 @@
         <v>13.75</v>
       </c>
       <c r="F6">
-        <v>7.616591453552246</v>
+        <v>7.559789657592773</v>
       </c>
       <c r="G6">
         <v>12000</v>
@@ -565,8 +577,11 @@
       <c r="H6">
         <v>0.00917431192660545</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="I6">
+        <v>0.03565558910751752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>35278</v>
       </c>
@@ -583,7 +598,7 @@
         <v>13.5625</v>
       </c>
       <c r="F7">
-        <v>7.577425479888916</v>
+        <v>7.520917415618896</v>
       </c>
       <c r="G7">
         <v>10200</v>
@@ -591,8 +606,11 @@
       <c r="H7">
         <v>-0.01363636363636367</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="I7">
+        <v>0.03199313976178163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>35309</v>
       </c>
@@ -609,7 +627,7 @@
         <v>13.8125</v>
       </c>
       <c r="F8">
-        <v>7.717101573944092</v>
+        <v>7.659548759460449</v>
       </c>
       <c r="G8">
         <v>14900</v>
@@ -617,8 +635,11 @@
       <c r="H8">
         <v>0.01843317972350222</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="I8">
+        <v>0.02945433126029014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>35339</v>
       </c>
@@ -635,7 +656,7 @@
         <v>13.875</v>
       </c>
       <c r="F9">
-        <v>7.752020835876465</v>
+        <v>7.69420862197876</v>
       </c>
       <c r="G9">
         <v>6000</v>
@@ -643,8 +664,11 @@
       <c r="H9">
         <v>0.004524886877828038</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="I9">
+        <v>0.02688830602317432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>35370</v>
       </c>
@@ -661,7 +685,7 @@
         <v>14.375</v>
       </c>
       <c r="F10">
-        <v>8.0313720703125</v>
+        <v>7.971474647521973</v>
       </c>
       <c r="G10">
         <v>700</v>
@@ -669,8 +693,11 @@
       <c r="H10">
         <v>0.03603603603603611</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="I10">
+        <v>0.02731499694562952</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>35400</v>
       </c>
@@ -687,7 +714,7 @@
         <v>14.375</v>
       </c>
       <c r="F11">
-        <v>8.0313720703125</v>
+        <v>7.971474647521973</v>
       </c>
       <c r="G11">
         <v>7500</v>
@@ -695,8 +722,11 @@
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="I11">
+        <v>0.02569699290144963</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>35431</v>
       </c>
@@ -713,7 +743,7 @@
         <v>14.375</v>
       </c>
       <c r="F12">
-        <v>8.0313720703125</v>
+        <v>7.971474647521973</v>
       </c>
       <c r="G12">
         <v>36900</v>
@@ -721,8 +751,11 @@
       <c r="H12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="I12">
+        <v>0.02433703093040726</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>35462</v>
       </c>
@@ -739,7 +772,7 @@
         <v>14.875</v>
       </c>
       <c r="F13">
-        <v>8.310721397399902</v>
+        <v>8.248746871948242</v>
       </c>
       <c r="G13">
         <v>11700</v>
@@ -747,8 +780,11 @@
       <c r="H13">
         <v>0.0347826086956522</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="I13">
+        <v>0.02460548554542056</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>35490</v>
       </c>
@@ -765,7 +801,7 @@
         <v>15.4375</v>
       </c>
       <c r="F14">
-        <v>8.624997138977051</v>
+        <v>8.560672760009766</v>
       </c>
       <c r="G14">
         <v>91600</v>
@@ -774,13 +810,16 @@
         <v>0.03781512605042026</v>
       </c>
       <c r="I14">
-        <v>0.1435185185185186</v>
+        <v>0.02487860696013237</v>
       </c>
       <c r="J14">
         <v>0.1435185185185186</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>0.1435185185185186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>35521</v>
       </c>
@@ -797,7 +836,7 @@
         <v>15.125</v>
       </c>
       <c r="F15">
-        <v>8.45040225982666</v>
+        <v>8.387381553649902</v>
       </c>
       <c r="G15">
         <v>10100</v>
@@ -806,13 +845,16 @@
         <v>-0.02024291497975705</v>
       </c>
       <c r="I15">
-        <v>0.174757281553398</v>
+        <v>0.02539663883968927</v>
       </c>
       <c r="J15">
         <v>0.174757281553398</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>0.174757281553398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>35551</v>
       </c>
@@ -829,7 +871,7 @@
         <v>16.125</v>
       </c>
       <c r="F16">
-        <v>9.00910758972168</v>
+        <v>8.94191837310791</v>
       </c>
       <c r="G16">
         <v>20000</v>
@@ -838,13 +880,16 @@
         <v>0.06611570247933884</v>
       </c>
       <c r="I16">
-        <v>0.2227488151658767</v>
+        <v>0.02877044212781317</v>
       </c>
       <c r="J16">
         <v>0.2227488151658767</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>0.2227488151658767</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>35582</v>
       </c>
@@ -861,7 +906,7 @@
         <v>16.5625</v>
       </c>
       <c r="F17">
-        <v>9.253537178039551</v>
+        <v>9.184528350830078</v>
       </c>
       <c r="G17">
         <v>30400</v>
@@ -870,13 +915,16 @@
         <v>0.02713178294573648</v>
       </c>
       <c r="I17">
-        <v>0.2155963302752293</v>
+        <v>0.02795782067113087</v>
       </c>
       <c r="J17">
         <v>0.2155963302752293</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>0.2155963302752293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>35612</v>
       </c>
@@ -893,7 +941,7 @@
         <v>18.3125</v>
       </c>
       <c r="F18">
-        <v>10.2312707901001</v>
+        <v>10.15496921539307</v>
       </c>
       <c r="G18">
         <v>12300</v>
@@ -902,13 +950,16 @@
         <v>0.1056603773584905</v>
       </c>
       <c r="I18">
-        <v>0.3318181818181818</v>
+        <v>0.03540693011167278</v>
       </c>
       <c r="J18">
         <v>0.3318181818181818</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>0.3318181818181818</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>35643</v>
       </c>
@@ -925,7 +976,7 @@
         <v>16.1875</v>
       </c>
       <c r="F19">
-        <v>9.1142578125</v>
+        <v>9.046287536621094</v>
       </c>
       <c r="G19">
         <v>5800</v>
@@ -934,13 +985,16 @@
         <v>-0.1160409556313993</v>
       </c>
       <c r="I19">
-        <v>0.1935483870967742</v>
+        <v>0.04754891987298803</v>
       </c>
       <c r="J19">
         <v>0.1935483870967742</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>0.1935483870967742</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>35674</v>
       </c>
@@ -957,7 +1011,7 @@
         <v>17.625</v>
       </c>
       <c r="F20">
-        <v>9.923633575439453</v>
+        <v>9.849624633789062</v>
       </c>
       <c r="G20">
         <v>3300</v>
@@ -966,13 +1020,16 @@
         <v>0.08880308880308885</v>
       </c>
       <c r="I20">
-        <v>0.2760180995475112</v>
+        <v>0.04956982617818777</v>
       </c>
       <c r="J20">
         <v>0.2760180995475112</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>0.2760180995475112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>35704</v>
       </c>
@@ -989,7 +1046,7 @@
         <v>16.625</v>
       </c>
       <c r="F21">
-        <v>9.360589027404785</v>
+        <v>9.29078197479248</v>
       </c>
       <c r="G21">
         <v>42800</v>
@@ -998,13 +1055,16 @@
         <v>-0.05673758865248224</v>
       </c>
       <c r="I21">
-        <v>0.1981981981981982</v>
+        <v>0.05098868637384744</v>
       </c>
       <c r="J21">
         <v>0.1981981981981982</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>0.1981981981981982</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>35735</v>
       </c>
@@ -1021,7 +1081,7 @@
         <v>16.875</v>
       </c>
       <c r="F22">
-        <v>9.501349449157715</v>
+        <v>9.430489540100098</v>
       </c>
       <c r="G22">
         <v>1200</v>
@@ -1030,13 +1090,16 @@
         <v>0.01503759398496252</v>
       </c>
       <c r="I22">
-        <v>0.173913043478261</v>
+        <v>0.04963262476616193</v>
       </c>
       <c r="J22">
         <v>0.173913043478261</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>0.173913043478261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>35765</v>
       </c>
@@ -1053,7 +1116,7 @@
         <v>17.625</v>
       </c>
       <c r="F23">
-        <v>9.940983772277832</v>
+        <v>9.86684513092041</v>
       </c>
       <c r="G23">
         <v>52000</v>
@@ -1062,13 +1125,16 @@
         <v>0.04444444444444451</v>
       </c>
       <c r="I23">
-        <v>0.2260869565217392</v>
+        <v>0.04887866437575528</v>
       </c>
       <c r="J23">
         <v>0.2260869565217392</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>0.2260869565217392</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>35796</v>
       </c>
@@ -1085,7 +1151,7 @@
         <v>18</v>
       </c>
       <c r="F24">
-        <v>10.15249347686768</v>
+        <v>10.07677936553955</v>
       </c>
       <c r="G24">
         <v>19000</v>
@@ -1094,13 +1160,16 @@
         <v>0.02127659574468077</v>
       </c>
       <c r="I24">
-        <v>0.2521739130434784</v>
+        <v>0.0477264266209922</v>
       </c>
       <c r="J24">
         <v>0.2521739130434784</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>0.2521739130434784</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>35827</v>
       </c>
@@ -1117,7 +1186,7 @@
         <v>19.1875</v>
       </c>
       <c r="F25">
-        <v>10.82227611541748</v>
+        <v>10.74156665802002</v>
       </c>
       <c r="G25">
         <v>7300</v>
@@ -1126,13 +1195,16 @@
         <v>0.06597222222222232</v>
       </c>
       <c r="I25">
-        <v>0.2899159663865547</v>
+        <v>0.0478595931679705</v>
       </c>
       <c r="J25">
         <v>0.2899159663865547</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>0.2899159663865547</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>35855</v>
       </c>
@@ -1149,7 +1221,7 @@
         <v>20.5</v>
       </c>
       <c r="F26">
-        <v>11.56256198883057</v>
+        <v>11.47633266448975</v>
       </c>
       <c r="G26">
         <v>20700</v>
@@ -1158,13 +1230,16 @@
         <v>0.0684039087947883</v>
       </c>
       <c r="I26">
-        <v>0.3279352226720649</v>
+        <v>0.04799129907098255</v>
       </c>
       <c r="J26">
         <v>0.3279352226720649</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>0.3279352226720649</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>35886</v>
       </c>
@@ -1181,7 +1256,7 @@
         <v>21.8125</v>
       </c>
       <c r="F27">
-        <v>12.30285167694092</v>
+        <v>12.21109676361084</v>
       </c>
       <c r="G27">
         <v>25700</v>
@@ -1190,13 +1265,16 @@
         <v>0.06402439024390238</v>
       </c>
       <c r="I27">
-        <v>0.4421487603305785</v>
+        <v>0.04784847588148446</v>
       </c>
       <c r="J27">
         <v>0.4421487603305785</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>0.4421487603305785</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>35916</v>
       </c>
@@ -1213,7 +1291,7 @@
         <v>23.1875</v>
       </c>
       <c r="F28">
-        <v>13.07838439941406</v>
+        <v>12.98085021972656</v>
       </c>
       <c r="G28">
         <v>19700</v>
@@ -1222,13 +1300,16 @@
         <v>0.06303724928366772</v>
       </c>
       <c r="I28">
-        <v>0.4379844961240309</v>
+        <v>0.04761868419382088</v>
       </c>
       <c r="J28">
         <v>0.4379844961240309</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>0.4379844961240309</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="2">
         <v>35947</v>
       </c>
@@ -1245,7 +1326,7 @@
         <v>23.9375</v>
       </c>
       <c r="F29">
-        <v>13.5014066696167</v>
+        <v>13.40071868896484</v>
       </c>
       <c r="G29">
         <v>12500</v>
@@ -1254,13 +1335,16 @@
         <v>0.03234501347708885</v>
       </c>
       <c r="I29">
-        <v>0.4452830188679244</v>
+        <v>0.04673539281128891</v>
       </c>
       <c r="J29">
         <v>0.4452830188679244</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>0.4452830188679244</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="2">
         <v>35977</v>
       </c>
@@ -1277,7 +1361,7 @@
         <v>24.5</v>
       </c>
       <c r="F30">
-        <v>13.81867408752441</v>
+        <v>13.71561813354492</v>
       </c>
       <c r="G30">
         <v>22700</v>
@@ -1286,13 +1370,16 @@
         <v>0.02349869451697129</v>
       </c>
       <c r="I30">
-        <v>0.3378839590443685</v>
+        <v>0.04586214505094288</v>
       </c>
       <c r="J30">
         <v>0.3378839590443685</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <v>0.3378839590443685</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2">
         <v>36008</v>
       </c>
@@ -1309,7 +1396,7 @@
         <v>19.4375</v>
       </c>
       <c r="F31">
-        <v>11.10304832458496</v>
+        <v>11.02024078369141</v>
       </c>
       <c r="G31">
         <v>102300</v>
@@ -1318,13 +1405,16 @@
         <v>-0.2066326530612245</v>
       </c>
       <c r="I31">
-        <v>0.2007722007722008</v>
+        <v>0.06196122472491972</v>
       </c>
       <c r="J31">
         <v>0.2007722007722008</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <v>0.2007722007722008</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="2">
         <v>36039</v>
       </c>
@@ -1341,7 +1431,7 @@
         <v>19.625</v>
       </c>
       <c r="F32">
-        <v>11.21015357971191</v>
+        <v>11.12654972076416</v>
       </c>
       <c r="G32">
         <v>40300</v>
@@ -1350,13 +1440,16 @@
         <v>0.009646302250803762</v>
       </c>
       <c r="I32">
-        <v>0.1134751773049645</v>
+        <v>0.0608903648613501</v>
       </c>
       <c r="J32">
         <v>0.1134751773049645</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32">
+        <v>0.1134751773049645</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="2">
         <v>36069</v>
       </c>
@@ -1373,7 +1466,7 @@
         <v>20.75</v>
       </c>
       <c r="F33">
-        <v>11.85277557373047</v>
+        <v>11.76437759399414</v>
       </c>
       <c r="G33">
         <v>15600</v>
@@ -1382,13 +1475,16 @@
         <v>0.0573248407643312</v>
       </c>
       <c r="I33">
-        <v>0.2481203007518797</v>
+        <v>0.06035974485810091</v>
       </c>
       <c r="J33">
         <v>0.2481203007518797</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33">
+        <v>0.2481203007518797</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="2">
         <v>36100</v>
       </c>
@@ -1405,7 +1501,7 @@
         <v>21.5625</v>
       </c>
       <c r="F34">
-        <v>12.31688594818115</v>
+        <v>12.22502899169922</v>
       </c>
       <c r="G34">
         <v>57000</v>
@@ -1414,13 +1510,16 @@
         <v>0.03915662650602414</v>
       </c>
       <c r="I34">
-        <v>0.2777777777777777</v>
+        <v>0.0595209883356501</v>
       </c>
       <c r="J34">
         <v>0.2777777777777777</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>0.2777777777777777</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="2">
         <v>36130</v>
       </c>
@@ -1437,7 +1536,7 @@
         <v>22.25</v>
       </c>
       <c r="F35">
-        <v>12.73308372497559</v>
+        <v>12.63812160491943</v>
       </c>
       <c r="G35">
         <v>20200</v>
@@ -1446,13 +1545,16 @@
         <v>0.03188405797101446</v>
       </c>
       <c r="I35">
-        <v>0.2624113475177305</v>
+        <v>0.05864414853905284</v>
       </c>
       <c r="J35">
         <v>0.2624113475177305</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <v>0.2624113475177305</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="2">
         <v>36161</v>
       </c>
@@ -1469,7 +1571,7 @@
         <v>22.625</v>
       </c>
       <c r="F36">
-        <v>12.94768619537354</v>
+        <v>12.85112571716309</v>
       </c>
       <c r="G36">
         <v>12000</v>
@@ -1478,13 +1580,16 @@
         <v>0.01685393258426959</v>
       </c>
       <c r="I36">
-        <v>0.2569444444444444</v>
+        <v>0.05774877446405789</v>
       </c>
       <c r="J36">
         <v>0.2569444444444444</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36">
+        <v>0.2569444444444444</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="2">
         <v>36192</v>
       </c>
@@ -1501,7 +1606,7 @@
         <v>20.5625</v>
       </c>
       <c r="F37">
-        <v>11.76736831665039</v>
+        <v>11.67961311340332</v>
       </c>
       <c r="G37">
         <v>5100</v>
@@ -1510,13 +1615,16 @@
         <v>-0.09116022099447518</v>
       </c>
       <c r="I37">
-        <v>0.07166123778501632</v>
+        <v>0.05976041981580675</v>
       </c>
       <c r="J37">
         <v>0.07166123778501632</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37">
+        <v>0.07166123778501632</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="2">
         <v>36220</v>
       </c>
@@ -1533,7 +1641,7 @@
         <v>19.875</v>
       </c>
       <c r="F38">
-        <v>11.37393665313721</v>
+        <v>11.28911018371582</v>
       </c>
       <c r="G38">
         <v>37000</v>
@@ -1542,13 +1650,16 @@
         <v>-0.03343465045592708</v>
       </c>
       <c r="I38">
-        <v>-0.03048780487804881</v>
+        <v>0.05942749743269413</v>
       </c>
       <c r="J38">
         <v>-0.03048780487804881</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38">
+        <v>-0.03048780487804881</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="2">
         <v>36251</v>
       </c>
@@ -1565,7 +1676,7 @@
         <v>21.25</v>
       </c>
       <c r="F39">
-        <v>12.16081237792969</v>
+        <v>12.07011413574219</v>
       </c>
       <c r="G39">
         <v>36500</v>
@@ -1574,13 +1685,16 @@
         <v>0.0691823899371069</v>
       </c>
       <c r="I39">
-        <v>-0.02578796561604579</v>
+        <v>0.05932930526924252</v>
       </c>
       <c r="J39">
         <v>-0.02578796561604579</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39">
+        <v>-0.02578796561604579</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="2">
         <v>36281</v>
       </c>
@@ -1597,7 +1711,7 @@
         <v>20.125</v>
       </c>
       <c r="F40">
-        <v>11.51700496673584</v>
+        <v>11.43111228942871</v>
       </c>
       <c r="G40">
         <v>4400</v>
@@ -1606,13 +1720,16 @@
         <v>-0.05294117647058827</v>
       </c>
       <c r="I40">
-        <v>-0.1320754716981132</v>
+        <v>0.05952572856330139</v>
       </c>
       <c r="J40">
         <v>-0.1320754716981132</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40">
+        <v>-0.1320754716981132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="2">
         <v>36312</v>
       </c>
@@ -1629,7 +1746,7 @@
         <v>21.8125</v>
       </c>
       <c r="F41">
-        <v>12.48271179199219</v>
+        <v>12.38962078094482</v>
       </c>
       <c r="G41">
         <v>82900</v>
@@ -1638,13 +1755,16 @@
         <v>0.08385093167701863</v>
       </c>
       <c r="I41">
-        <v>-0.08877284595300261</v>
+        <v>0.05984146300797823</v>
       </c>
       <c r="J41">
         <v>-0.08877284595300261</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41">
+        <v>-0.08877284595300261</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="2">
         <v>36342</v>
       </c>
@@ -1661,7 +1781,7 @@
         <v>20.8125</v>
       </c>
       <c r="F42">
-        <v>11.91043949127197</v>
+        <v>11.82161521911621</v>
       </c>
       <c r="G42">
         <v>71300</v>
@@ -1670,13 +1790,16 @@
         <v>-0.04584527220630374</v>
       </c>
       <c r="I42">
-        <v>-0.1505102040816326</v>
+        <v>0.05982799061417265</v>
       </c>
       <c r="J42">
         <v>-0.1505102040816326</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42">
+        <v>-0.1505102040816326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="2">
         <v>36373</v>
       </c>
@@ -1693,7 +1816,7 @@
         <v>21</v>
       </c>
       <c r="F43">
-        <v>12.28104686737061</v>
+        <v>12.18945980072021</v>
       </c>
       <c r="G43">
         <v>35100</v>
@@ -1702,13 +1825,16 @@
         <v>0.009009009009008917</v>
       </c>
       <c r="I43">
-        <v>0.08038585209003224</v>
+        <v>0.05907825378619534</v>
       </c>
       <c r="J43">
         <v>0.08038585209003224</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43">
+        <v>0.08038585209003224</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="2">
         <v>36404</v>
       </c>
@@ -1725,7 +1851,7 @@
         <v>20.9375</v>
       </c>
       <c r="F44">
-        <v>12.24450016021729</v>
+        <v>12.15318298339844</v>
       </c>
       <c r="G44">
         <v>24000</v>
@@ -1734,13 +1860,16 @@
         <v>-0.002976190476190466</v>
       </c>
       <c r="I44">
-        <v>0.06687898089171984</v>
+        <v>0.05840301788385546</v>
       </c>
       <c r="J44">
         <v>0.06687898089171984</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44">
+        <v>0.06687898089171984</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="2">
         <v>36434</v>
       </c>
@@ -1757,7 +1886,7 @@
         <v>22</v>
       </c>
       <c r="F45">
-        <v>12.86585712432861</v>
+        <v>12.7699089050293</v>
       </c>
       <c r="G45">
         <v>26900</v>
@@ -1766,13 +1895,16 @@
         <v>0.05074626865671639</v>
       </c>
       <c r="I45">
-        <v>0.06024096385542177</v>
+        <v>0.05800126111678342</v>
       </c>
       <c r="J45">
         <v>0.06024096385542177</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45">
+        <v>0.06024096385542177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="2">
         <v>36465</v>
       </c>
@@ -1789,7 +1921,7 @@
         <v>22.3125</v>
       </c>
       <c r="F46">
-        <v>13.04861259460449</v>
+        <v>12.9512996673584</v>
       </c>
       <c r="G46">
         <v>26200</v>
@@ -1798,13 +1930,16 @@
         <v>0.01420454545454541</v>
       </c>
       <c r="I46">
-        <v>0.0347826086956522</v>
+        <v>0.05732307873343056</v>
       </c>
       <c r="J46">
         <v>0.0347826086956522</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46">
+        <v>0.0347826086956522</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="2">
         <v>36495</v>
       </c>
@@ -1821,7 +1956,7 @@
         <v>26.6875</v>
       </c>
       <c r="F47">
-        <v>15.60716342926025</v>
+        <v>15.4907693862915</v>
       </c>
       <c r="G47">
         <v>36600</v>
@@ -1830,13 +1965,16 @@
         <v>0.196078431372549</v>
       </c>
       <c r="I47">
-        <v>0.199438202247191</v>
+        <v>0.06288590233309183</v>
       </c>
       <c r="J47">
         <v>0.199438202247191</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47">
+        <v>0.199438202247191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="2">
         <v>36526</v>
       </c>
@@ -1853,7 +1991,7 @@
         <v>25.1875</v>
       </c>
       <c r="F48">
-        <v>14.72994804382324</v>
+        <v>14.62009334564209</v>
       </c>
       <c r="G48">
         <v>45700</v>
@@ -1862,13 +2000,16 @@
         <v>-0.05620608899297419</v>
       </c>
       <c r="I48">
-        <v>0.1132596685082874</v>
+        <v>0.06311921316582361</v>
       </c>
       <c r="J48">
         <v>0.1132596685082874</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48">
+        <v>0.1132596685082874</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="2">
         <v>36557</v>
       </c>
@@ -1885,7 +2026,7 @@
         <v>27.875</v>
       </c>
       <c r="F49">
-        <v>16.3016300201416</v>
+        <v>16.18005752563477</v>
       </c>
       <c r="G49">
         <v>102800</v>
@@ -1894,13 +2035,16 @@
         <v>0.1066997518610422</v>
       </c>
       <c r="I49">
-        <v>0.3556231003039514</v>
+        <v>0.06382650177659116</v>
       </c>
       <c r="J49">
         <v>0.3556231003039514</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49">
+        <v>0.3556231003039514</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="2">
         <v>36586</v>
       </c>
@@ -1917,7 +2061,7 @@
         <v>27</v>
       </c>
       <c r="F50">
-        <v>15.78991794586182</v>
+        <v>15.67215633392334</v>
       </c>
       <c r="G50">
         <v>47700</v>
@@ -1926,13 +2070,16 @@
         <v>-0.03139013452914796</v>
       </c>
       <c r="I50">
-        <v>0.3584905660377358</v>
+        <v>0.06353828320547386</v>
       </c>
       <c r="J50">
         <v>0.3584905660377358</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50">
+        <v>0.3584905660377358</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="2">
         <v>36617</v>
       </c>
@@ -1949,7 +2096,7 @@
         <v>24.625</v>
       </c>
       <c r="F51">
-        <v>14.40099048614502</v>
+        <v>14.2935905456543</v>
       </c>
       <c r="G51">
         <v>36800</v>
@@ -1958,13 +2105,16 @@
         <v>-0.08796296296296291</v>
       </c>
       <c r="I51">
-        <v>0.1588235294117648</v>
+        <v>0.06462184761943267</v>
       </c>
       <c r="J51">
         <v>0.1588235294117648</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51">
+        <v>0.1588235294117648</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="2">
         <v>36647</v>
       </c>
@@ -1981,7 +2131,7 @@
         <v>24.75</v>
       </c>
       <c r="F52">
-        <v>14.47409248352051</v>
+        <v>14.36614799499512</v>
       </c>
       <c r="G52">
         <v>178400</v>
@@ -1990,13 +2140,16 @@
         <v>0.0050761421319796</v>
       </c>
       <c r="I52">
-        <v>0.2298136645962734</v>
+        <v>0.06397272192283562</v>
       </c>
       <c r="J52">
         <v>0.2298136645962734</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52">
+        <v>0.2298136645962734</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="2">
         <v>36678</v>
       </c>
@@ -2013,7 +2166,7 @@
         <v>24.25</v>
       </c>
       <c r="F53">
-        <v>14.1816873550415</v>
+        <v>14.07592391967773</v>
       </c>
       <c r="G53">
         <v>19900</v>
@@ -2022,13 +2175,16 @@
         <v>-0.02020202020202022</v>
       </c>
       <c r="I53">
-        <v>0.1117478510028653</v>
+        <v>0.06351317603805427</v>
       </c>
       <c r="J53">
         <v>0.1117478510028653</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53">
+        <v>0.1117478510028653</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="2">
         <v>36708</v>
       </c>
@@ -2045,7 +2201,7 @@
         <v>24.1875</v>
       </c>
       <c r="F54">
-        <v>14.14513301849365</v>
+        <v>14.03964138031006</v>
       </c>
       <c r="G54">
         <v>32500</v>
@@ -2054,13 +2210,16 @@
         <v>-0.002577319587628857</v>
       </c>
       <c r="I54">
-        <v>0.1621621621621621</v>
+        <v>0.06292725921001502</v>
       </c>
       <c r="J54">
         <v>0.1621621621621621</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54">
+        <v>0.1621621621621621</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="2">
         <v>36739</v>
       </c>
@@ -2077,7 +2236,7 @@
         <v>20.5625</v>
       </c>
       <c r="F55">
-        <v>13.49927234649658</v>
+        <v>13.39859390258789</v>
       </c>
       <c r="G55">
         <v>49200</v>
@@ -2086,13 +2245,16 @@
         <v>-0.1498708010335917</v>
       </c>
       <c r="I55">
-        <v>-0.02083333333333337</v>
+        <v>0.06622523027894896</v>
       </c>
       <c r="J55">
         <v>-0.02083333333333337</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55">
+        <v>-0.02083333333333337</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="2">
         <v>36770</v>
       </c>
@@ -2109,7 +2271,7 @@
         <v>19.3125</v>
       </c>
       <c r="F56">
-        <v>12.67864418029785</v>
+        <v>12.5840892791748</v>
       </c>
       <c r="G56">
         <v>79600</v>
@@ -2118,13 +2280,16 @@
         <v>-0.06079027355623101</v>
       </c>
       <c r="I56">
-        <v>-0.07761194029850749</v>
+        <v>0.0663046261211173</v>
       </c>
       <c r="J56">
         <v>-0.07761194029850749</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56">
+        <v>-0.07761194029850749</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="2">
         <v>36800</v>
       </c>
@@ -2141,7 +2306,7 @@
         <v>19.5</v>
       </c>
       <c r="F57">
-        <v>12.80173587799072</v>
+        <v>12.70626640319824</v>
       </c>
       <c r="G57">
         <v>52800</v>
@@ -2150,13 +2315,16 @@
         <v>0.009708737864077666</v>
       </c>
       <c r="I57">
-        <v>-0.1136363636363636</v>
+        <v>0.06568792391546617</v>
       </c>
       <c r="J57">
         <v>-0.1136363636363636</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57">
+        <v>-0.1136363636363636</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="2">
         <v>36831</v>
       </c>
@@ -2173,7 +2341,7 @@
         <v>18.1875</v>
       </c>
       <c r="F58">
-        <v>11.94008255004883</v>
+        <v>11.85103607177734</v>
       </c>
       <c r="G58">
         <v>55900</v>
@@ -2182,13 +2350,16 @@
         <v>-0.06730769230769229</v>
       </c>
       <c r="I58">
-        <v>-0.1848739495798319</v>
+        <v>0.06587947783217094</v>
       </c>
       <c r="J58">
         <v>-0.1848739495798319</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58">
+        <v>-0.1848739495798319</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="2">
         <v>36861</v>
       </c>
@@ -2205,7 +2376,7 @@
         <v>19.5</v>
       </c>
       <c r="F59">
-        <v>12.80173587799072</v>
+        <v>12.70626640319824</v>
       </c>
       <c r="G59">
         <v>79200</v>
@@ -2214,13 +2385,16 @@
         <v>0.07216494845360821</v>
       </c>
       <c r="I59">
-        <v>-0.2693208430913349</v>
+        <v>0.06584769066550371</v>
       </c>
       <c r="J59">
         <v>-0.2693208430913349</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59">
+        <v>-0.2693208430913349</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="2">
         <v>36892</v>
       </c>
@@ -2237,7 +2411,7 @@
         <v>20.5</v>
       </c>
       <c r="F60">
-        <v>13.45823955535889</v>
+        <v>13.35786914825439</v>
       </c>
       <c r="G60">
         <v>173000</v>
@@ -2246,13 +2420,16 @@
         <v>0.05128205128205132</v>
       </c>
       <c r="I60">
-        <v>-0.1861042183622829</v>
+        <v>0.06550709310575792</v>
       </c>
       <c r="J60">
         <v>-0.1861042183622829</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60">
+        <v>-0.1861042183622829</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="2">
         <v>36923</v>
       </c>
@@ -2269,7 +2446,7 @@
         <v>18.64999961853027</v>
       </c>
       <c r="F61">
-        <v>12.24371337890625</v>
+        <v>12.15240478515625</v>
       </c>
       <c r="G61">
         <v>129000</v>
@@ -2278,13 +2455,16 @@
         <v>-0.09024392104730372</v>
       </c>
       <c r="I61">
-        <v>-0.3309417177208871</v>
+        <v>0.06622268512530378</v>
       </c>
       <c r="J61">
         <v>-0.3309417177208871</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61">
+        <v>-0.3309417177208871</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="2">
         <v>36951</v>
       </c>
@@ -2301,7 +2481,7 @@
         <v>16.70000076293945</v>
       </c>
       <c r="F62">
-        <v>10.96354198455811</v>
+        <v>10.88177680969238</v>
       </c>
       <c r="G62">
         <v>128500</v>
@@ -2310,13 +2490,16 @@
         <v>-0.1045575815268832</v>
       </c>
       <c r="I62">
-        <v>-0.3814814532244647</v>
+        <v>0.06723946964657716</v>
       </c>
       <c r="J62">
         <v>-0.3814814532244647</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62">
+        <v>-0.3814814532244647</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="2">
         <v>36982</v>
       </c>
@@ -2333,7 +2516,7 @@
         <v>17.65999984741211</v>
       </c>
       <c r="F63">
-        <v>11.59377956390381</v>
+        <v>11.50731754302979</v>
       </c>
       <c r="G63">
         <v>46100</v>
@@ -2342,13 +2525,16 @@
         <v>0.05748497249192241</v>
       </c>
       <c r="I63">
-        <v>-0.2828426457903712</v>
+        <v>0.0670039996801732</v>
       </c>
       <c r="J63">
         <v>-0.2828426457903712</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63">
+        <v>-0.2828426457903712</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="2">
         <v>37012</v>
       </c>
@@ -2365,7 +2551,7 @@
         <v>16.70000076293945</v>
       </c>
       <c r="F64">
-        <v>10.96354198455811</v>
+        <v>10.88177680969238</v>
       </c>
       <c r="G64">
         <v>19300</v>
@@ -2374,13 +2560,16 @@
         <v>-0.05436008452816232</v>
       </c>
       <c r="I64">
-        <v>-0.3252524944266888</v>
+        <v>0.06690310248982338</v>
       </c>
       <c r="J64">
         <v>-0.3252524944266888</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64">
+        <v>-0.3252524944266888</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="2">
         <v>37043</v>
       </c>
@@ -2397,7 +2586,7 @@
         <v>16.60000038146973</v>
       </c>
       <c r="F65">
-        <v>10.89788722991943</v>
+        <v>10.81661605834961</v>
       </c>
       <c r="G65">
         <v>125600</v>
@@ -2406,13 +2595,16 @@
         <v>-0.005988046521030466</v>
       </c>
       <c r="I65">
-        <v>-0.3154639017950628</v>
+        <v>0.0663776817044946</v>
       </c>
       <c r="J65">
         <v>-0.3154639017950628</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65">
+        <v>-0.3154639017950628</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="2">
         <v>37073</v>
       </c>
@@ -2429,7 +2621,7 @@
         <v>16.44000053405762</v>
       </c>
       <c r="F66">
-        <v>10.79284954071045</v>
+        <v>10.71235752105713</v>
       </c>
       <c r="G66">
         <v>63500</v>
@@ -2438,13 +2630,16 @@
         <v>-0.00963854480333115</v>
       </c>
       <c r="I66">
-        <v>-0.3203100554394783</v>
+        <v>0.06587597570390179</v>
       </c>
       <c r="J66">
         <v>-0.3203100554394783</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66">
+        <v>-0.3203100554394783</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="2">
         <v>37104</v>
       </c>
@@ -2461,7 +2656,7 @@
         <v>15.25</v>
       </c>
       <c r="F67">
-        <v>10.13431739807129</v>
+        <v>10.05873966217041</v>
       </c>
       <c r="G67">
         <v>60000</v>
@@ -2470,13 +2665,16 @@
         <v>-0.07238445835767315</v>
       </c>
       <c r="I67">
-        <v>-0.2583586626139818</v>
+        <v>0.06606519294900366</v>
       </c>
       <c r="J67">
         <v>-0.2583586626139818</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67">
+        <v>-0.2583586626139818</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="2">
         <v>37135</v>
       </c>
@@ -2493,7 +2691,7 @@
         <v>12.4399995803833</v>
       </c>
       <c r="F68">
-        <v>8.266944885253906</v>
+        <v>8.205289840698242</v>
       </c>
       <c r="G68">
         <v>88200</v>
@@ -2502,13 +2700,16 @@
         <v>-0.1842623225978164</v>
       </c>
       <c r="I68">
-        <v>-0.3558576269057191</v>
+        <v>0.0695334606529564</v>
       </c>
       <c r="J68">
         <v>-0.3558576269057191</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K68">
+        <v>-0.3558576269057191</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="2">
         <v>37165</v>
       </c>
@@ -2525,7 +2726,7 @@
         <v>13.14999961853027</v>
       </c>
       <c r="F69">
-        <v>8.738773345947266</v>
+        <v>8.673599243164062</v>
       </c>
       <c r="G69">
         <v>147100</v>
@@ -2534,13 +2735,16 @@
         <v>0.05707395997557541</v>
       </c>
       <c r="I69">
-        <v>-0.3256410452035757</v>
+        <v>0.069341224349964</v>
       </c>
       <c r="J69">
         <v>-0.3256410452035757</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69">
+        <v>-0.3256410452035757</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="2">
         <v>37196</v>
       </c>
@@ -2557,7 +2761,7 @@
         <v>14.51000022888184</v>
       </c>
       <c r="F70">
-        <v>9.64255428314209</v>
+        <v>9.570640563964844</v>
       </c>
       <c r="G70">
         <v>20300</v>
@@ -2566,13 +2770,16 @@
         <v>0.1034221026466893</v>
       </c>
       <c r="I70">
-        <v>-0.2021993001302084</v>
+        <v>0.06991099633563305</v>
       </c>
       <c r="J70">
         <v>-0.2021993001302084</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70">
+        <v>-0.2021993001302084</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="2">
         <v>37226</v>
       </c>
@@ -2589,7 +2796,7 @@
         <v>15.10000038146973</v>
       </c>
       <c r="F71">
-        <v>10.03463745117188</v>
+        <v>9.95980167388916</v>
       </c>
       <c r="G71">
         <v>38100</v>
@@ -2598,13 +2805,16 @@
         <v>0.04066162255556049</v>
       </c>
       <c r="I71">
-        <v>-0.2256410060784756</v>
+        <v>0.06953874091320483</v>
       </c>
       <c r="J71">
         <v>-0.2256410060784756</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71">
+        <v>-0.2256410060784756</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="2">
         <v>37257</v>
       </c>
@@ -2621,7 +2831,7 @@
         <v>14.40999984741211</v>
       </c>
       <c r="F72">
-        <v>9.576101303100586</v>
+        <v>9.504683494567871</v>
       </c>
       <c r="G72">
         <v>208800</v>
@@ -2630,13 +2840,16 @@
         <v>-0.0456953984520666</v>
       </c>
       <c r="I72">
-        <v>-0.2970731781750191</v>
+        <v>0.06928892048171376</v>
       </c>
       <c r="J72">
         <v>-0.2970731781750191</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72">
+        <v>-0.2970731781750191</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="2">
         <v>37288</v>
       </c>
@@ -2653,7 +2866,7 @@
         <v>14.26000022888184</v>
       </c>
       <c r="F73">
-        <v>9.476420402526855</v>
+        <v>9.405745506286621</v>
       </c>
       <c r="G73">
         <v>42000</v>
@@ -2662,13 +2875,16 @@
         <v>-0.01040941152801</v>
       </c>
       <c r="I73">
-        <v>-0.2353887120344292</v>
+        <v>0.06881166158238057</v>
       </c>
       <c r="J73">
         <v>-0.2353887120344292</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73">
+        <v>-0.2353887120344292</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="2">
         <v>37316</v>
       </c>
@@ -2685,7 +2901,7 @@
         <v>15.34000015258789</v>
       </c>
       <c r="F74">
-        <v>10.19412899017334</v>
+        <v>10.11810398101807</v>
       </c>
       <c r="G74">
         <v>13900</v>
@@ -2694,13 +2910,16 @@
         <v>0.07573631881987275</v>
       </c>
       <c r="I74">
-        <v>-0.08143715857604439</v>
+        <v>0.0688583592593907</v>
       </c>
       <c r="J74">
         <v>-0.08143715857604439</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="K74">
+        <v>-0.08143715857604439</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="2">
         <v>37347</v>
       </c>
@@ -2717,7 +2936,7 @@
         <v>14.89000034332275</v>
       </c>
       <c r="F75">
-        <v>9.895083427429199</v>
+        <v>9.821285247802734</v>
       </c>
       <c r="G75">
         <v>57600</v>
@@ -2726,13 +2945,16 @@
         <v>-0.02933505898233124</v>
       </c>
       <c r="I75">
-        <v>-0.1568516154033416</v>
+        <v>0.06849096897593546</v>
       </c>
       <c r="J75">
         <v>-0.1568516154033416</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="K75">
+        <v>-0.1568516154033416</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="2">
         <v>37377</v>
       </c>
@@ -2749,7 +2971,7 @@
         <v>14.68000030517578</v>
       </c>
       <c r="F76">
-        <v>9.75553035736084</v>
+        <v>9.68277645111084</v>
       </c>
       <c r="G76">
         <v>63500</v>
@@ -2758,13 +2980,16 @@
         <v>-0.01410342735426096</v>
       </c>
       <c r="I76">
-        <v>-0.1209581057173629</v>
+        <v>0.06805180932489625</v>
       </c>
       <c r="J76">
         <v>-0.1209581057173629</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="K76">
+        <v>-0.1209581057173629</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="2">
         <v>37408</v>
       </c>
@@ -2781,7 +3006,7 @@
         <v>14.53999996185303</v>
       </c>
       <c r="F77">
-        <v>9.662489891052246</v>
+        <v>9.590427398681641</v>
       </c>
       <c r="G77">
         <v>58900</v>
@@ -2790,13 +3015,16 @@
         <v>-0.009536807929996671</v>
       </c>
       <c r="I77">
-        <v>-0.1240964079685347</v>
+        <v>0.06760716194646857</v>
       </c>
       <c r="J77">
         <v>-0.1240964079685347</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77">
+        <v>-0.1240964079685347</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="2">
         <v>37438</v>
       </c>
@@ -2813,7 +3041,7 @@
         <v>12.17000007629395</v>
       </c>
       <c r="F78">
-        <v>8.087518692016602</v>
+        <v>8.027203559875488</v>
       </c>
       <c r="G78">
         <v>148300</v>
@@ -2822,13 +3050,16 @@
         <v>-0.1629986170410582</v>
       </c>
       <c r="I78">
-        <v>-0.2597323795043562</v>
+        <v>0.06981206982047182</v>
       </c>
       <c r="J78">
         <v>-0.2597323795043562</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78">
+        <v>-0.2597323795043562</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="2">
         <v>37469</v>
       </c>
@@ -2845,7 +3076,7 @@
         <v>12.05000019073486</v>
       </c>
       <c r="F79">
-        <v>8.007771492004395</v>
+        <v>7.948054313659668</v>
       </c>
       <c r="G79">
         <v>65700</v>
@@ -2854,13 +3085,16 @@
         <v>-0.009860302777880081</v>
       </c>
       <c r="I79">
-        <v>-0.2098360530665664</v>
+        <v>0.06936255592499822</v>
       </c>
       <c r="J79">
         <v>-0.2098360530665664</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="K79">
+        <v>-0.2098360530665664</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="2">
         <v>37500</v>
       </c>
@@ -2877,7 +3111,7 @@
         <v>9.159999847412109</v>
       </c>
       <c r="F80">
-        <v>6.087236881256104</v>
+        <v>6.041839599609375</v>
       </c>
       <c r="G80">
         <v>105500</v>
@@ -2886,13 +3120,16 @@
         <v>-0.2398340495915385</v>
       </c>
       <c r="I80">
-        <v>-0.2636655822837357</v>
+        <v>0.07410918466277314</v>
       </c>
       <c r="J80">
         <v>-0.2636655822837357</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="K80">
+        <v>-0.2636655822837357</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="2">
         <v>37530</v>
       </c>
@@ -2909,7 +3146,7 @@
         <v>10.42000007629395</v>
       </c>
       <c r="F81">
-        <v>6.924565315246582</v>
+        <v>6.872922420501709</v>
       </c>
       <c r="G81">
         <v>221700</v>
@@ -2918,13 +3155,16 @@
         <v>0.1375546124313323</v>
       </c>
       <c r="I81">
-        <v>-0.2076045339491386</v>
+        <v>0.07529048870939203</v>
       </c>
       <c r="J81">
         <v>-0.2076045339491386</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81">
+        <v>-0.2076045339491386</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="2">
         <v>37561</v>
       </c>
@@ -2941,7 +3181,7 @@
         <v>11.07999992370605</v>
       </c>
       <c r="F82">
-        <v>7.363162994384766</v>
+        <v>7.308250904083252</v>
       </c>
       <c r="G82">
         <v>17300</v>
@@ -2950,13 +3190,16 @@
         <v>0.06333971617847145</v>
       </c>
       <c r="I82">
-        <v>-0.2363887147533217</v>
+        <v>0.07515043569430803</v>
       </c>
       <c r="J82">
         <v>-0.2363887147533217</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82">
+        <v>-0.2363887147533217</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="2">
         <v>37591</v>
       </c>
@@ -2973,7 +3216,7 @@
         <v>9.840000152587891</v>
       </c>
       <c r="F83">
-        <v>6.61674690246582</v>
+        <v>6.567400932312012</v>
       </c>
       <c r="G83">
         <v>118900</v>
@@ -2982,13 +3225,16 @@
         <v>-0.1119133375141222</v>
       </c>
       <c r="I83">
-        <v>-0.3483443772184769</v>
+        <v>0.07571582522349167</v>
       </c>
       <c r="J83">
         <v>-0.3483443772184769</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="K83">
+        <v>-0.3483443772184769</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="2">
         <v>37622</v>
       </c>
@@ -3005,7 +3251,7 @@
         <v>9.819999694824219</v>
       </c>
       <c r="F84">
-        <v>6.603297710418701</v>
+        <v>6.55405330657959</v>
       </c>
       <c r="G84">
         <v>36200</v>
@@ -3014,13 +3260,16 @@
         <v>-0.002032566814382797</v>
       </c>
       <c r="I84">
-        <v>-0.3185288134067682</v>
+        <v>0.07524709072635329</v>
       </c>
       <c r="J84">
         <v>-0.3185288134067682</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84">
+        <v>-0.3185288134067682</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="2">
         <v>37653</v>
       </c>
@@ -3037,7 +3286,7 @@
         <v>9.109999656677246</v>
       </c>
       <c r="F85">
-        <v>6.125870704650879</v>
+        <v>6.080185890197754</v>
       </c>
       <c r="G85">
         <v>230800</v>
@@ -3046,13 +3295,16 @@
         <v>-0.07230143179344384</v>
       </c>
       <c r="I85">
-        <v>-0.3611501044560933</v>
+        <v>0.07519590840004024</v>
       </c>
       <c r="J85">
         <v>-0.3611501044560933</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="K85">
+        <v>-0.3611501044560933</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="2">
         <v>37681</v>
       </c>
@@ -3069,7 +3321,7 @@
         <v>8.689999580383301</v>
       </c>
       <c r="F86">
-        <v>5.843449115753174</v>
+        <v>5.799869537353516</v>
       </c>
       <c r="G86">
         <v>149400</v>
@@ -3078,13 +3330,16 @@
         <v>-0.046103193427247</v>
       </c>
       <c r="I86">
-        <v>-0.4335072037846571</v>
+        <v>0.07489768248521163</v>
       </c>
       <c r="J86">
         <v>-0.4335072037846571</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86">
+        <v>-0.4335072037846571</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="2">
         <v>37712</v>
       </c>
@@ -3101,7 +3356,7 @@
         <v>10.84000015258789</v>
       </c>
       <c r="F87">
-        <v>7.289182662963867</v>
+        <v>7.234820365905762</v>
       </c>
       <c r="G87">
         <v>153500</v>
@@ -3110,13 +3365,16 @@
         <v>0.247410894824204</v>
       </c>
       <c r="I87">
-        <v>-0.2719946338047627</v>
+        <v>0.0792253163005547</v>
       </c>
       <c r="J87">
         <v>-0.2719946338047627</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="K87">
+        <v>-0.2719946338047627</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="2">
         <v>37742</v>
       </c>
@@ -3133,7 +3391,7 @@
         <v>11.47000026702881</v>
       </c>
       <c r="F88">
-        <v>7.712813854217529</v>
+        <v>7.655294895172119</v>
       </c>
       <c r="G88">
         <v>113800</v>
@@ -3142,13 +3400,16 @@
         <v>0.05811809092000009</v>
       </c>
       <c r="I88">
-        <v>-0.2186648481890843</v>
+        <v>0.07900168114352368</v>
       </c>
       <c r="J88">
         <v>-0.2186648481890843</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88">
+        <v>-0.2186648481890843</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="2">
         <v>37773</v>
       </c>
@@ -3165,7 +3426,7 @@
         <v>12.19999980926514</v>
       </c>
       <c r="F89">
-        <v>8.203690528869629</v>
+        <v>8.142510414123535</v>
       </c>
       <c r="G89">
         <v>42500</v>
@@ -3174,13 +3435,16 @@
         <v>0.06364424805941415</v>
       </c>
       <c r="I89">
-        <v>-0.1609353616731147</v>
+        <v>0.07882513305290909</v>
       </c>
       <c r="J89">
         <v>-0.1609353616731147</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="K89">
+        <v>-0.1609353616731147</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="2">
         <v>37803</v>
       </c>
@@ -3197,7 +3461,7 @@
         <v>12.69999980926514</v>
       </c>
       <c r="F90">
-        <v>8.539907455444336</v>
+        <v>8.476219177246094</v>
       </c>
       <c r="G90">
         <v>5100</v>
@@ -3206,13 +3470,16 @@
         <v>0.04098360719811489</v>
       </c>
       <c r="I90">
-        <v>0.04354969019298394</v>
+        <v>0.07848094135294693</v>
       </c>
       <c r="J90">
         <v>0.04354969019298394</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90">
+        <v>0.04354969019298394</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="2">
         <v>37834</v>
       </c>
@@ -3229,7 +3496,7 @@
         <v>12.55000019073486</v>
       </c>
       <c r="F91">
-        <v>8.439043998718262</v>
+        <v>8.376106262207031</v>
       </c>
       <c r="G91">
         <v>44800</v>
@@ -3238,13 +3505,16 @@
         <v>-0.01181099376244421</v>
       </c>
       <c r="I91">
-        <v>0.04149377527682074</v>
+        <v>0.07804836663836212</v>
       </c>
       <c r="J91">
         <v>0.04149377527682074</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="K91">
+        <v>0.04149377527682074</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="2">
         <v>37865</v>
       </c>
@@ -3261,7 +3531,7 @@
         <v>12.46000003814697</v>
       </c>
       <c r="F92">
-        <v>8.378521919250488</v>
+        <v>8.316036224365234</v>
       </c>
       <c r="G92">
         <v>94200</v>
@@ -3270,13 +3540,16 @@
         <v>-0.007171326790443744</v>
       </c>
       <c r="I92">
-        <v>0.3602620355574768</v>
+        <v>0.07761504399425702</v>
       </c>
       <c r="J92">
         <v>0.3602620355574768</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="K92">
+        <v>0.3602620355574768</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="2">
         <v>37895</v>
       </c>
@@ -3293,7 +3566,7 @@
         <v>13.89000034332275</v>
       </c>
       <c r="F93">
-        <v>9.340105056762695</v>
+        <v>9.270448684692383</v>
       </c>
       <c r="G93">
         <v>53700</v>
@@ -3302,13 +3575,16 @@
         <v>0.1147672793577654</v>
       </c>
       <c r="I93">
-        <v>0.3330134588888578</v>
+        <v>0.07807993507450682</v>
       </c>
       <c r="J93">
         <v>0.3330134588888578</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="K93">
+        <v>0.3330134588888578</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="2">
         <v>37926</v>
       </c>
@@ -3325,7 +3601,7 @@
         <v>14.80000019073486</v>
       </c>
       <c r="F94">
-        <v>9.952018737792969</v>
+        <v>9.877799034118652</v>
       </c>
       <c r="G94">
         <v>24400</v>
@@ -3334,13 +3610,16 @@
         <v>0.06551474621450004</v>
       </c>
       <c r="I94">
-        <v>0.3357400986140564</v>
+        <v>0.07791923374434002</v>
       </c>
       <c r="J94">
         <v>0.3357400986140564</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="K94">
+        <v>0.3357400986140564</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="2">
         <v>37956</v>
       </c>
@@ -3357,7 +3636,7 @@
         <v>16.19000053405762</v>
       </c>
       <c r="F95">
-        <v>11.02698230743408</v>
+        <v>10.94474601745605</v>
       </c>
       <c r="G95">
         <v>96600</v>
@@ -3366,13 +3645,16 @@
         <v>0.09391894090602282</v>
       </c>
       <c r="I95">
-        <v>0.6453252320122878</v>
+        <v>0.07805248557266561</v>
       </c>
       <c r="J95">
         <v>0.6453252320122878</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95">
+        <v>0.6453252320122878</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="2">
         <v>37987</v>
       </c>
@@ -3389,7 +3671,7 @@
         <v>16.44000053405762</v>
       </c>
       <c r="F96">
-        <v>11.1972541809082</v>
+        <v>11.11374855041504</v>
       </c>
       <c r="G96">
         <v>61700</v>
@@ -3398,13 +3680,16 @@
         <v>0.01544163012682387</v>
       </c>
       <c r="I96">
-        <v>0.6741345259636384</v>
+        <v>0.07763911265526582</v>
       </c>
       <c r="J96">
         <v>0.6741345259636384</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96">
+        <v>0.6741345259636384</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="2">
         <v>38018</v>
       </c>
@@ -3421,7 +3706,7 @@
         <v>16.21999931335449</v>
       </c>
       <c r="F97">
-        <v>11.04741287231445</v>
+        <v>10.96502685546875</v>
       </c>
       <c r="G97">
         <v>139200</v>
@@ -3430,13 +3715,16 @@
         <v>-0.01338206895111493</v>
       </c>
       <c r="I97">
-        <v>0.7804610235595251</v>
+        <v>0.07724846460877906</v>
       </c>
       <c r="J97">
         <v>0.7804610235595251</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="K97">
+        <v>0.7804610235595251</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="2">
         <v>38047</v>
       </c>
@@ -3453,7 +3741,7 @@
         <v>15.5600004196167</v>
       </c>
       <c r="F98">
-        <v>10.5978889465332</v>
+        <v>10.51885223388672</v>
       </c>
       <c r="G98">
         <v>72700</v>
@@ -3462,13 +3750,16 @@
         <v>-0.04069043906767567</v>
       </c>
       <c r="I98">
-        <v>0.7905640012620547</v>
+        <v>0.07698197581144495</v>
       </c>
       <c r="J98">
         <v>0.7905640012620547</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="K98">
+        <v>0.7905640012620547</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="2">
         <v>38078</v>
       </c>
@@ -3485,7 +3776,7 @@
         <v>15.40999984741211</v>
       </c>
       <c r="F99">
-        <v>10.49572277069092</v>
+        <v>10.41744995117188</v>
       </c>
       <c r="G99">
         <v>48300</v>
@@ -3494,13 +3785,16 @@
         <v>-0.009640139341865472</v>
       </c>
       <c r="I99">
-        <v>0.4215866817799996</v>
+        <v>0.07659341653334008</v>
       </c>
       <c r="J99">
         <v>0.4215866817799996</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="K99">
+        <v>0.4215866817799996</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="2">
         <v>38108</v>
       </c>
@@ -3517,7 +3811,7 @@
         <v>15.5600004196167</v>
       </c>
       <c r="F100">
-        <v>10.5978889465332</v>
+        <v>10.51885223388672</v>
       </c>
       <c r="G100">
         <v>15300</v>
@@ -3526,13 +3820,16 @@
         <v>0.009733976229064023</v>
       </c>
       <c r="I100">
-        <v>0.3565823938422075</v>
+        <v>0.07619952725754582</v>
       </c>
       <c r="J100">
         <v>0.3565823938422075</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="K100">
+        <v>0.3565823938422075</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="2">
         <v>38139</v>
       </c>
@@ -3549,7 +3846,7 @@
         <v>16.14999961853027</v>
       </c>
       <c r="F101">
-        <v>10.99973773956299</v>
+        <v>10.91770458221436</v>
       </c>
       <c r="G101">
         <v>207400</v>
@@ -3558,13 +3855,16 @@
         <v>0.03791768528294859</v>
       </c>
       <c r="I101">
-        <v>0.3237704812311029</v>
+        <v>0.07588456747858519</v>
       </c>
       <c r="J101">
         <v>0.3237704812311029</v>
       </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="K101">
+        <v>0.3237704812311029</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="2">
         <v>38169</v>
       </c>
@@ -3581,7 +3881,7 @@
         <v>15.14000034332275</v>
       </c>
       <c r="F102">
-        <v>10.31182861328125</v>
+        <v>10.23492527008057</v>
       </c>
       <c r="G102">
         <v>7400</v>
@@ -3590,13 +3890,16 @@
         <v>-0.06253865628880018</v>
       </c>
       <c r="I102">
-        <v>0.1921260291891929</v>
+        <v>0.07579948944642252</v>
       </c>
       <c r="J102">
         <v>0.1921260291891929</v>
       </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="K102">
+        <v>0.1921260291891929</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="2">
         <v>38200</v>
       </c>
@@ -3613,7 +3916,7 @@
         <v>15</v>
       </c>
       <c r="F103">
-        <v>10.21647453308105</v>
+        <v>10.14028263092041</v>
       </c>
       <c r="G103">
         <v>89000</v>
@@ -3622,13 +3925,16 @@
         <v>-0.009247050207928043</v>
       </c>
       <c r="I103">
-        <v>0.1952191053410397</v>
+        <v>0.07543117109322639</v>
       </c>
       <c r="J103">
         <v>0.1952191053410397</v>
       </c>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="K103">
+        <v>0.1952191053410397</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="2">
         <v>38231</v>
       </c>
@@ -3645,7 +3951,7 @@
         <v>15.77000045776367</v>
       </c>
       <c r="F104">
-        <v>10.74092102050781</v>
+        <v>10.66081619262695</v>
       </c>
       <c r="G104">
         <v>65500</v>
@@ -3654,13 +3960,16 @@
         <v>0.05133336385091147</v>
       </c>
       <c r="I104">
-        <v>0.2656501131206221</v>
+        <v>0.07520341344495292</v>
       </c>
       <c r="J104">
         <v>0.2656501131206221</v>
       </c>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="K104">
+        <v>0.2656501131206221</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="2">
         <v>38261</v>
       </c>
@@ -3677,7 +3986,7 @@
         <v>16.47999954223633</v>
       </c>
       <c r="F105">
-        <v>11.22450065612793</v>
+        <v>11.14078712463379</v>
       </c>
       <c r="G105">
         <v>50500</v>
@@ -3686,13 +3995,16 @@
         <v>0.04502213467743554</v>
       </c>
       <c r="I105">
-        <v>0.1864650205108631</v>
+        <v>0.07494083857082351</v>
       </c>
       <c r="J105">
         <v>0.1864650205108631</v>
       </c>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="K105">
+        <v>0.1864650205108631</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="2">
         <v>38292</v>
       </c>
@@ -3709,7 +4021,7 @@
         <v>17.77000045776367</v>
       </c>
       <c r="F106">
-        <v>12.10311698913574</v>
+        <v>12.01285552978516</v>
       </c>
       <c r="G106">
         <v>200500</v>
@@ -3718,13 +4030,16 @@
         <v>0.07827675675725732</v>
       </c>
       <c r="I106">
-        <v>0.2006756911319567</v>
+        <v>0.07492346954794001</v>
       </c>
       <c r="J106">
         <v>0.2006756911319567</v>
       </c>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="K106">
+        <v>0.2006756911319567</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="2">
         <v>38322</v>
       </c>
@@ -3741,7 +4056,7 @@
         <v>18.6299991607666</v>
       </c>
       <c r="F107">
-        <v>12.8232593536377</v>
+        <v>12.72762775421143</v>
       </c>
       <c r="G107">
         <v>87400</v>
@@ -3750,13 +4065,16 @@
         <v>0.04839609909110609</v>
       </c>
       <c r="I107">
-        <v>0.1507102252143941</v>
+        <v>0.07467981918383849</v>
       </c>
       <c r="J107">
         <v>0.1507102252143941</v>
       </c>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="K107">
+        <v>0.1507102252143941</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="2">
         <v>38353</v>
       </c>
@@ -3773,7 +4091,7 @@
         <v>17.75</v>
       </c>
       <c r="F108">
-        <v>12.21754360198975</v>
+        <v>12.12642669677734</v>
       </c>
       <c r="G108">
         <v>69600</v>
@@ -3782,13 +4100,16 @@
         <v>-0.04723559851896364</v>
       </c>
       <c r="I108">
-        <v>0.07968366322303622</v>
+        <v>0.07450237416371042</v>
       </c>
       <c r="J108">
         <v>0.07968366322303622</v>
       </c>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="K108">
+        <v>0.07968366322303622</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="2">
         <v>38384</v>
       </c>
@@ -3805,7 +4126,7 @@
         <v>18.47999954223633</v>
       </c>
       <c r="F109">
-        <v>12.72001171112061</v>
+        <v>12.62514781951904</v>
       </c>
       <c r="G109">
         <v>110300</v>
@@ -3814,13 +4135,16 @@
         <v>0.04112673477387774</v>
       </c>
       <c r="I109">
-        <v>0.1393341753733059</v>
+        <v>0.0742304814870874</v>
       </c>
       <c r="J109">
         <v>0.1393341753733059</v>
       </c>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="K109">
+        <v>0.1393341753733059</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="2">
         <v>38412</v>
       </c>
@@ -3837,7 +4161,7 @@
         <v>18.07999992370605</v>
       </c>
       <c r="F110">
-        <v>12.44468784332275</v>
+        <v>12.35187435150146</v>
       </c>
       <c r="G110">
         <v>85100</v>
@@ -3846,13 +4170,16 @@
         <v>-0.0216450015388836</v>
       </c>
       <c r="I110">
-        <v>0.1619536912680515</v>
+        <v>0.07392977358473843</v>
       </c>
       <c r="J110">
         <v>0.1619536912680515</v>
       </c>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="K110">
+        <v>0.1619536912680515</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="2">
         <v>38443</v>
       </c>
@@ -3869,7 +4196,7 @@
         <v>17.29999923706055</v>
       </c>
       <c r="F111">
-        <v>11.90780258178711</v>
+        <v>11.81899738311768</v>
       </c>
       <c r="G111">
         <v>69500</v>
@@ -3878,13 +4205,16 @@
         <v>-0.04314163108058366</v>
       </c>
       <c r="I111">
-        <v>0.1226475930151185</v>
+        <v>0.07373397015915102</v>
       </c>
       <c r="J111">
         <v>0.1226475930151185</v>
       </c>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="K111">
+        <v>0.1226475930151185</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="2">
         <v>38473</v>
       </c>
@@ -3901,7 +4231,7 @@
         <v>17.67000007629395</v>
       </c>
       <c r="F112">
-        <v>12.16247940063477</v>
+        <v>12.07177352905273</v>
       </c>
       <c r="G112">
         <v>578200</v>
@@ -3910,13 +4240,16 @@
         <v>0.0213873326907883</v>
       </c>
       <c r="I112">
-        <v>0.1356040873891713</v>
+        <v>0.07341150926080058</v>
       </c>
       <c r="J112">
         <v>0.1356040873891713</v>
       </c>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="K112">
+        <v>0.1356040873891713</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" s="2">
         <v>38504</v>
       </c>
@@ -3933,7 +4266,7 @@
         <v>17.73999977111816</v>
       </c>
       <c r="F113">
-        <v>12.21066093444824</v>
+        <v>12.11959743499756</v>
       </c>
       <c r="G113">
         <v>171400</v>
@@ -3942,13 +4275,16 @@
         <v>0.003961499407016511</v>
       </c>
       <c r="I113">
-        <v>0.09845202415754528</v>
+        <v>0.07307715160537048</v>
       </c>
       <c r="J113">
         <v>0.09845202415754528</v>
       </c>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="K113">
+        <v>0.09845202415754528</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" s="2">
         <v>38534</v>
       </c>
@@ -3965,7 +4301,7 @@
         <v>18.94000053405762</v>
       </c>
       <c r="F114">
-        <v>13.03663635253906</v>
+        <v>12.93941116333008</v>
       </c>
       <c r="G114">
         <v>358500</v>
@@ -3974,13 +4310,16 @@
         <v>0.06764378683325178</v>
       </c>
       <c r="I114">
-        <v>0.2509907598787335</v>
+        <v>0.07298629116155915</v>
       </c>
       <c r="J114">
         <v>0.2509907598787335</v>
       </c>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="K114">
+        <v>0.2509907598787335</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" s="2">
         <v>38565</v>
       </c>
@@ -3997,7 +4336,7 @@
         <v>19.29999923706055</v>
       </c>
       <c r="F115">
-        <v>13.28442668914795</v>
+        <v>13.1853551864624</v>
       </c>
       <c r="G115">
         <v>211100</v>
@@ -4006,13 +4345,16 @@
         <v>0.01900732274825367</v>
       </c>
       <c r="I115">
-        <v>0.2866666158040365</v>
+        <v>0.07267045442977742</v>
       </c>
       <c r="J115">
         <v>0.2866666158040365</v>
       </c>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="K115">
+        <v>0.2866666158040365</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="2">
         <v>38596</v>
       </c>
@@ -4029,7 +4371,7 @@
         <v>19.44000053405762</v>
       </c>
       <c r="F116">
-        <v>13.38079261779785</v>
+        <v>13.28099918365479</v>
       </c>
       <c r="G116">
         <v>337700</v>
@@ -4038,13 +4380,16 @@
         <v>0.007253953499036125</v>
       </c>
       <c r="I116">
-        <v>0.2327203531872557</v>
+        <v>0.07234830815257051</v>
       </c>
       <c r="J116">
         <v>0.2327203531872557</v>
       </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="K116">
+        <v>0.2327203531872557</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="2">
         <v>38626</v>
       </c>
@@ -4061,7 +4406,7 @@
         <v>18.89999961853027</v>
       </c>
       <c r="F117">
-        <v>13.00910377502441</v>
+        <v>12.91208362579346</v>
       </c>
       <c r="G117">
         <v>3137200</v>
@@ -4070,13 +4415,16 @@
         <v>-0.02777782410969065</v>
       </c>
       <c r="I117">
-        <v>0.1468446689025547</v>
+        <v>0.07209858031860472</v>
       </c>
       <c r="J117">
         <v>0.1468446689025547</v>
       </c>
-    </row>
-    <row r="118" spans="1:10">
+      <c r="K117">
+        <v>0.1468446689025547</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" s="2">
         <v>38657</v>
       </c>
@@ -4093,7 +4441,7 @@
         <v>19.45999908447266</v>
       </c>
       <c r="F118">
-        <v>13.39455986022949</v>
+        <v>13.29466533660889</v>
       </c>
       <c r="G118">
         <v>542200</v>
@@ -4102,13 +4450,16 @@
         <v>0.02962960197064435</v>
       </c>
       <c r="I118">
-        <v>0.09510402831591525</v>
+        <v>0.07181916550703783</v>
       </c>
       <c r="J118">
         <v>0.09510402831591525</v>
       </c>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="K118">
+        <v>0.09510402831591525</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="2">
         <v>38687</v>
       </c>
@@ -4125,7 +4476,7 @@
         <v>20.30999946594238</v>
       </c>
       <c r="F119">
-        <v>14.05952930450439</v>
+        <v>13.95467853546143</v>
       </c>
       <c r="G119">
         <v>652200</v>
@@ -4134,13 +4485,16 @@
         <v>0.04367936389822091</v>
       </c>
       <c r="I119">
-        <v>0.09017715409852167</v>
+        <v>0.07159471723007309</v>
       </c>
       <c r="J119">
         <v>0.09017715409852167</v>
       </c>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="K119">
+        <v>0.09017715409852167</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" s="2">
         <v>38718</v>
       </c>
@@ -4157,7 +4511,7 @@
         <v>21.95000076293945</v>
       </c>
       <c r="F120">
-        <v>15.19481563568115</v>
+        <v>15.08149433135986</v>
       </c>
       <c r="G120">
         <v>480700</v>
@@ -4166,13 +4520,16 @@
         <v>0.08074846578638128</v>
       </c>
       <c r="I120">
-        <v>0.2366197612923635</v>
+        <v>0.07161851491557132</v>
       </c>
       <c r="J120">
         <v>0.2366197612923635</v>
       </c>
-    </row>
-    <row r="121" spans="1:10">
+      <c r="K120">
+        <v>0.2366197612923635</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="2">
         <v>38749</v>
       </c>
@@ -4189,7 +4546,7 @@
         <v>22.04999923706055</v>
       </c>
       <c r="F121">
-        <v>15.26403999328613</v>
+        <v>15.15020561218262</v>
       </c>
       <c r="G121">
         <v>1643100</v>
@@ -4198,13 +4555,16 @@
         <v>0.004555738981564472</v>
       </c>
       <c r="I121">
-        <v>0.1931818064532376</v>
+        <v>0.07131468120472349</v>
       </c>
       <c r="J121">
         <v>0.1931818064532376</v>
       </c>
-    </row>
-    <row r="122" spans="1:10">
+      <c r="K121">
+        <v>0.1931818064532376</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" s="2">
         <v>38777</v>
       </c>
@@ -4221,7 +4581,7 @@
         <v>23.04999923706055</v>
       </c>
       <c r="F122">
-        <v>15.95628833770752</v>
+        <v>15.83728694915771</v>
       </c>
       <c r="G122">
         <v>546100</v>
@@ -4230,13 +4590,16 @@
         <v>0.04535147549208296</v>
       </c>
       <c r="I122">
-        <v>0.2748893437127702</v>
+        <v>0.07110192473193903</v>
       </c>
       <c r="J122">
         <v>0.2748893437127702</v>
       </c>
-    </row>
-    <row r="123" spans="1:10">
+      <c r="K122">
+        <v>0.2748893437127702</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" s="2">
         <v>38808</v>
       </c>
@@ -4253,7 +4616,7 @@
         <v>24.17000007629395</v>
       </c>
       <c r="F123">
-        <v>16.73160362243652</v>
+        <v>16.60682487487793</v>
       </c>
       <c r="G123">
         <v>502500</v>
@@ -4262,13 +4625,16 @@
         <v>0.04859005970953034</v>
       </c>
       <c r="I123">
-        <v>0.3971098926129597</v>
+        <v>0.07103136451864947</v>
       </c>
       <c r="J123">
         <v>0.3971098926129597</v>
       </c>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="K123">
+        <v>0.3971098926129597</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" s="2">
         <v>38838</v>
       </c>
@@ -4285,7 +4651,7 @@
         <v>23.11000061035156</v>
       </c>
       <c r="F124">
-        <v>15.9978199005127</v>
+        <v>15.87851238250732</v>
       </c>
       <c r="G124">
         <v>400500</v>
@@ -4294,13 +4660,16 @@
         <v>-0.04385599762500769</v>
       </c>
       <c r="I124">
-        <v>0.3078664691889796</v>
+        <v>0.07117097938763295</v>
       </c>
       <c r="J124">
         <v>0.3078664691889796</v>
       </c>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="K124">
+        <v>0.3078664691889796</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" s="2">
         <v>38869</v>
       </c>
@@ -4317,7 +4686,7 @@
         <v>22.94000053405762</v>
       </c>
       <c r="F125">
-        <v>15.88014125823975</v>
+        <v>15.76171112060547</v>
       </c>
       <c r="G125">
         <v>333100</v>
@@ -4326,13 +4695,16 @@
         <v>-0.007356125997582064</v>
       </c>
       <c r="I125">
-        <v>0.2931229329216443</v>
+        <v>0.0711431444692178</v>
       </c>
       <c r="J125">
         <v>0.2931229329216443</v>
       </c>
-    </row>
-    <row r="126" spans="1:10">
+      <c r="K125">
+        <v>0.2931229329216443</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" s="2">
         <v>38899</v>
       </c>
@@ -4349,7 +4721,7 @@
         <v>22.90999984741211</v>
       </c>
       <c r="F126">
-        <v>15.85937309265137</v>
+        <v>15.74110126495361</v>
       </c>
       <c r="G126">
         <v>510900</v>
@@ -4358,13 +4730,16 @@
         <v>-0.00130778927406594</v>
       </c>
       <c r="I126">
-        <v>0.2096092503384939</v>
+        <v>0.07114679517589372</v>
       </c>
       <c r="J126">
         <v>0.2096092503384939</v>
       </c>
-    </row>
-    <row r="127" spans="1:10">
+      <c r="K126">
+        <v>0.2096092503384939</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" s="2">
         <v>38930</v>
       </c>
@@ -4381,7 +4756,7 @@
         <v>23.76000022888184</v>
       </c>
       <c r="F127">
-        <v>16.44778442382812</v>
+        <v>16.32512283325195</v>
       </c>
       <c r="G127">
         <v>429800</v>
@@ -4390,13 +4765,16 @@
         <v>0.03710171921130501</v>
       </c>
       <c r="I127">
-        <v>0.2310881434262979</v>
+        <v>0.07117485439256084</v>
       </c>
       <c r="J127">
         <v>0.2310881434262979</v>
       </c>
-    </row>
-    <row r="128" spans="1:10">
+      <c r="K127">
+        <v>0.2310881434262979</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" s="2">
         <v>38961</v>
       </c>
@@ -4413,7 +4791,7 @@
         <v>24.03000068664551</v>
       </c>
       <c r="F128">
-        <v>16.63469123840332</v>
+        <v>16.5106315612793</v>
       </c>
       <c r="G128">
         <v>1015000</v>
@@ -4422,13 +4800,16 @@
         <v>0.01136365552031715</v>
       </c>
       <c r="I128">
-        <v>0.2361111124738144</v>
+        <v>0.07116845479292566</v>
       </c>
       <c r="J128">
         <v>0.2361111124738144</v>
       </c>
-    </row>
-    <row r="129" spans="1:10">
+      <c r="K128">
+        <v>0.2361111124738144</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" s="2">
         <v>38991</v>
       </c>
@@ -4445,7 +4826,7 @@
         <v>25.15999984741211</v>
       </c>
       <c r="F129">
-        <v>17.41693115234375</v>
+        <v>17.28703689575195</v>
       </c>
       <c r="G129">
         <v>279300</v>
@@ -4454,13 +4835,16 @@
         <v>0.04702451637442473</v>
       </c>
       <c r="I129">
-        <v>0.3312169500122262</v>
+        <v>0.07126070788283229</v>
       </c>
       <c r="J129">
         <v>0.3312169500122262</v>
       </c>
-    </row>
-    <row r="130" spans="1:10">
+      <c r="K129">
+        <v>0.3312169500122262</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" s="2">
         <v>39022</v>
       </c>
@@ -4477,7 +4861,7 @@
         <v>26.3799991607666</v>
       </c>
       <c r="F130">
-        <v>18.26146697998047</v>
+        <v>18.12527465820312</v>
       </c>
       <c r="G130">
         <v>803400</v>
@@ -4486,13 +4870,16 @@
         <v>0.04848963913964321</v>
       </c>
       <c r="I130">
-        <v>0.3556012539494664</v>
+        <v>0.07131158291038156</v>
       </c>
       <c r="J130">
         <v>0.3556012539494664</v>
       </c>
-    </row>
-    <row r="131" spans="1:10">
+      <c r="K130">
+        <v>0.3556012539494664</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" s="2">
         <v>39052</v>
       </c>
@@ -4509,7 +4896,7 @@
         <v>26.89999961853027</v>
       </c>
       <c r="F131">
-        <v>18.97464942932129</v>
+        <v>18.8331413269043</v>
       </c>
       <c r="G131">
         <v>190900</v>
@@ -4518,13 +4905,16 @@
         <v>0.0197119209365646</v>
       </c>
       <c r="I131">
-        <v>0.3244707201316568</v>
+        <v>0.07131649271317712</v>
       </c>
       <c r="J131">
         <v>0.3244707201316568</v>
       </c>
-    </row>
-    <row r="132" spans="1:10">
+      <c r="K131">
+        <v>0.3244707201316568</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" s="2">
         <v>39083</v>
       </c>
@@ -4541,7 +4931,7 @@
         <v>27.55999946594238</v>
       </c>
       <c r="F132">
-        <v>19.44019508361816</v>
+        <v>19.29521942138672</v>
       </c>
       <c r="G132">
         <v>728400</v>
@@ -4550,13 +4940,16 @@
         <v>0.02453531066065384</v>
       </c>
       <c r="I132">
-        <v>0.2555807976314468</v>
+        <v>0.07132904191293003</v>
       </c>
       <c r="J132">
         <v>0.2555807976314468</v>
       </c>
-    </row>
-    <row r="133" spans="1:10">
+      <c r="K132">
+        <v>0.2555807976314468</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" s="2">
         <v>39114</v>
       </c>
@@ -4573,7 +4966,7 @@
         <v>27.60000038146973</v>
       </c>
       <c r="F133">
-        <v>19.46841049194336</v>
+        <v>19.32322120666504</v>
       </c>
       <c r="G133">
         <v>1264800</v>
@@ -4582,13 +4975,16 @@
         <v>0.00145141205741961</v>
       </c>
       <c r="I133">
-        <v>0.2517007408817054</v>
+        <v>0.07128887092736189</v>
       </c>
       <c r="J133">
         <v>0.2517007408817054</v>
       </c>
-    </row>
-    <row r="134" spans="1:10">
+      <c r="K133">
+        <v>0.2517007408817054</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" s="2">
         <v>39142</v>
       </c>
@@ -4605,7 +5001,7 @@
         <v>28.82999992370605</v>
       </c>
       <c r="F134">
-        <v>20.33602333068848</v>
+        <v>20.18436241149902</v>
       </c>
       <c r="G134">
         <v>610800</v>
@@ -4614,13 +5010,16 @@
         <v>0.04456520018971211</v>
       </c>
       <c r="I134">
-        <v>0.2507592571782924</v>
+        <v>0.0713154505308895</v>
       </c>
       <c r="J134">
         <v>0.2507592571782924</v>
       </c>
-    </row>
-    <row r="135" spans="1:10">
+      <c r="K134">
+        <v>0.2507592571782924</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" s="2">
         <v>39173</v>
       </c>
@@ -4637,7 +5036,7 @@
         <v>31.39999961853027</v>
       </c>
       <c r="F135">
-        <v>22.14884185791016</v>
+        <v>21.98366546630859</v>
       </c>
       <c r="G135">
         <v>582400</v>
@@ -4646,13 +5045,16 @@
         <v>0.08914324320587275</v>
       </c>
       <c r="I135">
-        <v>0.2991311344399847</v>
+        <v>0.07165219093475432</v>
       </c>
       <c r="J135">
         <v>0.2991311344399847</v>
       </c>
-    </row>
-    <row r="136" spans="1:10">
+      <c r="K135">
+        <v>0.2991311344399847</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" s="2">
         <v>39203</v>
       </c>
@@ -4669,7 +5071,7 @@
         <v>33.06999969482422</v>
       </c>
       <c r="F136">
-        <v>23.32682609558105</v>
+        <v>23.15286064147949</v>
       </c>
       <c r="G136">
         <v>1048700</v>
@@ -4678,13 +5080,16 @@
         <v>0.05318471645166567</v>
       </c>
       <c r="I136">
-        <v>0.4309822077638248</v>
+        <v>0.07157482774722594</v>
       </c>
       <c r="J136">
         <v>0.4309822077638248</v>
       </c>
-    </row>
-    <row r="137" spans="1:10">
+      <c r="K136">
+        <v>0.4309822077638248</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" s="2">
         <v>39234</v>
       </c>
@@ -4701,7 +5106,7 @@
         <v>33.13000106811523</v>
       </c>
       <c r="F137">
-        <v>23.36914825439453</v>
+        <v>23.19487190246582</v>
       </c>
       <c r="G137">
         <v>994600</v>
@@ -4710,13 +5115,16 @@
         <v>0.001814374776072603</v>
       </c>
       <c r="I137">
-        <v>0.4442022797222323</v>
+        <v>0.07155708756855216</v>
       </c>
       <c r="J137">
         <v>0.4442022797222323</v>
       </c>
-    </row>
-    <row r="138" spans="1:10">
+      <c r="K137">
+        <v>0.4442022797222323</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" s="2">
         <v>39264</v>
       </c>
@@ -4733,7 +5141,7 @@
         <v>31.88999938964844</v>
       </c>
       <c r="F138">
-        <v>22.49447631835938</v>
+        <v>22.32671928405762</v>
       </c>
       <c r="G138">
         <v>2215300</v>
@@ -4742,13 +5150,16 @@
         <v>-0.03742836216386936</v>
       </c>
       <c r="I138">
-        <v>0.391968555305368</v>
+        <v>0.07111357122240457</v>
       </c>
       <c r="J138">
         <v>0.391968555305368</v>
       </c>
-    </row>
-    <row r="139" spans="1:10">
+      <c r="K138">
+        <v>0.391968555305368</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" s="2">
         <v>39295</v>
       </c>
@@ -4765,7 +5176,7 @@
         <v>32.25</v>
       </c>
       <c r="F139">
-        <v>22.74841690063477</v>
+        <v>22.57876205444336</v>
       </c>
       <c r="G139">
         <v>641900</v>
@@ -4774,13 +5185,16 @@
         <v>0.0112888246234466</v>
       </c>
       <c r="I139">
-        <v>0.3573232192480373</v>
+        <v>0.07020324527468892</v>
       </c>
       <c r="J139">
         <v>0.3573232192480373</v>
       </c>
-    </row>
-    <row r="140" spans="1:10">
+      <c r="K139">
+        <v>0.3573232192480373</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140" s="2">
         <v>39326</v>
       </c>
@@ -4797,7 +5211,7 @@
         <v>34.58000183105469</v>
       </c>
       <c r="F140">
-        <v>24.39194488525391</v>
+        <v>24.21003341674805</v>
       </c>
       <c r="G140">
         <v>1047400</v>
@@ -4806,13 +5220,16 @@
         <v>0.07224811879239335</v>
       </c>
       <c r="I140">
-        <v>0.4390345752371227</v>
+        <v>0.0700597751155646</v>
       </c>
       <c r="J140">
         <v>0.4390345752371227</v>
       </c>
-    </row>
-    <row r="141" spans="1:10">
+      <c r="K140">
+        <v>0.4390345752371227</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141" s="2">
         <v>39356</v>
       </c>
@@ -4829,7 +5246,7 @@
         <v>36.27999877929688</v>
       </c>
       <c r="F141">
-        <v>25.5910816192627</v>
+        <v>25.40023040771484</v>
       </c>
       <c r="G141">
         <v>785300</v>
@@ -4838,13 +5255,16 @@
         <v>0.04916127409558135</v>
       </c>
       <c r="I141">
-        <v>0.4419713433753674</v>
+        <v>0.06990259812272974</v>
       </c>
       <c r="J141">
         <v>0.4419713433753674</v>
       </c>
-    </row>
-    <row r="142" spans="1:10">
+      <c r="K141">
+        <v>0.4419713433753674</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142" s="2">
         <v>39387</v>
       </c>
@@ -4861,7 +5281,7 @@
         <v>35.61000061035156</v>
       </c>
       <c r="F142">
-        <v>25.11848640441895</v>
+        <v>24.93115615844727</v>
       </c>
       <c r="G142">
         <v>776400</v>
@@ -4870,13 +5290,16 @@
         <v>-0.01846742534422707</v>
       </c>
       <c r="I142">
-        <v>0.3498863435641117</v>
+        <v>0.06994523409842465</v>
       </c>
       <c r="J142">
         <v>0.3498863435641117</v>
       </c>
-    </row>
-    <row r="143" spans="1:10">
+      <c r="K142">
+        <v>0.3498863435641117</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143" s="2">
         <v>39417</v>
       </c>
@@ -4893,7 +5316,7 @@
         <v>35.43999862670898</v>
       </c>
       <c r="F143">
-        <v>25.36810111999512</v>
+        <v>25.17891502380371</v>
       </c>
       <c r="G143">
         <v>512800</v>
@@ -4902,13 +5325,16 @@
         <v>-0.004773995527345143</v>
       </c>
       <c r="I143">
-        <v>0.3174720865905094</v>
+        <v>0.06987834621169864</v>
       </c>
       <c r="J143">
         <v>0.3174720865905094</v>
       </c>
-    </row>
-    <row r="144" spans="1:10">
+      <c r="K143">
+        <v>0.3174720865905094</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144" s="2">
         <v>39448</v>
       </c>
@@ -4925,7 +5351,7 @@
         <v>31.20000076293945</v>
       </c>
       <c r="F144">
-        <v>22.33309745788574</v>
+        <v>22.16654205322266</v>
       </c>
       <c r="G144">
         <v>4530800</v>
@@ -4934,13 +5360,16 @@
         <v>-0.1196387705436902</v>
       </c>
       <c r="I144">
-        <v>0.132075521318324</v>
+        <v>0.07083631364959773</v>
       </c>
       <c r="J144">
         <v>0.132075521318324</v>
       </c>
-    </row>
-    <row r="145" spans="1:10">
+      <c r="K144">
+        <v>0.132075521318324</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145" s="2">
         <v>39479</v>
       </c>
@@ -4957,7 +5386,7 @@
         <v>30.97999954223633</v>
       </c>
       <c r="F145">
-        <v>22.17561340332031</v>
+        <v>22.01023864746094</v>
       </c>
       <c r="G145">
         <v>2486700</v>
@@ -4966,13 +5395,16 @@
         <v>-0.007051321003954891</v>
       </c>
       <c r="I145">
-        <v>0.1224637360163185</v>
+        <v>0.07064013137527878</v>
       </c>
       <c r="J145">
         <v>0.1224637360163185</v>
       </c>
-    </row>
-    <row r="146" spans="1:10">
+      <c r="K145">
+        <v>0.1224637360163185</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146" s="2">
         <v>39508</v>
       </c>
@@ -4989,7 +5421,7 @@
         <v>31.51000022888184</v>
       </c>
       <c r="F146">
-        <v>22.55499458312988</v>
+        <v>22.38678550720215</v>
       </c>
       <c r="G146">
         <v>1117400</v>
@@ -4998,13 +5430,16 @@
         <v>0.01710783390822646</v>
       </c>
       <c r="I146">
-        <v>0.09295873438321078</v>
+        <v>0.0704174869625756</v>
       </c>
       <c r="J146">
         <v>0.09295873438321078</v>
       </c>
-    </row>
-    <row r="147" spans="1:10">
+      <c r="K146">
+        <v>0.09295873438321078</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147" s="2">
         <v>39539</v>
       </c>
@@ -5021,7 +5456,7 @@
         <v>32.68000030517578</v>
       </c>
       <c r="F147">
-        <v>23.39248275756836</v>
+        <v>23.21803092956543</v>
       </c>
       <c r="G147">
         <v>2532700</v>
@@ -5030,13 +5465,16 @@
         <v>0.03713107165329466</v>
       </c>
       <c r="I147">
-        <v>0.04076435357311703</v>
+        <v>0.07027428096798818</v>
       </c>
       <c r="J147">
         <v>0.04076435357311703</v>
       </c>
-    </row>
-    <row r="148" spans="1:10">
+      <c r="K147">
+        <v>0.04076435357311703</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148" s="2">
         <v>39569</v>
       </c>
@@ -5053,7 +5491,7 @@
         <v>33.52999877929688</v>
       </c>
       <c r="F148">
-        <v>24.00091743469238</v>
+        <v>23.82192611694336</v>
       </c>
       <c r="G148">
         <v>367700</v>
@@ -5062,13 +5500,16 @@
         <v>0.02600974498725672</v>
       </c>
       <c r="I148">
-        <v>0.01390986055995191</v>
+        <v>0.07010232674992692</v>
       </c>
       <c r="J148">
         <v>0.01390986055995191</v>
       </c>
-    </row>
-    <row r="149" spans="1:10">
+      <c r="K148">
+        <v>0.01390986055995191</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149" s="2">
         <v>39600</v>
       </c>
@@ -5085,7 +5526,7 @@
         <v>29.44000053405762</v>
       </c>
       <c r="F149">
-        <v>21.88414573669434</v>
+        <v>21.72093772888184</v>
       </c>
       <c r="G149">
         <v>974900</v>
@@ -5094,13 +5535,16 @@
         <v>-0.1219802682416031</v>
       </c>
       <c r="I149">
-        <v>-0.1113794269571855</v>
+        <v>0.07101681047904368</v>
       </c>
       <c r="J149">
         <v>-0.1113794269571855</v>
       </c>
-    </row>
-    <row r="150" spans="1:10">
+      <c r="K149">
+        <v>-0.1113794269571855</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
       <c r="A150" s="2">
         <v>39630</v>
       </c>
@@ -5117,7 +5561,7 @@
         <v>29.18000030517578</v>
       </c>
       <c r="F150">
-        <v>21.69087219238281</v>
+        <v>21.52910995483398</v>
       </c>
       <c r="G150">
         <v>2029000</v>
@@ -5126,13 +5570,16 @@
         <v>-0.008831529353440559</v>
       </c>
       <c r="I150">
-        <v>-0.08497959035246416</v>
+        <v>0.0710046693971053</v>
       </c>
       <c r="J150">
         <v>-0.08497959035246416</v>
       </c>
-    </row>
-    <row r="151" spans="1:10">
+      <c r="K150">
+        <v>-0.08497959035246416</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151" s="2">
         <v>39661</v>
       </c>
@@ -5149,7 +5596,7 @@
         <v>27.39999961853027</v>
       </c>
       <c r="F151">
-        <v>20.36771583557129</v>
+        <v>20.2158203125</v>
       </c>
       <c r="G151">
         <v>437700</v>
@@ -5158,13 +5605,16 @@
         <v>-0.06100070829436499</v>
       </c>
       <c r="I151">
-        <v>-0.1503876087277435</v>
+        <v>0.0685769343069127</v>
       </c>
       <c r="J151">
         <v>-0.1503876087277435</v>
       </c>
-    </row>
-    <row r="152" spans="1:10">
+      <c r="K151">
+        <v>-0.1503876087277435</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152" s="2">
         <v>39692</v>
       </c>
@@ -5181,7 +5631,7 @@
         <v>23.89999961853027</v>
       </c>
       <c r="F152">
-        <v>17.76599502563477</v>
+        <v>17.63350486755371</v>
       </c>
       <c r="G152">
         <v>905700</v>
@@ -5190,13 +5640,16 @@
         <v>-0.1277372280557623</v>
       </c>
       <c r="I152">
-        <v>-0.3088490933199779</v>
+        <v>0.06964126036722558</v>
       </c>
       <c r="J152">
         <v>-0.3088490933199779</v>
       </c>
-    </row>
-    <row r="153" spans="1:10">
+      <c r="K152">
+        <v>-0.3088490933199779</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
       <c r="A153" s="2">
         <v>39722</v>
       </c>
@@ -5213,7 +5666,7 @@
         <v>18.47999954223633</v>
       </c>
       <c r="F153">
-        <v>13.73705959320068</v>
+        <v>13.63461112976074</v>
       </c>
       <c r="G153">
         <v>812900</v>
@@ -5222,13 +5675,16 @@
         <v>-0.2267782494896645</v>
       </c>
       <c r="I153">
-        <v>-0.4906284409033136</v>
+        <v>0.07258346136790984</v>
       </c>
       <c r="J153">
         <v>-0.4906284409033136</v>
       </c>
-    </row>
-    <row r="154" spans="1:10">
+      <c r="K153">
+        <v>-0.4906284409033136</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
       <c r="A154" s="2">
         <v>39753</v>
       </c>
@@ -5245,7 +5701,7 @@
         <v>16.59000015258789</v>
       </c>
       <c r="F154">
-        <v>12.33213233947754</v>
+        <v>12.24016094207764</v>
       </c>
       <c r="G154">
         <v>160000</v>
@@ -5254,13 +5710,16 @@
         <v>-0.1022726967784179</v>
       </c>
       <c r="I154">
-        <v>-0.5341196330177737</v>
+        <v>0.0731168571256661</v>
       </c>
       <c r="J154">
         <v>-0.5341196330177737</v>
       </c>
-    </row>
-    <row r="155" spans="1:10">
+      <c r="K154">
+        <v>-0.5341196330177737</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
       <c r="A155" s="2">
         <v>39783</v>
       </c>
@@ -5277,7 +5736,7 @@
         <v>19.21999931335449</v>
       </c>
       <c r="F155">
-        <v>14.34560585021973</v>
+        <v>14.23862075805664</v>
       </c>
       <c r="G155">
         <v>826000</v>
@@ -5286,13 +5745,16 @@
         <v>0.1585291824338135</v>
       </c>
       <c r="I155">
-        <v>-0.4576749419265062</v>
+        <v>0.07447436598261992</v>
       </c>
       <c r="J155">
         <v>-0.4576749419265062</v>
       </c>
-    </row>
-    <row r="156" spans="1:10">
+      <c r="K155">
+        <v>-0.4576749419265062</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
       <c r="A156" s="2">
         <v>39814</v>
       </c>
@@ -5309,7 +5771,7 @@
         <v>15.5</v>
       </c>
       <c r="F156">
-        <v>11.56903743743896</v>
+        <v>11.48275947570801</v>
       </c>
       <c r="G156">
         <v>466700</v>
@@ -5318,13 +5780,16 @@
         <v>-0.1935483582858274</v>
       </c>
       <c r="I156">
-        <v>-0.5032051403533462</v>
+        <v>0.0765598619352596</v>
       </c>
       <c r="J156">
         <v>-0.5032051403533462</v>
       </c>
-    </row>
-    <row r="157" spans="1:10">
+      <c r="K156">
+        <v>-0.5032051403533462</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
       <c r="A157" s="2">
         <v>39845</v>
       </c>
@@ -5341,7 +5806,7 @@
         <v>13.48999977111816</v>
       </c>
       <c r="F157">
-        <v>10.06879615783691</v>
+        <v>9.993705749511719</v>
       </c>
       <c r="G157">
         <v>321100</v>
@@ -5350,13 +5815,16 @@
         <v>-0.1296774341214088</v>
       </c>
       <c r="I157">
-        <v>-0.5645577801663075</v>
+        <v>0.07702396376791798</v>
       </c>
       <c r="J157">
         <v>-0.5645577801663075</v>
       </c>
-    </row>
-    <row r="158" spans="1:10">
+      <c r="K157">
+        <v>-0.5645577801663075</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
       <c r="A158" s="2">
         <v>39873</v>
       </c>
@@ -5373,7 +5841,7 @@
         <v>14.97000026702881</v>
       </c>
       <c r="F158">
-        <v>11.17344951629639</v>
+        <v>11.09012222290039</v>
       </c>
       <c r="G158">
         <v>388100</v>
@@ -5382,13 +5850,16 @@
         <v>0.1097109355835051</v>
       </c>
       <c r="I158">
-        <v>-0.5249127210952091</v>
+        <v>0.07761534516689216</v>
       </c>
       <c r="J158">
         <v>-0.5249127210952091</v>
       </c>
-    </row>
-    <row r="159" spans="1:10">
+      <c r="K158">
+        <v>-0.5249127210952091</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
       <c r="A159" s="2">
         <v>39904</v>
       </c>
@@ -5405,7 +5876,7 @@
         <v>17.29000091552734</v>
       </c>
       <c r="F159">
-        <v>12.90507316589355</v>
+        <v>12.80883312225342</v>
       </c>
       <c r="G159">
         <v>487000</v>
@@ -5414,13 +5885,16 @@
         <v>0.154976660461944</v>
       </c>
       <c r="I159">
-        <v>-0.4709302094838416</v>
+        <v>0.07863965253483333</v>
       </c>
       <c r="J159">
         <v>-0.4709302094838416</v>
       </c>
-    </row>
-    <row r="160" spans="1:10">
+      <c r="K159">
+        <v>-0.4709302094838416</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
       <c r="A160" s="2">
         <v>39934</v>
       </c>
@@ -5437,7 +5911,7 @@
         <v>19.34000015258789</v>
       </c>
       <c r="F160">
-        <v>14.43517303466797</v>
+        <v>14.32752132415771</v>
       </c>
       <c r="G160">
         <v>2090400</v>
@@ -5446,13 +5920,16 @@
         <v>0.1185655944771835</v>
       </c>
       <c r="I160">
-        <v>-0.4232030761501432</v>
+        <v>0.07919957724836107</v>
       </c>
       <c r="J160">
         <v>-0.4232030761501432</v>
       </c>
-    </row>
-    <row r="161" spans="1:10">
+      <c r="K160">
+        <v>-0.4232030761501432</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
       <c r="A161" s="2">
         <v>39965</v>
       </c>
@@ -5469,7 +5946,7 @@
         <v>17.97999954223633</v>
       </c>
       <c r="F161">
-        <v>13.84266376495361</v>
+        <v>13.73943042755127</v>
       </c>
       <c r="G161">
         <v>451500</v>
@@ -5478,13 +5955,16 @@
         <v>-0.07032061011486501</v>
       </c>
       <c r="I161">
-        <v>-0.3892663309759049</v>
+        <v>0.07912525514091313</v>
       </c>
       <c r="J161">
         <v>-0.3892663309759049</v>
       </c>
-    </row>
-    <row r="162" spans="1:10">
+      <c r="K161">
+        <v>-0.3892663309759049</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
       <c r="A162" s="2">
         <v>39995</v>
       </c>
@@ -5501,7 +5981,7 @@
         <v>20.13999938964844</v>
       </c>
       <c r="F162">
-        <v>15.50563335418701</v>
+        <v>15.38999366760254</v>
       </c>
       <c r="G162">
         <v>449800</v>
@@ -5510,13 +5990,16 @@
         <v>0.1201334762182897</v>
       </c>
       <c r="I162">
-        <v>-0.3098012618568712</v>
+        <v>0.07973757469840133</v>
       </c>
       <c r="J162">
         <v>-0.3098012618568712</v>
       </c>
-    </row>
-    <row r="163" spans="1:10">
+      <c r="K162">
+        <v>-0.3098012618568712</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
       <c r="A163" s="2">
         <v>40026</v>
       </c>
@@ -5533,7 +6016,7 @@
         <v>20.90999984741211</v>
       </c>
       <c r="F163">
-        <v>16.09844970703125</v>
+        <v>15.97839164733887</v>
       </c>
       <c r="G163">
         <v>503600</v>
@@ -5542,13 +6025,16 @@
         <v>0.0382323972740255</v>
       </c>
       <c r="I163">
-        <v>-0.2368613088129045</v>
+        <v>0.07980079089353756</v>
       </c>
       <c r="J163">
         <v>-0.2368613088129045</v>
       </c>
-    </row>
-    <row r="164" spans="1:10">
+      <c r="K163">
+        <v>-0.2368613088129045</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
       <c r="A164" s="2">
         <v>40057</v>
       </c>
@@ -5565,7 +6051,7 @@
         <v>22.19000053405762</v>
       </c>
       <c r="F164">
-        <v>17.08391380310059</v>
+        <v>16.95650672912598</v>
       </c>
       <c r="G164">
         <v>714800</v>
@@ -5574,13 +6060,16 @@
         <v>0.06121476307920326</v>
       </c>
       <c r="I164">
-        <v>-0.07154807999021262</v>
+        <v>0.07997394336766793</v>
       </c>
       <c r="J164">
         <v>-0.07154807999021262</v>
       </c>
-    </row>
-    <row r="165" spans="1:10">
+      <c r="K164">
+        <v>-0.07154807999021262</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
       <c r="A165" s="2">
         <v>40087</v>
       </c>
@@ -5597,7 +6086,7 @@
         <v>21</v>
       </c>
       <c r="F165">
-        <v>16.1677417755127</v>
+        <v>16.04716491699219</v>
       </c>
       <c r="G165">
         <v>1008000</v>
@@ -5606,13 +6095,16 @@
         <v>-0.05362778302917037</v>
       </c>
       <c r="I165">
-        <v>0.1363636645122297</v>
+        <v>0.08002600934618538</v>
       </c>
       <c r="J165">
         <v>0.1363636645122297</v>
       </c>
-    </row>
-    <row r="166" spans="1:10">
+      <c r="K165">
+        <v>0.1363636645122297</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
       <c r="A166" s="2">
         <v>40118</v>
       </c>
@@ -5629,7 +6121,7 @@
         <v>22.5</v>
       </c>
       <c r="F166">
-        <v>17.32257843017578</v>
+        <v>17.19338798522949</v>
       </c>
       <c r="G166">
         <v>1952500</v>
@@ -5638,13 +6130,16 @@
         <v>0.0714285714285714</v>
       </c>
       <c r="I166">
-        <v>0.356238685536733</v>
+        <v>0.08026423993797825</v>
       </c>
       <c r="J166">
         <v>0.356238685536733</v>
       </c>
-    </row>
-    <row r="167" spans="1:10">
+      <c r="K166">
+        <v>0.356238685536733</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
       <c r="A167" s="2">
         <v>40148</v>
       </c>
@@ -5661,7 +6156,7 @@
         <v>22.44000053405762</v>
       </c>
       <c r="F167">
-        <v>17.28727722167969</v>
+        <v>17.15835380554199</v>
       </c>
       <c r="G167">
         <v>1209000</v>
@@ -5670,13 +6165,16 @@
         <v>-0.002666642930772567</v>
       </c>
       <c r="I167">
-        <v>0.1675338884359789</v>
+        <v>0.07827994878867305</v>
       </c>
       <c r="J167">
         <v>0.1675338884359789</v>
       </c>
-    </row>
-    <row r="168" spans="1:10">
+      <c r="K167">
+        <v>0.1675338884359789</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
       <c r="A168" s="2">
         <v>40179</v>
       </c>
@@ -5693,7 +6191,7 @@
         <v>20.34000015258789</v>
       </c>
       <c r="F168">
-        <v>15.66948127746582</v>
+        <v>15.55262851715088</v>
       </c>
       <c r="G168">
         <v>1155000</v>
@@ -5702,13 +6200,16 @@
         <v>-0.09358290247286383</v>
       </c>
       <c r="I168">
-        <v>0.312258074360509</v>
+        <v>0.07858602945124243</v>
       </c>
       <c r="J168">
         <v>0.312258074360509</v>
       </c>
-    </row>
-    <row r="169" spans="1:10">
+      <c r="K168">
+        <v>0.312258074360509</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
       <c r="A169" s="2">
         <v>40210</v>
       </c>
@@ -5725,7 +6226,7 @@
         <v>20.04999923706055</v>
       </c>
       <c r="F169">
-        <v>15.44607448577881</v>
+        <v>15.33087825775146</v>
       </c>
       <c r="G169">
         <v>2686300</v>
@@ -5734,13 +6235,16 @@
         <v>-0.01425766535652884</v>
       </c>
       <c r="I169">
-        <v>0.4862861065414708</v>
+        <v>0.07799735430161051</v>
       </c>
       <c r="J169">
         <v>0.4862861065414708</v>
       </c>
-    </row>
-    <row r="170" spans="1:10">
+      <c r="K169">
+        <v>0.4862861065414708</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
       <c r="A170" s="2">
         <v>40238</v>
       </c>
@@ -5757,7 +6261,7 @@
         <v>21.8700008392334</v>
       </c>
       <c r="F170">
-        <v>16.84815979003906</v>
+        <v>16.72251510620117</v>
       </c>
       <c r="G170">
         <v>1708000</v>
@@ -5766,13 +6270,16 @@
         <v>0.09077315069462699</v>
       </c>
       <c r="I170">
-        <v>0.4609218736890561</v>
+        <v>0.07837560078193508</v>
       </c>
       <c r="J170">
         <v>0.4609218736890561</v>
       </c>
-    </row>
-    <row r="171" spans="1:10">
+      <c r="K170">
+        <v>0.4609218736890561</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
       <c r="A171" s="2">
         <v>40269</v>
       </c>
@@ -5789,7 +6296,7 @@
         <v>21.38999938964844</v>
       </c>
       <c r="F171">
-        <v>16.47837829589844</v>
+        <v>16.35548782348633</v>
       </c>
       <c r="G171">
         <v>2910500</v>
@@ -5798,13 +6305,16 @@
         <v>-0.02194793923939264</v>
       </c>
       <c r="I171">
-        <v>0.237131188954367</v>
+        <v>0.07797378875502646</v>
       </c>
       <c r="J171">
         <v>0.237131188954367</v>
       </c>
-    </row>
-    <row r="172" spans="1:10">
+      <c r="K171">
+        <v>0.237131188954367</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
       <c r="A172" s="2">
         <v>40299</v>
       </c>
@@ -5821,7 +6331,7 @@
         <v>19.14999961853027</v>
       </c>
       <c r="F172">
-        <v>14.7527322769165</v>
+        <v>14.64271450042725</v>
       </c>
       <c r="G172">
         <v>1989700</v>
@@ -5830,13 +6340,16 @@
         <v>-0.1047218249198361</v>
       </c>
       <c r="I172">
-        <v>-0.009824226088860355</v>
+        <v>0.07857857642949852</v>
       </c>
       <c r="J172">
         <v>-0.009824226088860355</v>
       </c>
-    </row>
-    <row r="173" spans="1:10">
+      <c r="K172">
+        <v>-0.009824226088860355</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
       <c r="A173" s="2">
         <v>40330</v>
       </c>
@@ -5853,7 +6366,7 @@
         <v>18.70999908447266</v>
       </c>
       <c r="F173">
-        <v>14.62139701843262</v>
+        <v>14.51235103607178</v>
       </c>
       <c r="G173">
         <v>5453300</v>
@@ -5862,13 +6375,16 @@
         <v>-0.02297652965130381</v>
       </c>
       <c r="I173">
-        <v>0.04060064298230404</v>
+        <v>0.07858528343601576</v>
       </c>
       <c r="J173">
         <v>0.04060064298230404</v>
       </c>
-    </row>
-    <row r="174" spans="1:10">
+      <c r="K173">
+        <v>0.04060064298230404</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
       <c r="A174" s="2">
         <v>40360</v>
       </c>
@@ -5885,7 +6401,7 @@
         <v>20.73999977111816</v>
       </c>
       <c r="F174">
-        <v>16.20778846740723</v>
+        <v>16.0869197845459</v>
       </c>
       <c r="G174">
         <v>922300</v>
@@ -5894,13 +6410,16 @@
         <v>0.1084981713510715</v>
       </c>
       <c r="I174">
-        <v>0.02979147962527318</v>
+        <v>0.07919453747398211</v>
       </c>
       <c r="J174">
         <v>0.02979147962527318</v>
       </c>
-    </row>
-    <row r="175" spans="1:10">
+      <c r="K174">
+        <v>0.02979147962527318</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
       <c r="A175" s="2">
         <v>40391</v>
       </c>
@@ -5917,7 +6436,7 @@
         <v>19.30999946594238</v>
       </c>
       <c r="F175">
-        <v>15.09028148651123</v>
+        <v>14.97774124145508</v>
       </c>
       <c r="G175">
         <v>1062700</v>
@@ -5926,13 +6445,16 @@
         <v>-0.06894890650708452</v>
       </c>
       <c r="I175">
-        <v>-0.07651843104473999</v>
+        <v>0.07822972701958664</v>
       </c>
       <c r="J175">
         <v>-0.07651843104473999</v>
       </c>
-    </row>
-    <row r="176" spans="1:10">
+      <c r="K175">
+        <v>-0.07651843104473999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
       <c r="A176" s="2">
         <v>40422</v>
       </c>
@@ -5949,7 +6471,7 @@
         <v>22</v>
       </c>
       <c r="F176">
-        <v>17.19244766235352</v>
+        <v>17.06423187255859</v>
       </c>
       <c r="G176">
         <v>914800</v>
@@ -5958,13 +6480,16 @@
         <v>0.139306090546613</v>
       </c>
       <c r="I176">
-        <v>-0.008562439363892782</v>
+        <v>0.07899588803458693</v>
       </c>
       <c r="J176">
         <v>-0.008562439363892782</v>
       </c>
-    </row>
-    <row r="177" spans="1:10">
+      <c r="K176">
+        <v>-0.008562439363892782</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
       <c r="A177" s="2">
         <v>40452</v>
       </c>
@@ -5981,7 +6506,7 @@
         <v>23.82999992370605</v>
       </c>
       <c r="F177">
-        <v>18.62254524230957</v>
+        <v>18.48366165161133</v>
       </c>
       <c r="G177">
         <v>1428800</v>
@@ -5990,13 +6515,16 @@
         <v>0.08318181471391162</v>
       </c>
       <c r="I177">
-        <v>0.1347619011288597</v>
+        <v>0.07932244069532149</v>
       </c>
       <c r="J177">
         <v>0.1347619011288597</v>
       </c>
-    </row>
-    <row r="178" spans="1:10">
+      <c r="K177">
+        <v>0.1347619011288597</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
       <c r="A178" s="2">
         <v>40483</v>
       </c>
@@ -6013,7 +6541,7 @@
         <v>22.53000068664551</v>
       </c>
       <c r="F178">
-        <v>17.60663223266602</v>
+        <v>17.4753303527832</v>
       </c>
       <c r="G178">
         <v>3940700</v>
@@ -6022,13 +6550,16 @@
         <v>-0.05455305250619447</v>
       </c>
       <c r="I178">
-        <v>0.001333363850911429</v>
+        <v>0.0792333889982363</v>
       </c>
       <c r="J178">
         <v>0.001333363850911429</v>
       </c>
-    </row>
-    <row r="179" spans="1:10">
+      <c r="K178">
+        <v>0.001333363850911429</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
       <c r="A179" s="2">
         <v>40513</v>
       </c>
@@ -6045,7 +6576,7 @@
         <v>23.94000053405762</v>
       </c>
       <c r="F179">
-        <v>18.70850944519043</v>
+        <v>18.5689868927002</v>
       </c>
       <c r="G179">
         <v>1474400</v>
@@ -6054,13 +6585,16 @@
         <v>0.06258321369017428</v>
       </c>
       <c r="I179">
-        <v>0.06684491819522997</v>
+        <v>0.0791699274690226</v>
       </c>
       <c r="J179">
         <v>0.06684491819522997</v>
       </c>
-    </row>
-    <row r="180" spans="1:10">
+      <c r="K179">
+        <v>0.06684491819522997</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
       <c r="A180" s="2">
         <v>40544</v>
       </c>
@@ -6077,7 +6611,7 @@
         <v>25.17000007629395</v>
       </c>
       <c r="F180">
-        <v>19.66972541809082</v>
+        <v>19.52303504943848</v>
       </c>
       <c r="G180">
         <v>2545100</v>
@@ -6086,13 +6620,16 @@
         <v>0.05137842584784003</v>
       </c>
       <c r="I180">
-        <v>0.2374631213113105</v>
+        <v>0.07917040231277199</v>
       </c>
       <c r="J180">
         <v>0.2374631213113105</v>
       </c>
-    </row>
-    <row r="181" spans="1:10">
+      <c r="K180">
+        <v>0.2374631213113105</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
       <c r="A181" s="2">
         <v>40575</v>
       </c>
@@ -6109,7 +6646,7 @@
         <v>26</v>
       </c>
       <c r="F181">
-        <v>20.31834983825684</v>
+        <v>20.16682052612305</v>
       </c>
       <c r="G181">
         <v>1873600</v>
@@ -6118,13 +6655,16 @@
         <v>0.03297576166826399</v>
       </c>
       <c r="I181">
-        <v>0.2967581540821924</v>
+        <v>0.07872368841168535</v>
       </c>
       <c r="J181">
         <v>0.2967581540821924</v>
       </c>
-    </row>
-    <row r="182" spans="1:10">
+      <c r="K181">
+        <v>0.2967581540821924</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
       <c r="A182" s="2">
         <v>40603</v>
       </c>
@@ -6141,7 +6681,7 @@
         <v>25.95000076293945</v>
       </c>
       <c r="F182">
-        <v>20.27927398681641</v>
+        <v>20.12803840637207</v>
       </c>
       <c r="G182">
         <v>2131000</v>
@@ -6150,13 +6690,16 @@
         <v>-0.001923047579251769</v>
       </c>
       <c r="I182">
-        <v>0.1865569166502634</v>
+        <v>0.07806792674594229</v>
       </c>
       <c r="J182">
         <v>0.1865569166502634</v>
       </c>
-    </row>
-    <row r="183" spans="1:10">
+      <c r="K182">
+        <v>0.1865569166502634</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
       <c r="A183" s="2">
         <v>40634</v>
       </c>
@@ -6173,7 +6716,7 @@
         <v>28.78000068664551</v>
       </c>
       <c r="F183">
-        <v>22.4908504486084</v>
+        <v>22.32311820983887</v>
       </c>
       <c r="G183">
         <v>3910600</v>
@@ -6182,13 +6725,16 @@
         <v>0.1090558705396159</v>
       </c>
       <c r="I183">
-        <v>0.3454886165435525</v>
+        <v>0.07849012836503484</v>
       </c>
       <c r="J183">
         <v>0.3454886165435525</v>
       </c>
-    </row>
-    <row r="184" spans="1:10">
+      <c r="K183">
+        <v>0.3454886165435525</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
       <c r="A184" s="2">
         <v>40664</v>
       </c>
@@ -6205,7 +6751,7 @@
         <v>27.14999961853027</v>
       </c>
       <c r="F184">
-        <v>21.21704292297363</v>
+        <v>21.05881309509277</v>
       </c>
       <c r="G184">
         <v>2649700</v>
@@ -6214,13 +6760,16 @@
         <v>-0.05663658892376566</v>
       </c>
       <c r="I184">
-        <v>0.4177545775123093</v>
+        <v>0.07850541164792034</v>
       </c>
       <c r="J184">
         <v>0.4177545775123093</v>
       </c>
-    </row>
-    <row r="185" spans="1:10">
+      <c r="K184">
+        <v>0.4177545775123093</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
       <c r="A185" s="2">
         <v>40695</v>
       </c>
@@ -6237,7 +6786,7 @@
         <v>26.88999938964844</v>
       </c>
       <c r="F185">
-        <v>21.55043029785156</v>
+        <v>21.38971710205078</v>
       </c>
       <c r="G185">
         <v>5115100</v>
@@ -6246,13 +6795,16 @@
         <v>-0.009576435820808693</v>
       </c>
       <c r="I185">
-        <v>0.4371993963358516</v>
+        <v>0.07851116219214742</v>
       </c>
       <c r="J185">
         <v>0.4371993963358516</v>
       </c>
-    </row>
-    <row r="186" spans="1:10">
+      <c r="K185">
+        <v>0.4371993963358516</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
       <c r="A186" s="2">
         <v>40725</v>
       </c>
@@ -6269,7 +6821,7 @@
         <v>25.71999931335449</v>
       </c>
       <c r="F186">
-        <v>20.61275863647461</v>
+        <v>20.45903587341309</v>
       </c>
       <c r="G186">
         <v>2505900</v>
@@ -6278,13 +6830,16 @@
         <v>-0.0435106025604578</v>
       </c>
       <c r="I186">
-        <v>0.2401156989968394</v>
+        <v>0.07863291217933331</v>
       </c>
       <c r="J186">
         <v>0.2401156989968394</v>
       </c>
-    </row>
-    <row r="187" spans="1:10">
+      <c r="K186">
+        <v>0.2401156989968394</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
       <c r="A187" s="2">
         <v>40756</v>
       </c>
@@ -6301,7 +6856,7 @@
         <v>20.92000007629395</v>
       </c>
       <c r="F187">
-        <v>16.76590156555176</v>
+        <v>16.64086532592773</v>
       </c>
       <c r="G187">
         <v>4294400</v>
@@ -6310,13 +6865,16 @@
         <v>-0.1866251697202909</v>
       </c>
       <c r="I187">
-        <v>0.08337652277987728</v>
+        <v>0.08027518277812926</v>
       </c>
       <c r="J187">
         <v>0.08337652277987728</v>
       </c>
-    </row>
-    <row r="188" spans="1:10">
+      <c r="K187">
+        <v>0.08337652277987728</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
       <c r="A188" s="2">
         <v>40787</v>
       </c>
@@ -6333,7 +6891,7 @@
         <v>18.27000045776367</v>
       </c>
       <c r="F188">
-        <v>14.64211177825928</v>
+        <v>14.53291606903076</v>
       </c>
       <c r="G188">
         <v>8093600</v>
@@ -6342,13 +6900,16 @@
         <v>-0.1266730214563044</v>
       </c>
       <c r="I188">
-        <v>-0.1695454337380149</v>
+        <v>0.07929469096091905</v>
       </c>
       <c r="J188">
         <v>-0.1695454337380149</v>
       </c>
-    </row>
-    <row r="189" spans="1:10">
+      <c r="K188">
+        <v>-0.1695454337380149</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
       <c r="A189" s="2">
         <v>40817</v>
       </c>
@@ -6365,7 +6926,7 @@
         <v>21.20000076293945</v>
       </c>
       <c r="F189">
-        <v>16.99030303955078</v>
+        <v>16.86359024047852</v>
       </c>
       <c r="G189">
         <v>5193900</v>
@@ -6374,13 +6935,16 @@
         <v>0.1603722075404057</v>
       </c>
       <c r="I189">
-        <v>-0.1103650511618458</v>
+        <v>0.08040217271958837</v>
       </c>
       <c r="J189">
         <v>-0.1103650511618458</v>
       </c>
-    </row>
-    <row r="190" spans="1:10">
+      <c r="K189">
+        <v>-0.1103650511618458</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
       <c r="A190" s="2">
         <v>40848</v>
       </c>
@@ -6397,7 +6961,7 @@
         <v>20.6299991607666</v>
       </c>
       <c r="F190">
-        <v>16.53348350524902</v>
+        <v>16.41018486022949</v>
       </c>
       <c r="G190">
         <v>6040400</v>
@@ -6406,13 +6970,16 @@
         <v>-0.02688686705942456</v>
       </c>
       <c r="I190">
-        <v>-0.08433206693176531</v>
+        <v>0.07997160426422631</v>
       </c>
       <c r="J190">
         <v>-0.08433206693176531</v>
       </c>
-    </row>
-    <row r="191" spans="1:10">
+      <c r="K190">
+        <v>-0.08433206693176531</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
       <c r="A191" s="2">
         <v>40878</v>
       </c>
@@ -6429,7 +6996,7 @@
         <v>19.21999931335449</v>
       </c>
       <c r="F191">
-        <v>15.40347099304199</v>
+        <v>15.28859615325928</v>
       </c>
       <c r="G191">
         <v>2072100</v>
@@ -6438,13 +7005,16 @@
         <v>-0.06834706276157276</v>
       </c>
       <c r="I191">
-        <v>-0.1971596121724533</v>
+        <v>0.08019561199345557</v>
       </c>
       <c r="J191">
         <v>-0.1971596121724533</v>
       </c>
-    </row>
-    <row r="192" spans="1:10">
+      <c r="K191">
+        <v>-0.1971596121724533</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
       <c r="A192" s="2">
         <v>40909</v>
       </c>
@@ -6461,7 +7031,7 @@
         <v>21.32999992370605</v>
       </c>
       <c r="F192">
-        <v>17.094482421875</v>
+        <v>16.96699905395508</v>
       </c>
       <c r="G192">
         <v>8546400</v>
@@ -6470,13 +7040,16 @@
         <v>0.1097815133055435</v>
       </c>
       <c r="I192">
-        <v>-0.1525625800932972</v>
+        <v>0.08061984464933322</v>
       </c>
       <c r="J192">
         <v>-0.1525625800932972</v>
       </c>
-    </row>
-    <row r="193" spans="1:10">
+      <c r="K192">
+        <v>-0.1525625800932972</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
       <c r="A193" s="2">
         <v>40940</v>
       </c>
@@ -6493,7 +7066,7 @@
         <v>22.95000076293945</v>
       </c>
       <c r="F193">
-        <v>18.39280319213867</v>
+        <v>18.2556324005127</v>
       </c>
       <c r="G193">
         <v>6914800</v>
@@ -6502,13 +7075,16 @@
         <v>0.07594940670547956</v>
       </c>
       <c r="I193">
-        <v>-0.1173076629638672</v>
+        <v>0.08085200134674465</v>
       </c>
       <c r="J193">
         <v>-0.1173076629638672</v>
       </c>
-    </row>
-    <row r="194" spans="1:10">
+      <c r="K193">
+        <v>-0.1173076629638672</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
       <c r="A194" s="2">
         <v>40969</v>
       </c>
@@ -6525,7 +7101,7 @@
         <v>23.28000068664551</v>
       </c>
       <c r="F194">
-        <v>18.65727424621582</v>
+        <v>18.51813125610352</v>
       </c>
       <c r="G194">
         <v>5292600</v>
@@ -6534,13 +7110,16 @@
         <v>0.01437908116495357</v>
       </c>
       <c r="I194">
-        <v>-0.1028901733254325</v>
+        <v>0.08060923178883184</v>
       </c>
       <c r="J194">
         <v>-0.1028901733254325</v>
       </c>
-    </row>
-    <row r="195" spans="1:10">
+      <c r="K194">
+        <v>-0.1028901733254325</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
       <c r="A195" s="2">
         <v>41000</v>
       </c>
@@ -6557,7 +7136,7 @@
         <v>22.54000091552734</v>
       </c>
       <c r="F195">
-        <v>18.0642147064209</v>
+        <v>17.92950057983398</v>
       </c>
       <c r="G195">
         <v>4496300</v>
@@ -6566,13 +7145,16 @@
         <v>-0.03178693081150386</v>
       </c>
       <c r="I195">
-        <v>-0.2168172210646836</v>
+        <v>0.08061877580995649</v>
       </c>
       <c r="J195">
         <v>-0.2168172210646836</v>
       </c>
-    </row>
-    <row r="196" spans="1:10">
+      <c r="K195">
+        <v>-0.2168172210646836</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
       <c r="A196" s="2">
         <v>41030</v>
       </c>
@@ -6589,7 +7171,7 @@
         <v>19.48999977111816</v>
       </c>
       <c r="F196">
-        <v>15.61985301971436</v>
+        <v>15.50336647033691</v>
       </c>
       <c r="G196">
         <v>3403500</v>
@@ -6598,13 +7180,16 @@
         <v>-0.1353150408395989</v>
       </c>
       <c r="I196">
-        <v>-0.2821362782702969</v>
+        <v>0.081635443667367</v>
       </c>
       <c r="J196">
         <v>-0.2821362782702969</v>
       </c>
-    </row>
-    <row r="197" spans="1:10">
+      <c r="K196">
+        <v>-0.2821362782702969</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
       <c r="A197" s="2">
         <v>41061</v>
       </c>
@@ -6621,7 +7206,7 @@
         <v>19.79999923706055</v>
       </c>
       <c r="F197">
-        <v>16.33513450622559</v>
+        <v>16.21331024169922</v>
       </c>
       <c r="G197">
         <v>4981500</v>
@@ -6630,13 +7215,16 @@
         <v>0.01590556539676125</v>
       </c>
       <c r="I197">
-        <v>-0.2636668022877402</v>
+        <v>0.08162841988081311</v>
       </c>
       <c r="J197">
         <v>-0.2636668022877402</v>
       </c>
-    </row>
-    <row r="198" spans="1:10">
+      <c r="K197">
+        <v>-0.2636668022877402</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
       <c r="A198" s="2">
         <v>41091</v>
       </c>
@@ -6653,7 +7241,7 @@
         <v>20.20999908447266</v>
       </c>
       <c r="F198">
-        <v>16.67338562011719</v>
+        <v>16.54903793334961</v>
       </c>
       <c r="G198">
         <v>3733700</v>
@@ -6662,13 +7250,16 @@
         <v>0.02070706379850229</v>
       </c>
       <c r="I198">
-        <v>-0.2142301856913698</v>
+        <v>0.08014196635070547</v>
       </c>
       <c r="J198">
         <v>-0.2142301856913698</v>
       </c>
-    </row>
-    <row r="199" spans="1:10">
+      <c r="K198">
+        <v>-0.2142301856913698</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
       <c r="A199" s="2">
         <v>41122</v>
       </c>
@@ -6685,7 +7276,7 @@
         <v>21.21999931335449</v>
       </c>
       <c r="F199">
-        <v>17.50664138793945</v>
+        <v>17.3760814666748</v>
       </c>
       <c r="G199">
         <v>3579800</v>
@@ -6694,13 +7285,16 @@
         <v>0.04997527336148266</v>
       </c>
       <c r="I199">
-        <v>0.01434030764658067</v>
+        <v>0.08021913304701128</v>
       </c>
       <c r="J199">
         <v>0.01434030764658067</v>
       </c>
-    </row>
-    <row r="200" spans="1:10">
+      <c r="K199">
+        <v>0.01434030764658067</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
       <c r="A200" s="2">
         <v>41153</v>
       </c>
@@ -6717,7 +7311,7 @@
         <v>22.56999969482422</v>
       </c>
       <c r="F200">
-        <v>18.62039756774902</v>
+        <v>18.48153305053711</v>
       </c>
       <c r="G200">
         <v>3525800</v>
@@ -6726,13 +7320,16 @@
         <v>0.06361924717971701</v>
       </c>
       <c r="I200">
-        <v>0.2353584635644221</v>
+        <v>0.07706165905242005</v>
       </c>
       <c r="J200">
         <v>0.2353584635644221</v>
       </c>
-    </row>
-    <row r="201" spans="1:10">
+      <c r="K200">
+        <v>0.2353584635644221</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
       <c r="A201" s="2">
         <v>41183</v>
       </c>
@@ -6749,7 +7346,7 @@
         <v>22.94000053405762</v>
       </c>
       <c r="F201">
-        <v>18.92565536499023</v>
+        <v>18.78451347351074</v>
       </c>
       <c r="G201">
         <v>2629000</v>
@@ -6758,13 +7355,16 @@
         <v>0.01639348002819196</v>
       </c>
       <c r="I201">
-        <v>0.08207545794809246</v>
+        <v>0.07617198132578176</v>
       </c>
       <c r="J201">
         <v>0.08207545794809246</v>
       </c>
-    </row>
-    <row r="202" spans="1:10">
+      <c r="K201">
+        <v>0.08207545794809246</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
       <c r="A202" s="2">
         <v>41214</v>
       </c>
@@ -6781,7 +7381,7 @@
         <v>23.52000045776367</v>
       </c>
       <c r="F202">
-        <v>19.40415954589844</v>
+        <v>19.25944709777832</v>
       </c>
       <c r="G202">
         <v>1566400</v>
@@ -6790,13 +7390,16 @@
         <v>0.02528334394957676</v>
       </c>
       <c r="I202">
-        <v>0.1400873201436272</v>
+        <v>0.07602510798852902</v>
       </c>
       <c r="J202">
         <v>0.1400873201436272</v>
       </c>
-    </row>
-    <row r="203" spans="1:10">
+      <c r="K202">
+        <v>0.1400873201436272</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
       <c r="A203" s="2">
         <v>41244</v>
       </c>
@@ -6813,7 +7416,7 @@
         <v>24.70000076293945</v>
       </c>
       <c r="F203">
-        <v>20.37766456604004</v>
+        <v>20.22569274902344</v>
       </c>
       <c r="G203">
         <v>2494400</v>
@@ -6822,13 +7425,16 @@
         <v>0.05017008002592438</v>
       </c>
       <c r="I203">
-        <v>0.2851197526202476</v>
+        <v>0.07529149145347512</v>
       </c>
       <c r="J203">
         <v>0.2851197526202476</v>
       </c>
-    </row>
-    <row r="204" spans="1:10">
+      <c r="K203">
+        <v>0.2851197526202476</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
       <c r="A204" s="2">
         <v>41275</v>
       </c>
@@ -6845,7 +7451,7 @@
         <v>25.70999908447266</v>
       </c>
       <c r="F204">
-        <v>21.21091842651367</v>
+        <v>21.052734375</v>
       </c>
       <c r="G204">
         <v>4462200</v>
@@ -6854,13 +7460,16 @@
         <v>0.04089061904194891</v>
       </c>
       <c r="I204">
-        <v>0.2053445464806913</v>
+        <v>0.0753331391794798</v>
       </c>
       <c r="J204">
         <v>0.2053445464806913</v>
       </c>
-    </row>
-    <row r="205" spans="1:10">
+      <c r="K204">
+        <v>0.2053445464806913</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
       <c r="A205" s="2">
         <v>41306</v>
       </c>
@@ -6877,7 +7486,7 @@
         <v>24.67000007629395</v>
       </c>
       <c r="F205">
-        <v>20.35291481018066</v>
+        <v>20.20112991333008</v>
       </c>
       <c r="G205">
         <v>1825500</v>
@@ -6886,13 +7495,16 @@
         <v>-0.04045114917202819</v>
       </c>
       <c r="I205">
-        <v>0.07494550135841438</v>
+        <v>0.07509321849789025</v>
       </c>
       <c r="J205">
         <v>0.07494550135841438</v>
       </c>
-    </row>
-    <row r="206" spans="1:10">
+      <c r="K205">
+        <v>0.07494550135841438</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
       <c r="A206" s="2">
         <v>41334</v>
       </c>
@@ -6909,7 +7521,7 @@
         <v>24.46999931335449</v>
       </c>
       <c r="F206">
-        <v>20.18791007995605</v>
+        <v>20.03735542297363</v>
       </c>
       <c r="G206">
         <v>3104000</v>
@@ -6918,13 +7530,16 @@
         <v>-0.00810704346659652</v>
       </c>
       <c r="I206">
-        <v>0.05111677799011516</v>
+        <v>0.07492959014148433</v>
       </c>
       <c r="J206">
         <v>0.05111677799011516</v>
       </c>
-    </row>
-    <row r="207" spans="1:10">
+      <c r="K206">
+        <v>0.05111677799011516</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
       <c r="A207" s="2">
         <v>41365</v>
       </c>
@@ -6941,7 +7556,7 @@
         <v>25.46999931335449</v>
       </c>
       <c r="F207">
-        <v>21.01291656494141</v>
+        <v>20.85620880126953</v>
       </c>
       <c r="G207">
         <v>6124200</v>
@@ -6950,13 +7565,16 @@
         <v>0.04086636812671474</v>
       </c>
       <c r="I207">
-        <v>0.1299910505242585</v>
+        <v>0.07177048225820699</v>
       </c>
       <c r="J207">
         <v>0.1299910505242585</v>
       </c>
-    </row>
-    <row r="208" spans="1:10">
+      <c r="K207">
+        <v>0.1299910505242585</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
       <c r="A208" s="2">
         <v>41395</v>
       </c>
@@ -6973,7 +7591,7 @@
         <v>26.14999961853027</v>
       </c>
       <c r="F208">
-        <v>21.57392311096191</v>
+        <v>21.41303062438965</v>
       </c>
       <c r="G208">
         <v>2577300</v>
@@ -6982,13 +7600,16 @@
         <v>0.02669808886956826</v>
       </c>
       <c r="I208">
-        <v>0.3417136955168891</v>
+        <v>0.07164983878408573</v>
       </c>
       <c r="J208">
         <v>0.3417136955168891</v>
       </c>
-    </row>
-    <row r="209" spans="1:10">
+      <c r="K208">
+        <v>0.3417136955168891</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
       <c r="A209" s="2">
         <v>41426</v>
       </c>
@@ -7005,7 +7626,7 @@
         <v>24.70000076293945</v>
       </c>
       <c r="F209">
-        <v>20.73646926879883</v>
+        <v>20.58182334899902</v>
       </c>
       <c r="G209">
         <v>10774600</v>
@@ -7014,13 +7635,16 @@
         <v>-0.05544928782956193</v>
       </c>
       <c r="I209">
-        <v>0.2474748340751121</v>
+        <v>0.07171848986248297</v>
       </c>
       <c r="J209">
         <v>0.2474748340751121</v>
       </c>
-    </row>
-    <row r="210" spans="1:10">
+      <c r="K209">
+        <v>0.2474748340751121</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
       <c r="A210" s="2">
         <v>41456</v>
       </c>
@@ -7037,7 +7661,7 @@
         <v>26.31999969482422</v>
       </c>
       <c r="F210">
-        <v>22.09651565551758</v>
+        <v>21.93172454833984</v>
       </c>
       <c r="G210">
         <v>2557200</v>
@@ -7046,13 +7670,16 @@
         <v>0.06558699926501443</v>
       </c>
       <c r="I210">
-        <v>0.3023256252913873</v>
+        <v>0.07184713315304193</v>
       </c>
       <c r="J210">
         <v>0.3023256252913873</v>
       </c>
-    </row>
-    <row r="211" spans="1:10">
+      <c r="K210">
+        <v>0.3023256252913873</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
       <c r="A211" s="2">
         <v>41487</v>
       </c>
@@ -7069,7 +7696,7 @@
         <v>25.65999984741211</v>
       </c>
       <c r="F211">
-        <v>21.54242324829102</v>
+        <v>21.38176345825195</v>
       </c>
       <c r="G211">
         <v>3444200</v>
@@ -7078,13 +7705,16 @@
         <v>-0.02507598233528463</v>
       </c>
       <c r="I211">
-        <v>0.2092366012124878</v>
+        <v>0.07188918472882064</v>
       </c>
       <c r="J211">
         <v>0.2092366012124878</v>
       </c>
-    </row>
-    <row r="212" spans="1:10">
+      <c r="K211">
+        <v>0.2092366012124878</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
       <c r="A212" s="2">
         <v>41518</v>
       </c>
@@ -7101,7 +7731,7 @@
         <v>27.80999946594238</v>
       </c>
       <c r="F212">
-        <v>23.34741973876953</v>
+        <v>23.17329788208008</v>
       </c>
       <c r="G212">
         <v>1903900</v>
@@ -7110,13 +7740,16 @@
         <v>0.08378798251423625</v>
       </c>
       <c r="I212">
-        <v>0.2321665858205486</v>
+        <v>0.0722002178699562</v>
       </c>
       <c r="J212">
         <v>0.2321665858205486</v>
       </c>
-    </row>
-    <row r="213" spans="1:10">
+      <c r="K212">
+        <v>0.2321665858205486</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
       <c r="A213" s="2">
         <v>41548</v>
       </c>
@@ -7133,7 +7766,7 @@
         <v>29.34000015258789</v>
       </c>
       <c r="F213">
-        <v>24.63190269470215</v>
+        <v>24.44820785522461</v>
       </c>
       <c r="G213">
         <v>1942300</v>
@@ -7142,13 +7775,16 @@
         <v>0.05501620697689069</v>
       </c>
       <c r="I213">
-        <v>0.278988642961389</v>
+        <v>0.07167134781165488</v>
       </c>
       <c r="J213">
         <v>0.278988642961389</v>
       </c>
-    </row>
-    <row r="214" spans="1:10">
+      <c r="K213">
+        <v>0.278988642961389</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
       <c r="A214" s="2">
         <v>41579</v>
       </c>
@@ -7165,7 +7801,7 @@
         <v>30.56999969482422</v>
       </c>
       <c r="F214">
-        <v>25.66452598571777</v>
+        <v>25.47313117980957</v>
       </c>
       <c r="G214">
         <v>1511000</v>
@@ -7174,13 +7810,16 @@
         <v>0.04192227456848996</v>
       </c>
       <c r="I214">
-        <v>0.299744859687425</v>
+        <v>0.07154691738244191</v>
       </c>
       <c r="J214">
         <v>0.299744859687425</v>
       </c>
-    </row>
-    <row r="215" spans="1:10">
+      <c r="K214">
+        <v>0.299744859687425</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
       <c r="A215" s="2">
         <v>41609</v>
       </c>
@@ -7197,7 +7836,7 @@
         <v>31.76000022888184</v>
       </c>
       <c r="F215">
-        <v>26.66357421875</v>
+        <v>26.46472358703613</v>
       </c>
       <c r="G215">
         <v>1892600</v>
@@ -7206,13 +7845,16 @@
         <v>0.03892707052460631</v>
       </c>
       <c r="I215">
-        <v>0.2858299290636215</v>
+        <v>0.07117147193601885</v>
       </c>
       <c r="J215">
         <v>0.2858299290636215</v>
       </c>
-    </row>
-    <row r="216" spans="1:10">
+      <c r="K215">
+        <v>0.2858299290636215</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
       <c r="A216" s="2">
         <v>41640</v>
       </c>
@@ -7229,7 +7871,7 @@
         <v>29.82999992370605</v>
       </c>
       <c r="F216">
-        <v>25.04327392578125</v>
+        <v>24.85651206970215</v>
       </c>
       <c r="G216">
         <v>5772300</v>
@@ -7238,13 +7880,16 @@
         <v>-0.06076827113561167</v>
       </c>
       <c r="I216">
-        <v>0.1602489687260098</v>
+        <v>0.07144596586034277</v>
       </c>
       <c r="J216">
         <v>0.1602489687260098</v>
       </c>
-    </row>
-    <row r="217" spans="1:10">
+      <c r="K216">
+        <v>0.1602489687260098</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
       <c r="A217" s="2">
         <v>41671</v>
       </c>
@@ -7261,7 +7906,7 @@
         <v>31.70999908447266</v>
       </c>
       <c r="F217">
-        <v>26.62159729003906</v>
+        <v>26.42305946350098</v>
       </c>
       <c r="G217">
         <v>5627200</v>
@@ -7270,13 +7915,16 @@
         <v>0.06302377356939104</v>
       </c>
       <c r="I217">
-        <v>0.2853668012325477</v>
+        <v>0.07159785369952952</v>
       </c>
       <c r="J217">
         <v>0.2853668012325477</v>
       </c>
-    </row>
-    <row r="218" spans="1:10">
+      <c r="K217">
+        <v>0.2853668012325477</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
       <c r="A218" s="2">
         <v>41699</v>
       </c>
@@ -7293,7 +7941,7 @@
         <v>31.35000038146973</v>
       </c>
       <c r="F218">
-        <v>26.31936454772949</v>
+        <v>26.12307929992676</v>
       </c>
       <c r="G218">
         <v>2094700</v>
@@ -7302,13 +7950,16 @@
         <v>-0.01135284495101763</v>
       </c>
       <c r="I218">
-        <v>0.2811606563617874</v>
+        <v>0.07147943020530749</v>
       </c>
       <c r="J218">
         <v>0.2811606563617874</v>
       </c>
-    </row>
-    <row r="219" spans="1:10">
+      <c r="K218">
+        <v>0.2811606563617874</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
       <c r="A219" s="2">
         <v>41730</v>
       </c>
@@ -7325,7 +7976,7 @@
         <v>31.68000030517578</v>
       </c>
       <c r="F219">
-        <v>26.59641075134277</v>
+        <v>26.39806175231934</v>
       </c>
       <c r="G219">
         <v>3736400</v>
@@ -7334,13 +7985,16 @@
         <v>0.01052631322776976</v>
       </c>
       <c r="I219">
-        <v>0.2438162999307678</v>
+        <v>0.07146021122570943</v>
       </c>
       <c r="J219">
         <v>0.2438162999307678</v>
       </c>
-    </row>
-    <row r="220" spans="1:10">
+      <c r="K219">
+        <v>0.2438162999307678</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
       <c r="A220" s="2">
         <v>41760</v>
       </c>
@@ -7357,7 +8011,7 @@
         <v>32.13999938964844</v>
       </c>
       <c r="F220">
-        <v>26.98259544372559</v>
+        <v>26.7813663482666</v>
       </c>
       <c r="G220">
         <v>3243100</v>
@@ -7366,13 +8020,16 @@
         <v>0.01452017298110642</v>
       </c>
       <c r="I220">
-        <v>0.2290630921032046</v>
+        <v>0.07146216686942762</v>
       </c>
       <c r="J220">
         <v>0.2290630921032046</v>
       </c>
-    </row>
-    <row r="221" spans="1:10">
+      <c r="K220">
+        <v>0.2290630921032046</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
       <c r="A221" s="2">
         <v>41791</v>
       </c>
@@ -7389,7 +8046,7 @@
         <v>31.28000068664551</v>
       </c>
       <c r="F221">
-        <v>26.79001998901367</v>
+        <v>26.59022903442383</v>
       </c>
       <c r="G221">
         <v>5100200</v>
@@ -7398,13 +8055,16 @@
         <v>-0.02675789419211738</v>
       </c>
       <c r="I221">
-        <v>0.2663967498162536</v>
+        <v>0.07148363304832428</v>
       </c>
       <c r="J221">
         <v>0.2663967498162536</v>
       </c>
-    </row>
-    <row r="222" spans="1:10">
+      <c r="K221">
+        <v>0.2663967498162536</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
       <c r="A222" s="2">
         <v>41821</v>
       </c>
@@ -7421,7 +8081,7 @@
         <v>29.14999961853027</v>
       </c>
       <c r="F222">
-        <v>24.96576309204102</v>
+        <v>24.77957725524902</v>
       </c>
       <c r="G222">
         <v>5496800</v>
@@ -7430,13 +8090,16 @@
         <v>-0.06809466180813106</v>
       </c>
       <c r="I222">
-        <v>0.1075227947005855</v>
+        <v>0.07153157530772969</v>
       </c>
       <c r="J222">
         <v>0.1075227947005855</v>
       </c>
-    </row>
-    <row r="223" spans="1:10">
+      <c r="K222">
+        <v>0.1075227947005855</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
       <c r="A223" s="2">
         <v>41852</v>
       </c>
@@ -7453,7 +8116,7 @@
         <v>28.92000007629395</v>
       </c>
       <c r="F223">
-        <v>24.76877975463867</v>
+        <v>24.58406257629395</v>
       </c>
       <c r="G223">
         <v>2451500</v>
@@ -7462,13 +8125,16 @@
         <v>-0.007890207384089298</v>
       </c>
       <c r="I223">
-        <v>0.1270459956456553</v>
+        <v>0.07152891946181864</v>
       </c>
       <c r="J223">
         <v>0.1270459956456553</v>
       </c>
-    </row>
-    <row r="224" spans="1:10">
+      <c r="K223">
+        <v>0.1270459956456553</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
       <c r="A224" s="2">
         <v>41883</v>
       </c>
@@ -7485,7 +8151,7 @@
         <v>27.70000076293945</v>
       </c>
       <c r="F224">
-        <v>23.72389984130859</v>
+        <v>23.54697227478027</v>
       </c>
       <c r="G224">
         <v>7717400</v>
@@ -7494,13 +8160,16 @@
         <v>-0.04218531501161848</v>
       </c>
       <c r="I224">
-        <v>-0.003955365160565383</v>
+        <v>0.07156335118932669</v>
       </c>
       <c r="J224">
         <v>-0.003955365160565383</v>
       </c>
-    </row>
-    <row r="225" spans="1:10">
+      <c r="K224">
+        <v>-0.003955365160565383</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11">
       <c r="A225" s="2">
         <v>41913</v>
       </c>
@@ -7517,7 +8186,7 @@
         <v>27.22999954223633</v>
       </c>
       <c r="F225">
-        <v>23.32136535644531</v>
+        <v>23.14744186401367</v>
       </c>
       <c r="G225">
         <v>5702300</v>
@@ -7526,13 +8195,16 @@
         <v>-0.01696755262663929</v>
       </c>
       <c r="I225">
-        <v>-0.07191549418466692</v>
+        <v>0.07151262261956802</v>
       </c>
       <c r="J225">
         <v>-0.07191549418466692</v>
       </c>
-    </row>
-    <row r="226" spans="1:10">
+      <c r="K225">
+        <v>-0.07191549418466692</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
       <c r="A226" s="2">
         <v>41944</v>
       </c>
@@ -7549,7 +8221,7 @@
         <v>28.79000091552734</v>
       </c>
       <c r="F226">
-        <v>24.65744018554688</v>
+        <v>24.47355270385742</v>
       </c>
       <c r="G226">
         <v>3671100</v>
@@ -7558,13 +8230,16 @@
         <v>0.05728980534396655</v>
       </c>
       <c r="I226">
-        <v>-0.05822698060406739</v>
+        <v>0.07136186013837664</v>
       </c>
       <c r="J226">
         <v>-0.05822698060406739</v>
       </c>
-    </row>
-    <row r="227" spans="1:10">
+      <c r="K226">
+        <v>-0.05822698060406739</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11">
       <c r="A227" s="2">
         <v>41974</v>
       </c>
@@ -7581,7 +8256,7 @@
         <v>27.40999984741211</v>
       </c>
       <c r="F227">
-        <v>23.47552871704102</v>
+        <v>23.30044937133789</v>
       </c>
       <c r="G227">
         <v>2454000</v>
@@ -7590,13 +8265,16 @@
         <v>-0.04793334575307207</v>
       </c>
       <c r="I227">
-        <v>-0.1369647465403332</v>
+        <v>0.07142982988352797</v>
       </c>
       <c r="J227">
         <v>-0.1369647465403332</v>
       </c>
-    </row>
-    <row r="228" spans="1:10">
+      <c r="K227">
+        <v>-0.1369647465403332</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11">
       <c r="A228" s="2">
         <v>42005</v>
       </c>
@@ -7613,7 +8291,7 @@
         <v>28.04999923706055</v>
       </c>
       <c r="F228">
-        <v>24.02366256713867</v>
+        <v>23.84449768066406</v>
       </c>
       <c r="G228">
         <v>6264200</v>
@@ -7622,13 +8300,16 @@
         <v>0.02334912051117222</v>
       </c>
       <c r="I228">
-        <v>-0.05967149484405232</v>
+        <v>0.07127968493154044</v>
       </c>
       <c r="J228">
         <v>-0.05967149484405232</v>
       </c>
-    </row>
-    <row r="229" spans="1:10">
+      <c r="K228">
+        <v>-0.05967149484405232</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11">
       <c r="A229" s="2">
         <v>42036</v>
       </c>
@@ -7645,7 +8326,7 @@
         <v>29.70000076293945</v>
       </c>
       <c r="F229">
-        <v>25.43681907653809</v>
+        <v>25.24711799621582</v>
       </c>
       <c r="G229">
         <v>3890300</v>
@@ -7654,13 +8335,16 @@
         <v>0.05882358541025812</v>
       </c>
       <c r="I229">
-        <v>-0.06338689307996337</v>
+        <v>0.0713703584414815</v>
       </c>
       <c r="J229">
         <v>-0.06338689307996337</v>
       </c>
-    </row>
-    <row r="230" spans="1:10">
+      <c r="K229">
+        <v>-0.06338689307996337</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11">
       <c r="A230" s="2">
         <v>42064</v>
       </c>
@@ -7677,7 +8361,7 @@
         <v>29.84000015258789</v>
       </c>
       <c r="F230">
-        <v>25.55671882629395</v>
+        <v>25.36612701416016</v>
       </c>
       <c r="G230">
         <v>9533000</v>
@@ -7686,13 +8370,16 @@
         <v>0.004713784042158498</v>
       </c>
       <c r="I230">
-        <v>-0.04816587593326993</v>
+        <v>0.07132336761265508</v>
       </c>
       <c r="J230">
         <v>-0.04816587593326993</v>
       </c>
-    </row>
-    <row r="231" spans="1:10">
+      <c r="K230">
+        <v>-0.04816587593326993</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11">
       <c r="A231" s="2">
         <v>42095</v>
       </c>
@@ -7709,7 +8396,7 @@
         <v>29.6200008392334</v>
       </c>
       <c r="F231">
-        <v>25.36830139160156</v>
+        <v>25.17911148071289</v>
       </c>
       <c r="G231">
         <v>10081900</v>
@@ -7718,13 +8405,16 @@
         <v>-0.007372631106887351</v>
       </c>
       <c r="I231">
-        <v>-0.06502523504098034</v>
+        <v>0.07118759472120789</v>
       </c>
       <c r="J231">
         <v>-0.06502523504098034</v>
       </c>
-    </row>
-    <row r="232" spans="1:10">
+      <c r="K231">
+        <v>-0.06502523504098034</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11">
       <c r="A232" s="2">
         <v>42125</v>
       </c>
@@ -7741,7 +8431,7 @@
         <v>29.11000061035156</v>
       </c>
       <c r="F232">
-        <v>24.93150901794434</v>
+        <v>24.74557495117188</v>
       </c>
       <c r="G232">
         <v>5038700</v>
@@ -7750,13 +8440,16 @@
         <v>-0.01721810312058836</v>
       </c>
       <c r="I232">
-        <v>-0.09427501048032905</v>
+        <v>0.07120961516483466</v>
       </c>
       <c r="J232">
         <v>-0.09427501048032905</v>
       </c>
-    </row>
-    <row r="233" spans="1:10">
+      <c r="K232">
+        <v>-0.09427501048032905</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11">
       <c r="A233" s="2">
         <v>42156</v>
       </c>
@@ -7773,7 +8466,7 @@
         <v>27.8799991607666</v>
       </c>
       <c r="F233">
-        <v>24.29392242431641</v>
+        <v>24.11274147033691</v>
       </c>
       <c r="G233">
         <v>21530400</v>
@@ -7782,13 +8475,16 @@
         <v>-0.04225357003763064</v>
       </c>
       <c r="I233">
-        <v>-0.1086956985691654</v>
+        <v>0.07134969420142359</v>
       </c>
       <c r="J233">
         <v>-0.1086956985691654</v>
       </c>
-    </row>
-    <row r="234" spans="1:10">
+      <c r="K233">
+        <v>-0.1086956985691654</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11">
       <c r="A234" s="2">
         <v>42186</v>
       </c>
@@ -7805,7 +8501,7 @@
         <v>28.32999992370605</v>
       </c>
       <c r="F234">
-        <v>24.68603706359863</v>
+        <v>24.5019359588623</v>
       </c>
       <c r="G234">
         <v>7146000</v>
@@ -7814,13 +8510,16 @@
         <v>0.01614063043347236</v>
       </c>
       <c r="I234">
-        <v>-0.02813035010480602</v>
+        <v>0.0711325967767574</v>
       </c>
       <c r="J234">
         <v>-0.02813035010480602</v>
       </c>
-    </row>
-    <row r="235" spans="1:10">
+      <c r="K234">
+        <v>-0.02813035010480602</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
       <c r="A235" s="2">
         <v>42217</v>
       </c>
@@ -7837,7 +8536,7 @@
         <v>26.34000015258789</v>
       </c>
       <c r="F235">
-        <v>22.95200347900391</v>
+        <v>22.78083610534668</v>
       </c>
       <c r="G235">
         <v>8330600</v>
@@ -7846,13 +8545,16 @@
         <v>-0.07024355017569084</v>
       </c>
       <c r="I235">
-        <v>-0.08921161538380873</v>
+        <v>0.07146068463488638</v>
       </c>
       <c r="J235">
         <v>-0.08921161538380873</v>
       </c>
-    </row>
-    <row r="236" spans="1:10">
+      <c r="K235">
+        <v>-0.08921161538380873</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11">
       <c r="A236" s="2">
         <v>42248</v>
       </c>
@@ -7869,7 +8571,7 @@
         <v>24.73999977111816</v>
       </c>
       <c r="F236">
-        <v>21.55780410766602</v>
+        <v>21.39702606201172</v>
       </c>
       <c r="G236">
         <v>8084700</v>
@@ -7878,13 +8580,16 @@
         <v>-0.06074412954445363</v>
       </c>
       <c r="I236">
-        <v>-0.1068592386387783</v>
+        <v>0.07171339854656283</v>
       </c>
       <c r="J236">
         <v>-0.1068592386387783</v>
       </c>
-    </row>
-    <row r="237" spans="1:10">
+      <c r="K236">
+        <v>-0.1068592386387783</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11">
       <c r="A237" s="2">
         <v>42278</v>
       </c>
@@ -7901,7 +8606,7 @@
         <v>27.11000061035156</v>
       </c>
       <c r="F237">
-        <v>23.62296104431152</v>
+        <v>23.44678688049316</v>
       </c>
       <c r="G237">
         <v>3890100</v>
@@ -7910,13 +8615,16 @@
         <v>0.09579631613417283</v>
       </c>
       <c r="I237">
-        <v>-0.004406864998239723</v>
+        <v>0.07213012881018266</v>
       </c>
       <c r="J237">
         <v>-0.004406864998239723</v>
       </c>
-    </row>
-    <row r="238" spans="1:10">
+      <c r="K237">
+        <v>-0.004406864998239723</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11">
       <c r="A238" s="2">
         <v>42309</v>
       </c>
@@ -7933,7 +8641,7 @@
         <v>27.25</v>
       </c>
       <c r="F238">
-        <v>23.74495315551758</v>
+        <v>23.56787109375</v>
       </c>
       <c r="G238">
         <v>4826500</v>
@@ -7942,13 +8650,16 @@
         <v>0.00516412344140571</v>
       </c>
       <c r="I238">
-        <v>-0.05349082551424211</v>
+        <v>0.07209638133892701</v>
       </c>
       <c r="J238">
         <v>-0.05349082551424211</v>
       </c>
-    </row>
-    <row r="239" spans="1:10">
+      <c r="K238">
+        <v>-0.05349082551424211</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11">
       <c r="A239" s="2">
         <v>42339</v>
       </c>
@@ -7965,7 +8676,7 @@
         <v>26.19000053405762</v>
       </c>
       <c r="F239">
-        <v>22.82129859924316</v>
+        <v>22.65110015869141</v>
       </c>
       <c r="G239">
         <v>6730100</v>
@@ -7974,13 +8685,16 @@
         <v>-0.03889906297036272</v>
       </c>
       <c r="I239">
-        <v>-0.04450927837088903</v>
+        <v>0.07212259039550251</v>
       </c>
       <c r="J239">
         <v>-0.04450927837088903</v>
       </c>
-    </row>
-    <row r="240" spans="1:10">
+      <c r="K239">
+        <v>-0.04450927837088903</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11">
       <c r="A240" s="2">
         <v>42370</v>
       </c>
@@ -7997,7 +8711,7 @@
         <v>24.32999992370605</v>
       </c>
       <c r="F240">
-        <v>21.20054054260254</v>
+        <v>21.04243278503418</v>
       </c>
       <c r="G240">
         <v>6935000</v>
@@ -8006,13 +8720,16 @@
         <v>-0.0710194949378794</v>
       </c>
       <c r="I240">
-        <v>-0.1326202999834493</v>
+        <v>0.07210972825466351</v>
       </c>
       <c r="J240">
         <v>-0.1326202999834493</v>
       </c>
-    </row>
-    <row r="241" spans="1:10">
+      <c r="K240">
+        <v>-0.1326202999834493</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11">
       <c r="A241" s="2">
         <v>42401</v>
       </c>
@@ -8029,7 +8746,7 @@
         <v>23.36000061035156</v>
       </c>
       <c r="F241">
-        <v>20.35531044006348</v>
+        <v>20.20350074768066</v>
       </c>
       <c r="G241">
         <v>4084400</v>
@@ -8038,13 +8755,16 @@
         <v>-0.03986844703642467</v>
       </c>
       <c r="I241">
-        <v>-0.2134680131220444</v>
+        <v>0.07221823986652558</v>
       </c>
       <c r="J241">
         <v>-0.2134680131220444</v>
       </c>
-    </row>
-    <row r="242" spans="1:10">
+      <c r="K241">
+        <v>-0.2134680131220444</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11">
       <c r="A242" s="2">
         <v>42430</v>
       </c>
@@ -8061,7 +8781,7 @@
         <v>25.72999954223633</v>
       </c>
       <c r="F242">
-        <v>22.42046356201172</v>
+        <v>22.25325965881348</v>
       </c>
       <c r="G242">
         <v>4347700</v>
@@ -8070,13 +8790,16 @@
         <v>0.1014554310771099</v>
       </c>
       <c r="I242">
-        <v>-0.1377346042002322</v>
+        <v>0.07267401110069066</v>
       </c>
       <c r="J242">
         <v>-0.1377346042002322</v>
       </c>
-    </row>
-    <row r="243" spans="1:10">
+      <c r="K242">
+        <v>-0.1377346042002322</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11">
       <c r="A243" s="2">
         <v>42461</v>
       </c>
@@ -8093,7 +8816,7 @@
         <v>26.22999954223633</v>
       </c>
       <c r="F243">
-        <v>22.85615158081055</v>
+        <v>22.68569755554199</v>
       </c>
       <c r="G243">
         <v>7650900</v>
@@ -8102,13 +8825,16 @@
         <v>0.01943256933134574</v>
       </c>
       <c r="I243">
-        <v>-0.1144497366963886</v>
+        <v>0.07257100379621445</v>
       </c>
       <c r="J243">
         <v>-0.1144497366963886</v>
       </c>
-    </row>
-    <row r="244" spans="1:10">
+      <c r="K243">
+        <v>-0.1144497366963886</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11">
       <c r="A244" s="2">
         <v>42491</v>
       </c>
@@ -8125,7 +8851,7 @@
         <v>25.93000030517578</v>
       </c>
       <c r="F244">
-        <v>22.59473991394043</v>
+        <v>22.42623710632324</v>
       </c>
       <c r="G244">
         <v>4625700</v>
@@ -8134,13 +8860,16 @@
         <v>-0.01143725666397666</v>
       </c>
       <c r="I244">
-        <v>-0.1092408189110435</v>
+        <v>0.07245400884548932</v>
       </c>
       <c r="J244">
         <v>-0.1092408189110435</v>
       </c>
-    </row>
-    <row r="245" spans="1:10">
+      <c r="K244">
+        <v>-0.1092408189110435</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11">
       <c r="A245" s="2">
         <v>42522</v>
       </c>
@@ -8157,7 +8886,7 @@
         <v>24.04999923706055</v>
       </c>
       <c r="F245">
-        <v>21.46781349182129</v>
+        <v>21.30771064758301</v>
       </c>
       <c r="G245">
         <v>14300300</v>
@@ -8166,13 +8895,16 @@
         <v>-0.07250293274157715</v>
       </c>
       <c r="I245">
-        <v>-0.1373744633785973</v>
+        <v>0.07278034743879984</v>
       </c>
       <c r="J245">
         <v>-0.1373744633785973</v>
       </c>
-    </row>
-    <row r="246" spans="1:10">
+      <c r="K245">
+        <v>-0.1373744633785973</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11">
       <c r="A246" s="2">
         <v>42552</v>
       </c>
@@ -8189,7 +8921,7 @@
         <v>25.64999961853027</v>
       </c>
       <c r="F246">
-        <v>22.89602661132812</v>
+        <v>22.72527503967285</v>
       </c>
       <c r="G246">
         <v>2460400</v>
@@ -8198,13 +8930,16 @@
         <v>0.06652808450006775</v>
       </c>
       <c r="I246">
-        <v>-0.09459937565807064</v>
+        <v>0.07300901771403769</v>
       </c>
       <c r="J246">
         <v>-0.09459937565807064</v>
       </c>
-    </row>
-    <row r="247" spans="1:10">
+      <c r="K246">
+        <v>-0.09459937565807064</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11">
       <c r="A247" s="2">
         <v>42583</v>
       </c>
@@ -8221,7 +8956,7 @@
         <v>26.20999908447266</v>
       </c>
       <c r="F247">
-        <v>23.39590072631836</v>
+        <v>23.22142028808594</v>
       </c>
       <c r="G247">
         <v>1463400</v>
@@ -8230,13 +8965,16 @@
         <v>0.0218323381781973</v>
       </c>
       <c r="I247">
-        <v>-0.004935499899853313</v>
+        <v>0.07296352107223433</v>
       </c>
       <c r="J247">
         <v>-0.004935499899853313</v>
       </c>
-    </row>
-    <row r="248" spans="1:10">
+      <c r="K247">
+        <v>-0.004935499899853313</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11">
       <c r="A248" s="2">
         <v>42614</v>
       </c>
@@ -8253,7 +8991,7 @@
         <v>26.27000045776367</v>
       </c>
       <c r="F248">
-        <v>23.44945907592773</v>
+        <v>23.27457618713379</v>
       </c>
       <c r="G248">
         <v>3931000</v>
@@ -8262,13 +9000,16 @@
         <v>0.002289255070083707</v>
       </c>
       <c r="I248">
-        <v>0.06184319728376275</v>
+        <v>0.07296003053359622</v>
       </c>
       <c r="J248">
         <v>0.06184319728376275</v>
       </c>
-    </row>
-    <row r="249" spans="1:10">
+      <c r="K248">
+        <v>0.06184319728376275</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11">
       <c r="A249" s="2">
         <v>42644</v>
       </c>
@@ -8285,7 +9026,7 @@
         <v>25.90999984741211</v>
       </c>
       <c r="F249">
-        <v>23.12810897827148</v>
+        <v>22.95562744140625</v>
       </c>
       <c r="G249">
         <v>2227200</v>
@@ -8294,13 +9035,16 @@
         <v>-0.01370386768475185</v>
       </c>
       <c r="I249">
-        <v>-0.04426413633060744</v>
+        <v>0.07286579165365072</v>
       </c>
       <c r="J249">
         <v>-0.04426413633060744</v>
       </c>
-    </row>
-    <row r="250" spans="1:10">
+      <c r="K249">
+        <v>-0.04426413633060744</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11">
       <c r="A250" s="2">
         <v>42675</v>
       </c>
@@ -8317,7 +9061,7 @@
         <v>24.82999992370605</v>
       </c>
       <c r="F250">
-        <v>22.16406631469727</v>
+        <v>21.99877166748047</v>
       </c>
       <c r="G250">
         <v>2764100</v>
@@ -8326,13 +9070,16 @@
         <v>-0.04168274527465599</v>
       </c>
       <c r="I250">
-        <v>-0.08880734224931908</v>
+        <v>0.07285709357782923</v>
       </c>
       <c r="J250">
         <v>-0.08880734224931908</v>
       </c>
-    </row>
-    <row r="251" spans="1:10">
+      <c r="K250">
+        <v>-0.08880734224931908</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11">
       <c r="A251" s="2">
         <v>42705</v>
       </c>
@@ -8349,7 +9096,7 @@
         <v>26.47999954223633</v>
       </c>
       <c r="F251">
-        <v>23.64505004882812</v>
+        <v>23.46870994567871</v>
       </c>
       <c r="G251">
         <v>3084600</v>
@@ -8358,13 +9105,16 @@
         <v>0.06645185757551952</v>
       </c>
       <c r="I251">
-        <v>0.01107289050267846</v>
+        <v>0.07307615515237016</v>
       </c>
       <c r="J251">
         <v>0.01107289050267846</v>
       </c>
-    </row>
-    <row r="252" spans="1:10">
+      <c r="K251">
+        <v>0.01107289050267846</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11">
       <c r="A252" s="2">
         <v>42736</v>
       </c>
@@ -8381,7 +9131,7 @@
         <v>27.51000022888184</v>
       </c>
       <c r="F252">
-        <v>24.56477928161621</v>
+        <v>24.38157844543457</v>
       </c>
       <c r="G252">
         <v>3973200</v>
@@ -8390,13 +9140,16 @@
         <v>0.03889730756991239</v>
       </c>
       <c r="I252">
-        <v>0.1307028489579785</v>
+        <v>0.07312415924487738</v>
       </c>
       <c r="J252">
         <v>0.1307028489579785</v>
       </c>
-    </row>
-    <row r="253" spans="1:10">
+      <c r="K252">
+        <v>0.1307028489579785</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11">
       <c r="A253" s="2">
         <v>42767</v>
       </c>
@@ -8413,7 +9166,7 @@
         <v>27.52000045776367</v>
       </c>
       <c r="F253">
-        <v>24.57370758056641</v>
+        <v>24.39044380187988</v>
       </c>
       <c r="G253">
         <v>3465400</v>
@@ -8422,13 +9175,16 @@
         <v>0.0003635124972241055</v>
       </c>
       <c r="I253">
-        <v>0.1780821805958634</v>
+        <v>0.07312438285032261</v>
       </c>
       <c r="J253">
         <v>0.1780821805958634</v>
       </c>
-    </row>
-    <row r="254" spans="1:10">
+      <c r="K253">
+        <v>0.1780821805958634</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11">
       <c r="A254" s="2">
         <v>42795</v>
       </c>
@@ -8445,7 +9201,7 @@
         <v>28.75</v>
       </c>
       <c r="F254">
-        <v>25.67202377319336</v>
+        <v>25.48056793212891</v>
       </c>
       <c r="G254">
         <v>3135400</v>
@@ -8454,13 +9210,16 @@
         <v>0.04469475006456025</v>
       </c>
       <c r="I254">
-        <v>0.1173727365523765</v>
+        <v>0.07312500720761035</v>
       </c>
       <c r="J254">
         <v>0.1173727365523765</v>
       </c>
-    </row>
-    <row r="255" spans="1:10">
+      <c r="K254">
+        <v>0.1173727365523765</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11">
       <c r="A255" s="2">
         <v>42826</v>
       </c>
@@ -8477,7 +9236,7 @@
         <v>29.68000030517578</v>
       </c>
       <c r="F255">
-        <v>26.50245666503906</v>
+        <v>26.30480766296387</v>
       </c>
       <c r="G255">
         <v>2548300</v>
@@ -8486,13 +9245,16 @@
         <v>0.03234783670176622</v>
       </c>
       <c r="I255">
-        <v>0.1315288152172538</v>
+        <v>0.07274356762037738</v>
       </c>
       <c r="J255">
         <v>0.1315288152172538</v>
       </c>
-    </row>
-    <row r="256" spans="1:10">
+      <c r="K255">
+        <v>0.1315288152172538</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11">
       <c r="A256" s="2">
         <v>42856</v>
       </c>
@@ -8509,7 +9271,7 @@
         <v>31.02000045776367</v>
       </c>
       <c r="F256">
-        <v>27.69899368286133</v>
+        <v>27.49242210388184</v>
       </c>
       <c r="G256">
         <v>2227100</v>
@@ -8518,13 +9280,16 @@
         <v>0.04514825265531464</v>
       </c>
       <c r="I256">
-        <v>0.1962977282176082</v>
+        <v>0.0726999388281406</v>
       </c>
       <c r="J256">
         <v>0.1962977282176082</v>
       </c>
-    </row>
-    <row r="257" spans="1:10">
+      <c r="K256">
+        <v>0.1962977282176082</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11">
       <c r="A257" s="2">
         <v>42887</v>
       </c>
@@ -8541,7 +9306,7 @@
         <v>30.27000045776367</v>
       </c>
       <c r="F257">
-        <v>27.55051803588867</v>
+        <v>27.34505462646484</v>
       </c>
       <c r="G257">
         <v>3369500</v>
@@ -8550,13 +9315,16 @@
         <v>-0.02417794935306938</v>
       </c>
       <c r="I257">
-        <v>0.2586279175892128</v>
+        <v>0.07273966409968864</v>
       </c>
       <c r="J257">
         <v>0.2586279175892128</v>
       </c>
-    </row>
-    <row r="258" spans="1:10">
+      <c r="K257">
+        <v>0.2586279175892128</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11">
       <c r="A258" s="2">
         <v>42917</v>
       </c>
@@ -8573,7 +9341,7 @@
         <v>30.70999908447266</v>
       </c>
       <c r="F258">
-        <v>27.95098495483398</v>
+        <v>27.74253463745117</v>
       </c>
       <c r="G258">
         <v>6248000</v>
@@ -8582,13 +9350,16 @@
         <v>0.01453579848216124</v>
       </c>
       <c r="I258">
-        <v>0.1972709372785681</v>
+        <v>0.07265798322418177</v>
       </c>
       <c r="J258">
         <v>0.1972709372785681</v>
       </c>
-    </row>
-    <row r="259" spans="1:10">
+      <c r="K258">
+        <v>0.1972709372785681</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11">
       <c r="A259" s="2">
         <v>42948</v>
       </c>
@@ -8605,7 +9376,7 @@
         <v>30.76000022888184</v>
       </c>
       <c r="F259">
-        <v>27.99649810791016</v>
+        <v>27.7877025604248</v>
       </c>
       <c r="G259">
         <v>1973100</v>
@@ -8614,13 +9385,16 @@
         <v>0.001628171471827367</v>
       </c>
       <c r="I259">
-        <v>0.1735979131378411</v>
+        <v>0.07265336853690967</v>
       </c>
       <c r="J259">
         <v>0.1735979131378411</v>
       </c>
-    </row>
-    <row r="260" spans="1:10">
+      <c r="K259">
+        <v>0.1735979131378411</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11">
       <c r="A260" s="2">
         <v>42979</v>
       </c>
@@ -8637,7 +9411,7 @@
         <v>32.43000030517578</v>
       </c>
       <c r="F260">
-        <v>29.5164623260498</v>
+        <v>29.29633522033691</v>
       </c>
       <c r="G260">
         <v>2278300</v>
@@ -8646,13 +9420,16 @@
         <v>0.05429128946253758</v>
       </c>
       <c r="I260">
-        <v>0.2344879992414168</v>
+        <v>0.07252644652880534</v>
       </c>
       <c r="J260">
         <v>0.2344879992414168</v>
       </c>
-    </row>
-    <row r="261" spans="1:10">
+      <c r="K260">
+        <v>0.2344879992414168</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11">
       <c r="A261" s="2">
         <v>43009</v>
       </c>
@@ -8669,7 +9446,7 @@
         <v>33.06999969482422</v>
       </c>
       <c r="F261">
-        <v>30.09896469116211</v>
+        <v>29.8744945526123</v>
       </c>
       <c r="G261">
         <v>2154800</v>
@@ -8678,13 +9455,16 @@
         <v>0.01973479443804682</v>
       </c>
       <c r="I261">
-        <v>0.2763411767494568</v>
+        <v>0.07241578390835328</v>
       </c>
       <c r="J261">
         <v>0.2763411767494568</v>
       </c>
-    </row>
-    <row r="262" spans="1:10">
+      <c r="K261">
+        <v>0.2763411767494568</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11">
       <c r="A262" s="2">
         <v>43040</v>
       </c>
@@ -8701,7 +9481,7 @@
         <v>33.2400016784668</v>
       </c>
       <c r="F262">
-        <v>30.25369071960449</v>
+        <v>30.02806854248047</v>
       </c>
       <c r="G262">
         <v>3670300</v>
@@ -8710,13 +9490,16 @@
         <v>0.005140670856104812</v>
       </c>
       <c r="I262">
-        <v>0.3387032533468284</v>
+        <v>0.07239206884176543</v>
       </c>
       <c r="J262">
         <v>0.3387032533468284</v>
       </c>
-    </row>
-    <row r="263" spans="1:10">
+      <c r="K262">
+        <v>0.3387032533468284</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11">
       <c r="A263" s="2">
         <v>43070</v>
       </c>
@@ -8733,7 +9516,7 @@
         <v>33.02000045776367</v>
       </c>
       <c r="F263">
-        <v>30.1289119720459</v>
+        <v>29.90422058105469</v>
       </c>
       <c r="G263">
         <v>2636900</v>
@@ -8742,13 +9525,16 @@
         <v>-0.006618568279003534</v>
       </c>
       <c r="I263">
-        <v>0.2469788908076023</v>
+        <v>0.07239373439875771</v>
       </c>
       <c r="J263">
         <v>0.2469788908076023</v>
       </c>
-    </row>
-    <row r="264" spans="1:10">
+      <c r="K263">
+        <v>0.2469788908076023</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11">
       <c r="A264" s="2">
         <v>43101</v>
       </c>
@@ -8765,7 +9551,7 @@
         <v>35.0099983215332</v>
       </c>
       <c r="F264">
-        <v>31.94467544555664</v>
+        <v>31.7064380645752</v>
       </c>
       <c r="G264">
         <v>5330200</v>
@@ -8774,13 +9560,16 @@
         <v>0.06026643961786027</v>
       </c>
       <c r="I264">
-        <v>0.272628063622383</v>
+        <v>0.07171159942191885</v>
       </c>
       <c r="J264">
         <v>0.272628063622383</v>
       </c>
-    </row>
-    <row r="265" spans="1:10">
+      <c r="K264">
+        <v>0.272628063622383</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11">
       <c r="A265" s="2">
         <v>43132</v>
       </c>
@@ -8797,7 +9586,7 @@
         <v>32.43000030517578</v>
       </c>
       <c r="F265">
-        <v>29.59057235717773</v>
+        <v>29.3698902130127</v>
       </c>
       <c r="G265">
         <v>3021400</v>
@@ -8806,13 +9595,16 @@
         <v>-0.07369317737929082</v>
       </c>
       <c r="I265">
-        <v>0.1784156891620599</v>
+        <v>0.0720518118164608</v>
       </c>
       <c r="J265">
         <v>0.1784156891620599</v>
       </c>
-    </row>
-    <row r="266" spans="1:10">
+      <c r="K265">
+        <v>0.1784156891620599</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11">
       <c r="A266" s="2">
         <v>43160</v>
       </c>
@@ -8829,7 +9621,7 @@
         <v>32.04000091552734</v>
       </c>
       <c r="F266">
-        <v>29.23471832275391</v>
+        <v>29.01669311523438</v>
       </c>
       <c r="G266">
         <v>3343100</v>
@@ -8838,13 +9630,16 @@
         <v>-0.01202588300889396</v>
       </c>
       <c r="I266">
-        <v>0.1144348144531251</v>
+        <v>0.07205302219179453</v>
       </c>
       <c r="J266">
         <v>0.1144348144531251</v>
       </c>
-    </row>
-    <row r="267" spans="1:10">
+      <c r="K266">
+        <v>0.1144348144531251</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11">
       <c r="A267" s="2">
         <v>43191</v>
       </c>
@@ -8861,7 +9656,7 @@
         <v>32.45999908447266</v>
       </c>
       <c r="F267">
-        <v>29.61794281005859</v>
+        <v>29.39706039428711</v>
       </c>
       <c r="G267">
         <v>1847400</v>
@@ -8870,13 +9665,16 @@
         <v>0.01310855670861644</v>
       </c>
       <c r="I267">
-        <v>0.0936657261021685</v>
+        <v>0.07199011342504714</v>
       </c>
       <c r="J267">
         <v>0.0936657261021685</v>
       </c>
-    </row>
-    <row r="268" spans="1:10">
+      <c r="K267">
+        <v>0.0936657261021685</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11">
       <c r="A268" s="2">
         <v>43221</v>
       </c>
@@ -8893,7 +9691,7 @@
         <v>31.63999938964844</v>
       </c>
       <c r="F268">
-        <v>28.86974143981934</v>
+        <v>28.65443801879883</v>
       </c>
       <c r="G268">
         <v>8929800</v>
@@ -8902,13 +9700,16 @@
         <v>-0.02526185206260434</v>
       </c>
       <c r="I268">
-        <v>0.01998707036542258</v>
+        <v>0.07200201066820086</v>
       </c>
       <c r="J268">
         <v>0.01998707036542258</v>
       </c>
-    </row>
-    <row r="269" spans="1:10">
+      <c r="K268">
+        <v>0.01998707036542258</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11">
       <c r="A269" s="2">
         <v>43252</v>
       </c>
@@ -8925,7 +9726,7 @@
         <v>29.97999954223633</v>
       </c>
       <c r="F269">
-        <v>28.00747871398926</v>
+        <v>27.79860687255859</v>
       </c>
       <c r="G269">
         <v>4438500</v>
@@ -8934,13 +9735,16 @@
         <v>-0.05246523007061776</v>
       </c>
       <c r="I269">
-        <v>-0.009580472783011329</v>
+        <v>0.07127087129545837</v>
       </c>
       <c r="J269">
         <v>-0.009580472783011329</v>
       </c>
-    </row>
-    <row r="270" spans="1:10">
+      <c r="K269">
+        <v>-0.009580472783011329</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11">
       <c r="A270" s="2">
         <v>43282</v>
       </c>
@@ -8957,7 +9761,7 @@
         <v>31.30999946594238</v>
       </c>
       <c r="F270">
-        <v>29.24997329711914</v>
+        <v>29.03183174133301</v>
       </c>
       <c r="G270">
         <v>5280900</v>
@@ -8966,13 +9770,16 @@
         <v>0.04436290673828491</v>
       </c>
       <c r="I270">
-        <v>0.01953762290318961</v>
+        <v>0.07136373948082561</v>
       </c>
       <c r="J270">
         <v>0.01953762290318961</v>
       </c>
-    </row>
-    <row r="271" spans="1:10">
+      <c r="K270">
+        <v>0.01953762290318961</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11">
       <c r="A271" s="2">
         <v>43313</v>
       </c>
@@ -8989,7 +9796,7 @@
         <v>30.22999954223633</v>
       </c>
       <c r="F271">
-        <v>28.24102783203125</v>
+        <v>28.03041458129883</v>
       </c>
       <c r="G271">
         <v>2893700</v>
@@ -8998,13 +9805,16 @@
         <v>-0.03449377010947674</v>
       </c>
       <c r="I271">
-        <v>-0.01723019124518299</v>
+        <v>0.07120428589902174</v>
       </c>
       <c r="J271">
         <v>-0.01723019124518299</v>
       </c>
-    </row>
-    <row r="272" spans="1:10">
+      <c r="K271">
+        <v>-0.01723019124518299</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11">
       <c r="A272" s="2">
         <v>43344</v>
       </c>
@@ -9021,7 +9831,7 @@
         <v>29.73999977111816</v>
       </c>
       <c r="F272">
-        <v>27.78326797485352</v>
+        <v>27.5760669708252</v>
       </c>
       <c r="G272">
         <v>6817100</v>
@@ -9030,13 +9840,16 @@
         <v>-0.016209056517965</v>
       </c>
       <c r="I272">
-        <v>-0.08294790344569614</v>
+        <v>0.07019909865682128</v>
       </c>
       <c r="J272">
         <v>-0.08294790344569614</v>
       </c>
-    </row>
-    <row r="273" spans="1:10">
+      <c r="K272">
+        <v>-0.08294790344569614</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11">
       <c r="A273" s="2">
         <v>43374</v>
       </c>
@@ -9053,7 +9866,7 @@
         <v>27.25</v>
       </c>
       <c r="F273">
-        <v>25.45709800720215</v>
+        <v>25.26724433898926</v>
       </c>
       <c r="G273">
         <v>8475700</v>
@@ -9062,13 +9875,16 @@
         <v>-0.08372561500610076</v>
       </c>
       <c r="I273">
-        <v>-0.1759903159519868</v>
+        <v>0.06740049905391415</v>
       </c>
       <c r="J273">
         <v>-0.1759903159519868</v>
       </c>
-    </row>
-    <row r="274" spans="1:10">
+      <c r="K273">
+        <v>-0.1759903159519868</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11">
       <c r="A274" s="2">
         <v>43405</v>
       </c>
@@ -9085,7 +9901,7 @@
         <v>26.84000015258789</v>
       </c>
       <c r="F274">
-        <v>25.07407569885254</v>
+        <v>24.8870792388916</v>
       </c>
       <c r="G274">
         <v>1951200</v>
@@ -9094,13 +9910,16 @@
         <v>-0.0150458659600774</v>
       </c>
       <c r="I274">
-        <v>-0.19253914568918</v>
+        <v>0.06669495928840224</v>
       </c>
       <c r="J274">
         <v>-0.19253914568918</v>
       </c>
-    </row>
-    <row r="275" spans="1:10">
+      <c r="K274">
+        <v>-0.19253914568918</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11">
       <c r="A275" s="2">
         <v>43435</v>
       </c>
@@ -9117,7 +9936,7 @@
         <v>25.35000038146973</v>
       </c>
       <c r="F275">
-        <v>23.68210601806641</v>
+        <v>23.5054931640625</v>
       </c>
       <c r="G275">
         <v>3211300</v>
@@ -9126,13 +9945,16 @@
         <v>-0.05551414912993213</v>
       </c>
       <c r="I275">
-        <v>-0.2322834636572687</v>
+        <v>0.0654382627022035</v>
       </c>
       <c r="J275">
         <v>-0.2322834636572687</v>
       </c>
-    </row>
-    <row r="276" spans="1:10">
+      <c r="K275">
+        <v>-0.2322834636572687</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11">
       <c r="A276" s="2">
         <v>43466</v>
       </c>
@@ -9149,7 +9971,7 @@
         <v>26.79000091552734</v>
       </c>
       <c r="F276">
-        <v>25.02736473083496</v>
+        <v>24.84071731567383</v>
       </c>
       <c r="G276">
         <v>3030800</v>
@@ -9158,13 +9980,16 @@
         <v>0.05680475394036777</v>
       </c>
       <c r="I276">
-        <v>-0.2347899971463318</v>
+        <v>0.06301859649628237</v>
       </c>
       <c r="J276">
         <v>-0.2347899971463318</v>
       </c>
-    </row>
-    <row r="277" spans="1:10">
+      <c r="K276">
+        <v>-0.2347899971463318</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11">
       <c r="A277" s="2">
         <v>43497</v>
       </c>
@@ -9181,7 +10006,7 @@
         <v>27.29999923706055</v>
       </c>
       <c r="F277">
-        <v>25.50380706787109</v>
+        <v>25.31360626220703</v>
       </c>
       <c r="G277">
         <v>2085900</v>
@@ -9190,13 +10015,16 @@
         <v>0.01903689078403925</v>
       </c>
       <c r="I277">
-        <v>-0.1581868954622394</v>
+        <v>0.06176709619001178</v>
       </c>
       <c r="J277">
         <v>-0.1581868954622394</v>
       </c>
-    </row>
-    <row r="278" spans="1:10">
+      <c r="K277">
+        <v>-0.1581868954622394</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11">
       <c r="A278" s="2">
         <v>43525</v>
       </c>
@@ -9213,7 +10041,7 @@
         <v>26.92000007629395</v>
       </c>
       <c r="F278">
-        <v>25.1488094329834</v>
+        <v>24.96125602722168</v>
       </c>
       <c r="G278">
         <v>2357400</v>
@@ -9222,13 +10050,16 @@
         <v>-0.01391938356726186</v>
       </c>
       <c r="I278">
-        <v>-0.1598002713149775</v>
+        <v>0.06107990498150589</v>
       </c>
       <c r="J278">
         <v>-0.1598002713149775</v>
       </c>
-    </row>
-    <row r="279" spans="1:10">
+      <c r="K278">
+        <v>-0.1598002713149775</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11">
       <c r="A279" s="2">
         <v>43556</v>
       </c>
@@ -9245,7 +10076,7 @@
         <v>28.79999923706055</v>
       </c>
       <c r="F279">
-        <v>26.90511322021484</v>
+        <v>26.70446395874023</v>
       </c>
       <c r="G279">
         <v>5427000</v>
@@ -9254,13 +10085,16 @@
         <v>0.06983652137587293</v>
       </c>
       <c r="I279">
-        <v>-0.1127541574442891</v>
+        <v>0.05982527025862002</v>
       </c>
       <c r="J279">
         <v>-0.1127541574442891</v>
       </c>
-    </row>
-    <row r="280" spans="1:10">
+      <c r="K279">
+        <v>-0.1127541574442891</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11">
       <c r="A280" s="2">
         <v>43586</v>
       </c>
@@ -9277,7 +10111,7 @@
         <v>26.92000007629395</v>
       </c>
       <c r="F280">
-        <v>25.1488094329834</v>
+        <v>24.96125602722168</v>
       </c>
       <c r="G280">
         <v>13075200</v>
@@ -9286,13 +10120,16 @@
         <v>-0.06527775036699901</v>
       </c>
       <c r="I280">
-        <v>-0.1491782365488515</v>
+        <v>0.0592709141404182</v>
       </c>
       <c r="J280">
         <v>-0.1491782365488515</v>
       </c>
-    </row>
-    <row r="281" spans="1:10">
+      <c r="K280">
+        <v>-0.1491782365488515</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11">
       <c r="A281" s="2">
         <v>43617</v>
       </c>
@@ -9309,7 +10146,7 @@
         <v>28.04999923706055</v>
       </c>
       <c r="F281">
-        <v>26.9219913482666</v>
+        <v>26.72121429443359</v>
       </c>
       <c r="G281">
         <v>3002500</v>
@@ -9318,13 +10155,16 @@
         <v>0.04197619456032964</v>
       </c>
       <c r="I281">
-        <v>-0.06437626199616064</v>
+        <v>0.05896522608100033</v>
       </c>
       <c r="J281">
         <v>-0.06437626199616064</v>
       </c>
-    </row>
-    <row r="282" spans="1:10">
+      <c r="K281">
+        <v>-0.06437626199616064</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11">
       <c r="A282" s="2">
         <v>43647</v>
       </c>
@@ -9341,7 +10181,7 @@
         <v>26.81999969482422</v>
       </c>
       <c r="F282">
-        <v>25.74145698547363</v>
+        <v>25.54948234558105</v>
       </c>
       <c r="G282">
         <v>3985900</v>
@@ -9350,13 +10190,16 @@
         <v>-0.04385025225281336</v>
       </c>
       <c r="I282">
-        <v>-0.1434046581828334</v>
+        <v>0.05817993680889481</v>
       </c>
       <c r="J282">
         <v>-0.1434046581828334</v>
       </c>
-    </row>
-    <row r="283" spans="1:10">
+      <c r="K282">
+        <v>-0.1434046581828334</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11">
       <c r="A283" s="2">
         <v>43678</v>
       </c>
@@ -9373,7 +10216,7 @@
         <v>26.25</v>
       </c>
       <c r="F283">
-        <v>25.19437789916992</v>
+        <v>25.0064868927002</v>
       </c>
       <c r="G283">
         <v>3779400</v>
@@ -9382,13 +10225,16 @@
         <v>-0.02125278528374552</v>
       </c>
       <c r="I283">
-        <v>-0.1316572809296808</v>
+        <v>0.05813990135792395</v>
       </c>
       <c r="J283">
         <v>-0.1316572809296808</v>
       </c>
-    </row>
-    <row r="284" spans="1:10">
+      <c r="K283">
+        <v>-0.1316572809296808</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11">
       <c r="A284" s="2">
         <v>43709</v>
       </c>
@@ -9405,7 +10251,7 @@
         <v>26.90999984741211</v>
       </c>
       <c r="F284">
-        <v>25.82783508300781</v>
+        <v>25.63522148132324</v>
       </c>
       <c r="G284">
         <v>1533600</v>
@@ -9414,13 +10260,16 @@
         <v>0.02514285132998517</v>
       </c>
       <c r="I284">
-        <v>-0.09515803448170812</v>
+        <v>0.05793231013759937</v>
       </c>
       <c r="J284">
         <v>-0.09515803448170812</v>
       </c>
-    </row>
-    <row r="285" spans="1:10">
+      <c r="K284">
+        <v>-0.09515803448170812</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11">
       <c r="A285" s="2">
         <v>43739</v>
       </c>
@@ -9437,7 +10286,7 @@
         <v>28.54999923706055</v>
       </c>
       <c r="F285">
-        <v>27.40188407897949</v>
+        <v>27.1975269317627</v>
       </c>
       <c r="G285">
         <v>2897900</v>
@@ -9446,13 +10295,16 @@
         <v>0.0609438646951963</v>
       </c>
       <c r="I285">
-        <v>0.04770639402057042</v>
+        <v>0.05793060472557533</v>
       </c>
       <c r="J285">
         <v>0.04770639402057042</v>
       </c>
-    </row>
-    <row r="286" spans="1:10">
+      <c r="K285">
+        <v>0.04770639402057042</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11">
       <c r="A286" s="2">
         <v>43770</v>
       </c>
@@ -9469,7 +10321,7 @@
         <v>28.94000053405762</v>
       </c>
       <c r="F286">
-        <v>27.77620315551758</v>
+        <v>27.56905364990234</v>
       </c>
       <c r="G286">
         <v>1042800</v>
@@ -9478,13 +10330,16 @@
         <v>0.0136602909779</v>
       </c>
       <c r="I286">
-        <v>0.07824144446836923</v>
+        <v>0.05760668159949903</v>
       </c>
       <c r="J286">
         <v>0.07824144446836923</v>
       </c>
-    </row>
-    <row r="287" spans="1:10">
+      <c r="K286">
+        <v>0.07824144446836923</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11">
       <c r="A287" s="2">
         <v>43800</v>
       </c>
@@ -9501,7 +10356,7 @@
         <v>29.39999961853027</v>
       </c>
       <c r="F287">
-        <v>28.21770286560059</v>
+        <v>28.00726318359375</v>
       </c>
       <c r="G287">
         <v>2062700</v>
@@ -9510,13 +10365,16 @@
         <v>0.01589492315078966</v>
       </c>
       <c r="I287">
-        <v>0.1597632811091003</v>
+        <v>0.05761420885879331</v>
       </c>
       <c r="J287">
         <v>0.1597632811091003</v>
       </c>
-    </row>
-    <row r="288" spans="1:10">
+      <c r="K287">
+        <v>0.1597632811091003</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11">
       <c r="A288" s="2">
         <v>43831</v>
       </c>
@@ -9533,7 +10391,7 @@
         <v>28.53000068664551</v>
       </c>
       <c r="F288">
-        <v>27.3826904296875</v>
+        <v>27.1784782409668</v>
       </c>
       <c r="G288">
         <v>5103000</v>
@@ -9542,13 +10400,16 @@
         <v>-0.02959180078820212</v>
       </c>
       <c r="I288">
-        <v>0.0649495972995533</v>
+        <v>0.05699708549384787</v>
       </c>
       <c r="J288">
         <v>0.0649495972995533</v>
       </c>
-    </row>
-    <row r="289" spans="1:10">
+      <c r="K288">
+        <v>0.0649495972995533</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11">
       <c r="A289" s="2">
         <v>43862</v>
       </c>
@@ -9565,7 +10426,7 @@
         <v>26.21999931335449</v>
       </c>
       <c r="F289">
-        <v>25.16558265686035</v>
+        <v>24.9779052734375</v>
       </c>
       <c r="G289">
         <v>8276300</v>
@@ -9574,13 +10435,16 @@
         <v>-0.0809674489202622</v>
       </c>
       <c r="I289">
-        <v>-0.03956043787136532</v>
+        <v>0.05750409688606718</v>
       </c>
       <c r="J289">
         <v>-0.03956043787136532</v>
       </c>
-    </row>
-    <row r="290" spans="1:10">
+      <c r="K289">
+        <v>-0.03956043787136532</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11">
       <c r="A290" s="2">
         <v>43891</v>
       </c>
@@ -9597,7 +10461,7 @@
         <v>21.47999954223633</v>
       </c>
       <c r="F290">
-        <v>20.61619758605957</v>
+        <v>20.46245002746582</v>
       </c>
       <c r="G290">
         <v>3825600</v>
@@ -9606,13 +10470,16 @@
         <v>-0.1807780280415173</v>
       </c>
       <c r="I290">
-        <v>-0.2020802570074338</v>
+        <v>0.05936910526236764</v>
       </c>
       <c r="J290">
         <v>-0.2020802570074338</v>
       </c>
-    </row>
-    <row r="291" spans="1:10">
+      <c r="K290">
+        <v>-0.2020802570074338</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11">
       <c r="A291" s="2">
         <v>43922</v>
       </c>
@@ -9629,7 +10496,7 @@
         <v>23.57999992370605</v>
       </c>
       <c r="F291">
-        <v>22.63175010681152</v>
+        <v>22.46296691894531</v>
       </c>
       <c r="G291">
         <v>13775900</v>
@@ -9638,13 +10505,16 @@
         <v>0.09776538297128345</v>
       </c>
       <c r="I291">
-        <v>-0.1812499809596269</v>
+        <v>0.05997239388106382</v>
       </c>
       <c r="J291">
         <v>-0.1812499809596269</v>
       </c>
-    </row>
-    <row r="292" spans="1:10">
+      <c r="K291">
+        <v>-0.1812499809596269</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11">
       <c r="A292" s="2">
         <v>43952</v>
       </c>
@@ -9661,7 +10531,7 @@
         <v>25.79000091552734</v>
       </c>
       <c r="F292">
-        <v>24.75287628173828</v>
+        <v>24.56827735900879</v>
       </c>
       <c r="G292">
         <v>9001100</v>
@@ -9670,13 +10540,16 @@
         <v>0.0937235368520708</v>
       </c>
       <c r="I292">
-        <v>-0.04197619456032953</v>
+        <v>0.0597230276370039</v>
       </c>
       <c r="J292">
         <v>-0.04197619456032953</v>
       </c>
-    </row>
-    <row r="293" spans="1:10">
+      <c r="K292">
+        <v>-0.04197619456032953</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11">
       <c r="A293" s="2">
         <v>43983</v>
       </c>
@@ -9693,7 +10566,7 @@
         <v>27.11000061035156</v>
       </c>
       <c r="F293">
-        <v>26.29430770874023</v>
+        <v>26.09821128845215</v>
       </c>
       <c r="G293">
         <v>5985900</v>
@@ -9702,13 +10575,16 @@
         <v>0.05118261527588741</v>
       </c>
       <c r="I293">
-        <v>-0.03351153840557075</v>
+        <v>0.05982225123069147</v>
       </c>
       <c r="J293">
         <v>-0.03351153840557075</v>
       </c>
-    </row>
-    <row r="294" spans="1:10">
+      <c r="K293">
+        <v>-0.03351153840557075</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11">
       <c r="A294" s="2">
         <v>44013</v>
       </c>
@@ -9725,7 +10601,7 @@
         <v>28.25</v>
       </c>
       <c r="F294">
-        <v>27.40000534057617</v>
+        <v>27.19566535949707</v>
       </c>
       <c r="G294">
         <v>7911900</v>
@@ -9734,13 +10610,16 @@
         <v>0.04205088026494352</v>
       </c>
       <c r="I294">
-        <v>0.05331843107558809</v>
+        <v>0.05915906932010753</v>
       </c>
       <c r="J294">
         <v>0.05331843107558809</v>
       </c>
-    </row>
-    <row r="295" spans="1:10">
+      <c r="K294">
+        <v>0.05331843107558809</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11">
       <c r="A295" s="2">
         <v>44044</v>
       </c>
@@ -9757,7 +10636,7 @@
         <v>30.10000038146973</v>
       </c>
       <c r="F295">
-        <v>29.1943416595459</v>
+        <v>28.97661781311035</v>
       </c>
       <c r="G295">
         <v>5092300</v>
@@ -9766,13 +10645,16 @@
         <v>0.06548673916706993</v>
       </c>
       <c r="I295">
-        <v>0.1466666811988466</v>
+        <v>0.05903227711432545</v>
       </c>
       <c r="J295">
         <v>0.1466666811988466</v>
       </c>
-    </row>
-    <row r="296" spans="1:10">
+      <c r="K295">
+        <v>0.1466666811988466</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11">
       <c r="A296" s="2">
         <v>44075</v>
       </c>
@@ -9789,7 +10671,7 @@
         <v>29.1299991607666</v>
       </c>
       <c r="F296">
-        <v>28.2535285949707</v>
+        <v>28.04281997680664</v>
       </c>
       <c r="G296">
         <v>10374700</v>
@@ -9798,13 +10680,16 @@
         <v>-0.03222595376777071</v>
       </c>
       <c r="I296">
-        <v>0.08249718788340998</v>
+        <v>0.05782857715132794</v>
       </c>
       <c r="J296">
         <v>0.08249718788340998</v>
       </c>
-    </row>
-    <row r="297" spans="1:10">
+      <c r="K296">
+        <v>0.08249718788340998</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11">
       <c r="A297" s="2">
         <v>44105</v>
       </c>
@@ -9821,7 +10706,7 @@
         <v>26.28000068664551</v>
       </c>
       <c r="F297">
-        <v>25.48928070068359</v>
+        <v>25.2991886138916</v>
       </c>
       <c r="G297">
         <v>9037800</v>
@@ -9830,13 +10715,16 @@
         <v>-0.09783723159043478</v>
       </c>
       <c r="I297">
-        <v>-0.07950958357534277</v>
+        <v>0.0581068867439447</v>
       </c>
       <c r="J297">
         <v>-0.07950958357534277</v>
       </c>
-    </row>
-    <row r="298" spans="1:10">
+      <c r="K297">
+        <v>-0.07950958357534277</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11">
       <c r="A298" s="2">
         <v>44136</v>
       </c>
@@ -9853,7 +10741,7 @@
         <v>30.55999946594238</v>
       </c>
       <c r="F298">
-        <v>29.6405029296875</v>
+        <v>29.4194507598877</v>
       </c>
       <c r="G298">
         <v>5362000</v>
@@ -9862,13 +10750,16 @@
         <v>0.1628614409234703</v>
       </c>
       <c r="I298">
-        <v>0.05597784733895539</v>
+        <v>0.05968047651656373</v>
       </c>
       <c r="J298">
         <v>0.05597784733895539</v>
       </c>
-    </row>
-    <row r="299" spans="1:10">
+      <c r="K298">
+        <v>0.05597784733895539</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11">
       <c r="A299" s="2">
         <v>44166</v>
       </c>
@@ -9885,7 +10776,7 @@
         <v>31.77000045776367</v>
       </c>
       <c r="F299">
-        <v>31.20491218566895</v>
+        <v>30.97219467163086</v>
       </c>
       <c r="G299">
         <v>2926200</v>
@@ -9894,13 +10785,16 @@
         <v>0.03959427398451942</v>
       </c>
       <c r="I299">
-        <v>0.08061227448927011</v>
+        <v>0.05952863402347989</v>
       </c>
       <c r="J299">
         <v>0.08061227448927011</v>
       </c>
-    </row>
-    <row r="300" spans="1:10">
+      <c r="K299">
+        <v>0.08061227448927011</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11">
       <c r="A300" s="2">
         <v>44197</v>
       </c>
@@ -9917,7 +10811,7 @@
         <v>31.45999908447266</v>
       </c>
       <c r="F300">
-        <v>30.90042495727539</v>
+        <v>30.66997909545898</v>
       </c>
       <c r="G300">
         <v>3305800</v>
@@ -9926,13 +10820,16 @@
         <v>-0.009757676072530863</v>
       </c>
       <c r="I300">
-        <v>0.1026988547952836</v>
+        <v>0.05938241974432471</v>
       </c>
       <c r="J300">
         <v>0.1026988547952836</v>
       </c>
-    </row>
-    <row r="301" spans="1:10">
+      <c r="K300">
+        <v>0.1026988547952836</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11">
       <c r="A301" s="2">
         <v>44228</v>
       </c>
@@ -9949,7 +10846,7 @@
         <v>32.0099983215332</v>
       </c>
       <c r="F301">
-        <v>31.44064140319824</v>
+        <v>31.20616722106934</v>
       </c>
       <c r="G301">
         <v>6199600</v>
@@ -9958,13 +10855,16 @@
         <v>0.01748249374018584</v>
       </c>
       <c r="I301">
-        <v>0.2208237665830037</v>
+        <v>0.05933491300242542</v>
       </c>
       <c r="J301">
         <v>0.2208237665830037</v>
       </c>
-    </row>
-    <row r="302" spans="1:10">
+      <c r="K301">
+        <v>0.2208237665830037</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11">
       <c r="A302" s="2">
         <v>44256</v>
       </c>
@@ -9981,7 +10881,7 @@
         <v>33.43999862670898</v>
       </c>
       <c r="F302">
-        <v>32.84520721435547</v>
+        <v>32.60025787353516</v>
       </c>
       <c r="G302">
         <v>2582500</v>
@@ -9990,13 +10890,16 @@
         <v>0.04467355139515328</v>
       </c>
       <c r="I302">
-        <v>0.556796989727844</v>
+        <v>0.05945144604103682</v>
       </c>
       <c r="J302">
         <v>0.556796989727844</v>
       </c>
-    </row>
-    <row r="303" spans="1:10">
+      <c r="K302">
+        <v>0.556796989727844</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11">
       <c r="A303" s="2">
         <v>44287</v>
       </c>
@@ -10013,7 +10916,7 @@
         <v>34.61999893188477</v>
       </c>
       <c r="F303">
-        <v>34.00421905517578</v>
+        <v>33.75062561035156</v>
       </c>
       <c r="G303">
         <v>4867400</v>
@@ -10022,13 +10925,16 @@
         <v>0.03528709191492907</v>
       </c>
       <c r="I303">
-        <v>0.4681933436768035</v>
+        <v>0.05873194786550804</v>
       </c>
       <c r="J303">
         <v>0.4681933436768035</v>
       </c>
-    </row>
-    <row r="304" spans="1:10">
+      <c r="K303">
+        <v>0.4681933436768035</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11">
       <c r="A304" s="2">
         <v>44317</v>
       </c>
@@ -10045,7 +10951,7 @@
         <v>35.77999877929688</v>
       </c>
       <c r="F304">
-        <v>35.14358520507812</v>
+        <v>34.88149642944336</v>
       </c>
       <c r="G304">
         <v>2954100</v>
@@ -10054,13 +10960,16 @@
         <v>0.03350664018489491</v>
       </c>
       <c r="I304">
-        <v>0.3873593450613206</v>
+        <v>0.05853532289005924</v>
       </c>
       <c r="J304">
         <v>0.3873593450613206</v>
       </c>
-    </row>
-    <row r="305" spans="1:10">
+      <c r="K304">
+        <v>0.3873593450613206</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11">
       <c r="A305" s="2">
         <v>44348</v>
       </c>
@@ -10077,7 +10986,7 @@
         <v>34.59999847412109</v>
       </c>
       <c r="F305">
-        <v>34.56188201904297</v>
+        <v>34.30413055419922</v>
       </c>
       <c r="G305">
         <v>2971100</v>
@@ -10086,13 +10995,16 @@
         <v>-0.03297932770916012</v>
       </c>
       <c r="I305">
-        <v>0.2762817298096845</v>
+        <v>0.05861996205635596</v>
       </c>
       <c r="J305">
         <v>0.2762817298096845</v>
       </c>
-    </row>
-    <row r="306" spans="1:10">
+      <c r="K305">
+        <v>0.2762817298096845</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11">
       <c r="A306" s="2">
         <v>44378</v>
       </c>
@@ -10109,7 +11021,7 @@
         <v>34.52000045776367</v>
       </c>
       <c r="F306">
-        <v>34.48197174072266</v>
+        <v>34.22481536865234</v>
       </c>
       <c r="G306">
         <v>1928800</v>
@@ -10118,13 +11030,16 @@
         <v>-0.002312081499577401</v>
       </c>
       <c r="I306">
-        <v>0.221946918858891</v>
+        <v>0.05846076938661888</v>
       </c>
       <c r="J306">
         <v>0.221946918858891</v>
       </c>
-    </row>
-    <row r="307" spans="1:10">
+      <c r="K306">
+        <v>0.221946918858891</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11">
       <c r="A307" s="2">
         <v>44409</v>
       </c>
@@ -10141,7 +11056,7 @@
         <v>34.95000076293945</v>
       </c>
       <c r="F307">
-        <v>34.9114990234375</v>
+        <v>34.65113830566406</v>
       </c>
       <c r="G307">
         <v>2682500</v>
@@ -10150,13 +11065,16 @@
         <v>0.01245655560468206</v>
       </c>
       <c r="I307">
-        <v>0.1611295787376634</v>
+        <v>0.05576315296555426</v>
       </c>
       <c r="J307">
         <v>0.1611295787376634</v>
       </c>
-    </row>
-    <row r="308" spans="1:10">
+      <c r="K307">
+        <v>0.1611295787376634</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11">
       <c r="A308" s="2">
         <v>44440</v>
       </c>
@@ -10173,7 +11091,7 @@
         <v>32.91999816894531</v>
       </c>
       <c r="F308">
-        <v>32.88373184204102</v>
+        <v>32.63849258422852</v>
       </c>
       <c r="G308">
         <v>4372200</v>
@@ -10182,13 +11100,16 @@
         <v>-0.05808304863176794</v>
       </c>
       <c r="I308">
-        <v>0.1301063891990504</v>
+        <v>0.05473554339928353</v>
       </c>
       <c r="J308">
         <v>0.1301063891990504</v>
       </c>
-    </row>
-    <row r="309" spans="1:10">
+      <c r="K308">
+        <v>0.1301063891990504</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11">
       <c r="A309" s="2">
         <v>44470</v>
       </c>
@@ -10205,7 +11126,7 @@
         <v>33.77000045776367</v>
       </c>
       <c r="F309">
-        <v>33.7327995300293</v>
+        <v>33.48123168945312</v>
       </c>
       <c r="G309">
         <v>4095000</v>
@@ -10214,13 +11135,16 @@
         <v>0.02582024107219416</v>
       </c>
       <c r="I309">
-        <v>0.2850075941940251</v>
+        <v>0.05290254547717432</v>
       </c>
       <c r="J309">
         <v>0.2850075941940251</v>
       </c>
-    </row>
-    <row r="310" spans="1:10">
+      <c r="K309">
+        <v>0.2850075941940251</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11">
       <c r="A310" s="2">
         <v>44501</v>
       </c>
@@ -10237,7 +11161,7 @@
         <v>31.80999946594238</v>
       </c>
       <c r="F310">
-        <v>31.77495765686035</v>
+        <v>31.53798866271973</v>
       </c>
       <c r="G310">
         <v>5715400</v>
@@ -10246,42 +11170,83 @@
         <v>-0.05803970877266273</v>
       </c>
       <c r="I310">
-        <v>0.04090314207606793</v>
+        <v>0.05313767675090038</v>
       </c>
       <c r="J310">
         <v>0.04090314207606793</v>
       </c>
-    </row>
-    <row r="311" spans="1:10">
+      <c r="K310">
+        <v>0.04090314207606793</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11">
       <c r="A311" s="2">
         <v>44531</v>
       </c>
       <c r="B311">
-        <v>32.88000106811523</v>
+        <v>32.81999969482422</v>
       </c>
       <c r="C311">
-        <v>32.97499847412109</v>
+        <v>32.9900016784668</v>
       </c>
       <c r="D311">
-        <v>32.79000091552734</v>
+        <v>32.72999954223633</v>
       </c>
       <c r="E311">
-        <v>32.83209991455078</v>
+        <v>32.77999877929688</v>
       </c>
       <c r="F311">
-        <v>32.83209991455078</v>
+        <v>32.77999877929688</v>
       </c>
       <c r="G311">
-        <v>1557649</v>
+        <v>2738600</v>
       </c>
       <c r="H311">
-        <v>0.03213141986068613</v>
+        <v>0.03049353441181379</v>
       </c>
       <c r="I311">
-        <v>0.03343089208321248</v>
+        <v>0.05275542668921523</v>
       </c>
       <c r="J311">
-        <v>0.03343089208321248</v>
+        <v>0.03179094450678188</v>
+      </c>
+      <c r="K311">
+        <v>0.03179094450678188</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11">
+      <c r="A312" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B312">
+        <v>33.11999893188477</v>
+      </c>
+      <c r="C312">
+        <v>33.18000030517578</v>
+      </c>
+      <c r="D312">
+        <v>33</v>
+      </c>
+      <c r="E312">
+        <v>33.11000061035156</v>
+      </c>
+      <c r="F312">
+        <v>33.11000061035156</v>
+      </c>
+      <c r="G312">
+        <v>1319164</v>
+      </c>
+      <c r="H312">
+        <v>0.01006717032775217</v>
+      </c>
+      <c r="I312">
+        <v>0.05188275342793143</v>
+      </c>
+      <c r="J312">
+        <v>0.05244760247603697</v>
+      </c>
+      <c r="K312">
+        <v>0.05244760247603697</v>
       </c>
     </row>
   </sheetData>

--- a/etf_dfs/EWG.xlsx
+++ b/etf_dfs/EWG.xlsx
@@ -508,7 +508,7 @@
         <v>13.5</v>
       </c>
       <c r="F2" t="n">
-        <v>7.422338008880615</v>
+        <v>7.422337532043457</v>
       </c>
       <c r="G2" t="n">
         <v>300100</v>
@@ -535,7 +535,7 @@
         <v>12.875</v>
       </c>
       <c r="F3" t="n">
-        <v>7.07871150970459</v>
+        <v>7.078711986541748</v>
       </c>
       <c r="G3" t="n">
         <v>1000</v>
@@ -564,7 +564,7 @@
         <v>13.1875</v>
       </c>
       <c r="F4" t="n">
-        <v>7.250523567199707</v>
+        <v>7.250526428222656</v>
       </c>
       <c r="G4" t="n">
         <v>400</v>
@@ -626,7 +626,7 @@
         <v>13.75</v>
       </c>
       <c r="F6" t="n">
-        <v>7.559791564941406</v>
+        <v>7.559789657592773</v>
       </c>
       <c r="G6" t="n">
         <v>12000</v>
@@ -657,7 +657,7 @@
         <v>13.5625</v>
       </c>
       <c r="F7" t="n">
-        <v>7.520916938781738</v>
+        <v>7.520917415618896</v>
       </c>
       <c r="G7" t="n">
         <v>10200</v>
@@ -688,7 +688,7 @@
         <v>13.8125</v>
       </c>
       <c r="F8" t="n">
-        <v>7.659549713134766</v>
+        <v>7.659550666809082</v>
       </c>
       <c r="G8" t="n">
         <v>14900</v>
@@ -719,7 +719,7 @@
         <v>13.875</v>
       </c>
       <c r="F9" t="n">
-        <v>7.694208145141602</v>
+        <v>7.694210052490234</v>
       </c>
       <c r="G9" t="n">
         <v>6000</v>
@@ -750,7 +750,7 @@
         <v>14.375</v>
       </c>
       <c r="F10" t="n">
-        <v>7.971477031707764</v>
+        <v>7.971480369567871</v>
       </c>
       <c r="G10" t="n">
         <v>700</v>
@@ -781,7 +781,7 @@
         <v>14.375</v>
       </c>
       <c r="F11" t="n">
-        <v>7.971477031707764</v>
+        <v>7.971480369567871</v>
       </c>
       <c r="G11" t="n">
         <v>7500</v>
@@ -812,7 +812,7 @@
         <v>14.375</v>
       </c>
       <c r="F12" t="n">
-        <v>7.971477031707764</v>
+        <v>7.971480369567871</v>
       </c>
       <c r="G12" t="n">
         <v>36900</v>
@@ -843,7 +843,7 @@
         <v>14.875</v>
       </c>
       <c r="F13" t="n">
-        <v>8.248746871948242</v>
+        <v>8.248745918273926</v>
       </c>
       <c r="G13" t="n">
         <v>11700</v>
@@ -874,7 +874,7 @@
         <v>15.4375</v>
       </c>
       <c r="F14" t="n">
-        <v>8.560675621032715</v>
+        <v>8.560673713684082</v>
       </c>
       <c r="G14" t="n">
         <v>91600</v>
@@ -909,7 +909,7 @@
         <v>15.125</v>
       </c>
       <c r="F15" t="n">
-        <v>8.387378692626953</v>
+        <v>8.387381553649902</v>
       </c>
       <c r="G15" t="n">
         <v>10100</v>
@@ -979,7 +979,7 @@
         <v>16.5625</v>
       </c>
       <c r="F17" t="n">
-        <v>9.184529304504395</v>
+        <v>9.184531211853027</v>
       </c>
       <c r="G17" t="n">
         <v>30400</v>
@@ -1014,7 +1014,7 @@
         <v>18.3125</v>
       </c>
       <c r="F18" t="n">
-        <v>10.15497207641602</v>
+        <v>10.1549654006958</v>
       </c>
       <c r="G18" t="n">
         <v>12300</v>
@@ -1049,7 +1049,7 @@
         <v>16.1875</v>
       </c>
       <c r="F19" t="n">
-        <v>9.046287536621094</v>
+        <v>9.046285629272461</v>
       </c>
       <c r="G19" t="n">
         <v>5800</v>
@@ -1119,7 +1119,7 @@
         <v>16.625</v>
       </c>
       <c r="F21" t="n">
-        <v>9.290780067443848</v>
+        <v>9.290781021118164</v>
       </c>
       <c r="G21" t="n">
         <v>42800</v>
@@ -1154,7 +1154,7 @@
         <v>16.875</v>
       </c>
       <c r="F22" t="n">
-        <v>9.430488586425781</v>
+        <v>9.43049144744873</v>
       </c>
       <c r="G22" t="n">
         <v>1200</v>
@@ -1189,7 +1189,7 @@
         <v>17.625</v>
       </c>
       <c r="F23" t="n">
-        <v>9.866847038269043</v>
+        <v>9.86684513092041</v>
       </c>
       <c r="G23" t="n">
         <v>52000</v>
@@ -1224,7 +1224,7 @@
         <v>18</v>
       </c>
       <c r="F24" t="n">
-        <v>10.07678127288818</v>
+        <v>10.0767765045166</v>
       </c>
       <c r="G24" t="n">
         <v>19000</v>
@@ -1259,7 +1259,7 @@
         <v>19.1875</v>
       </c>
       <c r="F25" t="n">
-        <v>10.74156665802002</v>
+        <v>10.7415714263916</v>
       </c>
       <c r="G25" t="n">
         <v>7300</v>
@@ -1294,7 +1294,7 @@
         <v>20.5</v>
       </c>
       <c r="F26" t="n">
-        <v>11.4763355255127</v>
+        <v>11.47633171081543</v>
       </c>
       <c r="G26" t="n">
         <v>20700</v>
@@ -1364,7 +1364,7 @@
         <v>23.1875</v>
       </c>
       <c r="F28" t="n">
-        <v>12.98085021972656</v>
+        <v>12.9808521270752</v>
       </c>
       <c r="G28" t="n">
         <v>19700</v>
@@ -1399,7 +1399,7 @@
         <v>23.9375</v>
       </c>
       <c r="F29" t="n">
-        <v>13.40071964263916</v>
+        <v>13.40071678161621</v>
       </c>
       <c r="G29" t="n">
         <v>12500</v>
@@ -1434,7 +1434,7 @@
         <v>24.5</v>
       </c>
       <c r="F30" t="n">
-        <v>13.71561717987061</v>
+        <v>13.71561908721924</v>
       </c>
       <c r="G30" t="n">
         <v>22700</v>
@@ -1469,7 +1469,7 @@
         <v>19.4375</v>
       </c>
       <c r="F31" t="n">
-        <v>11.02024364471436</v>
+        <v>11.02024459838867</v>
       </c>
       <c r="G31" t="n">
         <v>102300</v>
@@ -1539,7 +1539,7 @@
         <v>20.75</v>
       </c>
       <c r="F33" t="n">
-        <v>11.76437854766846</v>
+        <v>11.76437759399414</v>
       </c>
       <c r="G33" t="n">
         <v>15600</v>
@@ -1574,7 +1574,7 @@
         <v>21.5625</v>
       </c>
       <c r="F34" t="n">
-        <v>12.22503089904785</v>
+        <v>12.22503471374512</v>
       </c>
       <c r="G34" t="n">
         <v>57000</v>
@@ -1644,7 +1644,7 @@
         <v>22.625</v>
       </c>
       <c r="F36" t="n">
-        <v>12.85112285614014</v>
+        <v>12.85112476348877</v>
       </c>
       <c r="G36" t="n">
         <v>12000</v>
@@ -1679,7 +1679,7 @@
         <v>20.5625</v>
       </c>
       <c r="F37" t="n">
-        <v>11.67961120605469</v>
+        <v>11.67961406707764</v>
       </c>
       <c r="G37" t="n">
         <v>5100</v>
@@ -1714,7 +1714,7 @@
         <v>19.875</v>
       </c>
       <c r="F38" t="n">
-        <v>11.28911113739014</v>
+        <v>11.28911209106445</v>
       </c>
       <c r="G38" t="n">
         <v>37000</v>
@@ -1749,7 +1749,7 @@
         <v>21.25</v>
       </c>
       <c r="F39" t="n">
-        <v>12.07011604309082</v>
+        <v>12.07011795043945</v>
       </c>
       <c r="G39" t="n">
         <v>36500</v>
@@ -1784,7 +1784,7 @@
         <v>20.125</v>
       </c>
       <c r="F40" t="n">
-        <v>11.43111228942871</v>
+        <v>11.43111133575439</v>
       </c>
       <c r="G40" t="n">
         <v>4400</v>
@@ -1819,7 +1819,7 @@
         <v>21.8125</v>
       </c>
       <c r="F41" t="n">
-        <v>12.38962078094482</v>
+        <v>12.38962173461914</v>
       </c>
       <c r="G41" t="n">
         <v>82900</v>
@@ -1854,7 +1854,7 @@
         <v>20.8125</v>
       </c>
       <c r="F42" t="n">
-        <v>11.82161617279053</v>
+        <v>11.82161521911621</v>
       </c>
       <c r="G42" t="n">
         <v>71300</v>
@@ -1924,7 +1924,7 @@
         <v>20.9375</v>
       </c>
       <c r="F44" t="n">
-        <v>12.15318298339844</v>
+        <v>12.15318012237549</v>
       </c>
       <c r="G44" t="n">
         <v>24000</v>
@@ -1959,7 +1959,7 @@
         <v>22</v>
       </c>
       <c r="F45" t="n">
-        <v>12.76990985870361</v>
+        <v>12.76990509033203</v>
       </c>
       <c r="G45" t="n">
         <v>26900</v>
@@ -1994,7 +1994,7 @@
         <v>22.3125</v>
       </c>
       <c r="F46" t="n">
-        <v>12.95129871368408</v>
+        <v>12.95129776000977</v>
       </c>
       <c r="G46" t="n">
         <v>26200</v>
@@ -2029,7 +2029,7 @@
         <v>26.6875</v>
       </c>
       <c r="F47" t="n">
-        <v>15.4907693862915</v>
+        <v>15.49077224731445</v>
       </c>
       <c r="G47" t="n">
         <v>36600</v>
@@ -2064,7 +2064,7 @@
         <v>25.1875</v>
       </c>
       <c r="F48" t="n">
-        <v>14.62009811401367</v>
+        <v>14.62009429931641</v>
       </c>
       <c r="G48" t="n">
         <v>45700</v>
@@ -2204,7 +2204,7 @@
         <v>24.75</v>
       </c>
       <c r="F52" t="n">
-        <v>14.36614799499512</v>
+        <v>14.36614990234375</v>
       </c>
       <c r="G52" t="n">
         <v>178400</v>
@@ -2274,7 +2274,7 @@
         <v>24.1875</v>
       </c>
       <c r="F54" t="n">
-        <v>14.03964519500732</v>
+        <v>14.03964614868164</v>
       </c>
       <c r="G54" t="n">
         <v>32500</v>
@@ -2309,7 +2309,7 @@
         <v>20.5625</v>
       </c>
       <c r="F55" t="n">
-        <v>13.39859390258789</v>
+        <v>13.39859485626221</v>
       </c>
       <c r="G55" t="n">
         <v>49200</v>
@@ -2344,7 +2344,7 @@
         <v>19.3125</v>
       </c>
       <c r="F56" t="n">
-        <v>12.58409023284912</v>
+        <v>12.58409214019775</v>
       </c>
       <c r="G56" t="n">
         <v>79600</v>
@@ -2379,7 +2379,7 @@
         <v>19.5</v>
       </c>
       <c r="F57" t="n">
-        <v>12.70626544952393</v>
+        <v>12.70626831054688</v>
       </c>
       <c r="G57" t="n">
         <v>52800</v>
@@ -2449,7 +2449,7 @@
         <v>19.5</v>
       </c>
       <c r="F59" t="n">
-        <v>12.70626544952393</v>
+        <v>12.70626831054688</v>
       </c>
       <c r="G59" t="n">
         <v>79200</v>
@@ -2519,7 +2519,7 @@
         <v>18.64999961853027</v>
       </c>
       <c r="F61" t="n">
-        <v>12.15240573883057</v>
+        <v>12.15240287780762</v>
       </c>
       <c r="G61" t="n">
         <v>129000</v>
@@ -2554,7 +2554,7 @@
         <v>16.70000076293945</v>
       </c>
       <c r="F62" t="n">
-        <v>10.88177680969238</v>
+        <v>10.8817777633667</v>
       </c>
       <c r="G62" t="n">
         <v>128500</v>
@@ -2589,7 +2589,7 @@
         <v>17.65999984741211</v>
       </c>
       <c r="F63" t="n">
-        <v>11.50731754302979</v>
+        <v>11.50731563568115</v>
       </c>
       <c r="G63" t="n">
         <v>46100</v>
@@ -2624,7 +2624,7 @@
         <v>16.70000076293945</v>
       </c>
       <c r="F64" t="n">
-        <v>10.88177680969238</v>
+        <v>10.8817777633667</v>
       </c>
       <c r="G64" t="n">
         <v>19300</v>
@@ -2694,7 +2694,7 @@
         <v>16.44000053405762</v>
       </c>
       <c r="F66" t="n">
-        <v>10.71236038208008</v>
+        <v>10.71235847473145</v>
       </c>
       <c r="G66" t="n">
         <v>63500</v>
@@ -2729,7 +2729,7 @@
         <v>15.25</v>
       </c>
       <c r="F67" t="n">
-        <v>10.05874061584473</v>
+        <v>10.05873775482178</v>
       </c>
       <c r="G67" t="n">
         <v>60000</v>
@@ -2764,7 +2764,7 @@
         <v>12.4399995803833</v>
       </c>
       <c r="F68" t="n">
-        <v>8.205290794372559</v>
+        <v>8.205292701721191</v>
       </c>
       <c r="G68" t="n">
         <v>88200</v>
@@ -2799,7 +2799,7 @@
         <v>13.14999961853027</v>
       </c>
       <c r="F69" t="n">
-        <v>8.673601150512695</v>
+        <v>8.673600196838379</v>
       </c>
       <c r="G69" t="n">
         <v>147100</v>
@@ -2834,7 +2834,7 @@
         <v>14.51000022888184</v>
       </c>
       <c r="F70" t="n">
-        <v>9.570643424987793</v>
+        <v>9.57064151763916</v>
       </c>
       <c r="G70" t="n">
         <v>20300</v>
@@ -2869,7 +2869,7 @@
         <v>15.10000038146973</v>
       </c>
       <c r="F71" t="n">
-        <v>9.959800720214844</v>
+        <v>9.959803581237793</v>
       </c>
       <c r="G71" t="n">
         <v>38100</v>
@@ -2904,7 +2904,7 @@
         <v>14.40999984741211</v>
       </c>
       <c r="F72" t="n">
-        <v>9.504682540893555</v>
+        <v>9.504683494567871</v>
       </c>
       <c r="G72" t="n">
         <v>208800</v>
@@ -2939,7 +2939,7 @@
         <v>14.26000022888184</v>
       </c>
       <c r="F73" t="n">
-        <v>9.405747413635254</v>
+        <v>9.405746459960938</v>
       </c>
       <c r="G73" t="n">
         <v>42000</v>
@@ -2974,7 +2974,7 @@
         <v>15.34000015258789</v>
       </c>
       <c r="F74" t="n">
-        <v>10.11810398101807</v>
+        <v>10.11810302734375</v>
       </c>
       <c r="G74" t="n">
         <v>13900</v>
@@ -3009,7 +3009,7 @@
         <v>14.89000034332275</v>
       </c>
       <c r="F75" t="n">
-        <v>9.821287155151367</v>
+        <v>9.821288108825684</v>
       </c>
       <c r="G75" t="n">
         <v>57600</v>
@@ -3044,7 +3044,7 @@
         <v>14.68000030517578</v>
       </c>
       <c r="F76" t="n">
-        <v>9.682773590087891</v>
+        <v>9.68277645111084</v>
       </c>
       <c r="G76" t="n">
         <v>63500</v>
@@ -3079,7 +3079,7 @@
         <v>14.53999996185303</v>
       </c>
       <c r="F77" t="n">
-        <v>9.59043025970459</v>
+        <v>9.590429306030273</v>
       </c>
       <c r="G77" t="n">
         <v>58900</v>
@@ -3114,7 +3114,7 @@
         <v>12.17000007629395</v>
       </c>
       <c r="F78" t="n">
-        <v>8.027202606201172</v>
+        <v>8.027203559875488</v>
       </c>
       <c r="G78" t="n">
         <v>148300</v>
@@ -3219,7 +3219,7 @@
         <v>10.42000007629395</v>
       </c>
       <c r="F81" t="n">
-        <v>6.872923374176025</v>
+        <v>6.872921943664551</v>
       </c>
       <c r="G81" t="n">
         <v>221700</v>
@@ -3254,7 +3254,7 @@
         <v>11.07999992370605</v>
       </c>
       <c r="F82" t="n">
-        <v>7.308249950408936</v>
+        <v>7.308252334594727</v>
       </c>
       <c r="G82" t="n">
         <v>17300</v>
@@ -3289,7 +3289,7 @@
         <v>9.840000152587891</v>
       </c>
       <c r="F83" t="n">
-        <v>6.567399978637695</v>
+        <v>6.567401885986328</v>
       </c>
       <c r="G83" t="n">
         <v>118900</v>
@@ -3324,7 +3324,7 @@
         <v>9.819999694824219</v>
       </c>
       <c r="F84" t="n">
-        <v>6.554052352905273</v>
+        <v>6.55405330657959</v>
       </c>
       <c r="G84" t="n">
         <v>36200</v>
@@ -3359,7 +3359,7 @@
         <v>9.109999656677246</v>
       </c>
       <c r="F85" t="n">
-        <v>6.080186367034912</v>
+        <v>6.080184459686279</v>
       </c>
       <c r="G85" t="n">
         <v>230800</v>
@@ -3394,7 +3394,7 @@
         <v>8.689999580383301</v>
       </c>
       <c r="F86" t="n">
-        <v>5.799868583679199</v>
+        <v>5.799869537353516</v>
       </c>
       <c r="G86" t="n">
         <v>149400</v>
@@ -3429,7 +3429,7 @@
         <v>10.84000015258789</v>
       </c>
       <c r="F87" t="n">
-        <v>7.234822273254395</v>
+        <v>7.234818458557129</v>
       </c>
       <c r="G87" t="n">
         <v>153500</v>
@@ -3464,7 +3464,7 @@
         <v>11.47000026702881</v>
       </c>
       <c r="F88" t="n">
-        <v>7.655293464660645</v>
+        <v>7.655294418334961</v>
       </c>
       <c r="G88" t="n">
         <v>113800</v>
@@ -3499,7 +3499,7 @@
         <v>12.19999980926514</v>
       </c>
       <c r="F89" t="n">
-        <v>8.142511367797852</v>
+        <v>8.142510414123535</v>
       </c>
       <c r="G89" t="n">
         <v>42500</v>
@@ -3534,7 +3534,7 @@
         <v>12.69999980926514</v>
       </c>
       <c r="F90" t="n">
-        <v>8.476218223571777</v>
+        <v>8.47622013092041</v>
       </c>
       <c r="G90" t="n">
         <v>5100</v>
@@ -3569,7 +3569,7 @@
         <v>12.55000019073486</v>
       </c>
       <c r="F91" t="n">
-        <v>8.376107215881348</v>
+        <v>8.376105308532715</v>
       </c>
       <c r="G91" t="n">
         <v>44800</v>
@@ -3604,7 +3604,7 @@
         <v>12.46000003814697</v>
       </c>
       <c r="F92" t="n">
-        <v>8.316039085388184</v>
+        <v>8.316038131713867</v>
       </c>
       <c r="G92" t="n">
         <v>94200</v>
@@ -3639,7 +3639,7 @@
         <v>13.89000034332275</v>
       </c>
       <c r="F93" t="n">
-        <v>9.270448684692383</v>
+        <v>9.270445823669434</v>
       </c>
       <c r="G93" t="n">
         <v>53700</v>
@@ -3674,7 +3674,7 @@
         <v>14.80000019073486</v>
       </c>
       <c r="F94" t="n">
-        <v>9.877799987792969</v>
+        <v>9.877798080444336</v>
       </c>
       <c r="G94" t="n">
         <v>24400</v>
@@ -3709,7 +3709,7 @@
         <v>16.19000053405762</v>
       </c>
       <c r="F95" t="n">
-        <v>10.94474411010742</v>
+        <v>10.94474601745605</v>
       </c>
       <c r="G95" t="n">
         <v>96600</v>
@@ -3779,7 +3779,7 @@
         <v>16.21999931335449</v>
       </c>
       <c r="F97" t="n">
-        <v>10.96502685546875</v>
+        <v>10.96502494812012</v>
       </c>
       <c r="G97" t="n">
         <v>139200</v>
@@ -3814,7 +3814,7 @@
         <v>15.5600004196167</v>
       </c>
       <c r="F98" t="n">
-        <v>10.51885414123535</v>
+        <v>10.51885318756104</v>
       </c>
       <c r="G98" t="n">
         <v>72700</v>
@@ -3849,7 +3849,7 @@
         <v>15.40999984741211</v>
       </c>
       <c r="F99" t="n">
-        <v>10.41745185852051</v>
+        <v>10.41745090484619</v>
       </c>
       <c r="G99" t="n">
         <v>48300</v>
@@ -3884,7 +3884,7 @@
         <v>15.5600004196167</v>
       </c>
       <c r="F100" t="n">
-        <v>10.51885414123535</v>
+        <v>10.51885318756104</v>
       </c>
       <c r="G100" t="n">
         <v>15300</v>
@@ -3919,7 +3919,7 @@
         <v>16.14999961853027</v>
       </c>
       <c r="F101" t="n">
-        <v>10.91770458221436</v>
+        <v>10.91770362854004</v>
       </c>
       <c r="G101" t="n">
         <v>207400</v>
@@ -3989,7 +3989,7 @@
         <v>15</v>
       </c>
       <c r="F103" t="n">
-        <v>10.14028263092041</v>
+        <v>10.14028167724609</v>
       </c>
       <c r="G103" t="n">
         <v>89000</v>
@@ -4024,7 +4024,7 @@
         <v>15.77000045776367</v>
       </c>
       <c r="F104" t="n">
-        <v>10.66081809997559</v>
+        <v>10.66081714630127</v>
       </c>
       <c r="G104" t="n">
         <v>65500</v>
@@ -4094,7 +4094,7 @@
         <v>17.77000045776367</v>
       </c>
       <c r="F106" t="n">
-        <v>12.01285648345947</v>
+        <v>12.01285362243652</v>
       </c>
       <c r="G106" t="n">
         <v>200500</v>
@@ -4129,7 +4129,7 @@
         <v>18.6299991607666</v>
       </c>
       <c r="F107" t="n">
-        <v>12.72762393951416</v>
+        <v>12.72762775421143</v>
       </c>
       <c r="G107" t="n">
         <v>87400</v>
@@ -4164,7 +4164,7 @@
         <v>17.75</v>
       </c>
       <c r="F108" t="n">
-        <v>12.12642765045166</v>
+        <v>12.12643051147461</v>
       </c>
       <c r="G108" t="n">
         <v>69600</v>
@@ -4199,7 +4199,7 @@
         <v>18.47999954223633</v>
       </c>
       <c r="F109" t="n">
-        <v>12.62514877319336</v>
+        <v>12.62515068054199</v>
       </c>
       <c r="G109" t="n">
         <v>110300</v>
@@ -4234,7 +4234,7 @@
         <v>18.07999992370605</v>
       </c>
       <c r="F110" t="n">
-        <v>12.35187816619873</v>
+        <v>12.35187721252441</v>
       </c>
       <c r="G110" t="n">
         <v>85100</v>
@@ -4269,7 +4269,7 @@
         <v>17.29999923706055</v>
       </c>
       <c r="F111" t="n">
-        <v>11.81899929046631</v>
+        <v>11.81900024414062</v>
       </c>
       <c r="G111" t="n">
         <v>69500</v>
@@ -4304,7 +4304,7 @@
         <v>17.67000007629395</v>
       </c>
       <c r="F112" t="n">
-        <v>12.07177066802979</v>
+        <v>12.07177448272705</v>
       </c>
       <c r="G112" t="n">
         <v>578200</v>
@@ -4339,7 +4339,7 @@
         <v>17.73999977111816</v>
       </c>
       <c r="F113" t="n">
-        <v>12.11959743499756</v>
+        <v>12.11959552764893</v>
       </c>
       <c r="G113" t="n">
         <v>171400</v>
@@ -4409,7 +4409,7 @@
         <v>19.29999923706055</v>
       </c>
       <c r="F115" t="n">
-        <v>13.18535995483398</v>
+        <v>13.18535614013672</v>
       </c>
       <c r="G115" t="n">
         <v>211100</v>
@@ -4444,7 +4444,7 @@
         <v>19.44000053405762</v>
       </c>
       <c r="F116" t="n">
-        <v>13.28100299835205</v>
+        <v>13.28100204467773</v>
       </c>
       <c r="G116" t="n">
         <v>337700</v>
@@ -4479,7 +4479,7 @@
         <v>18.89999961853027</v>
       </c>
       <c r="F117" t="n">
-        <v>12.91208648681641</v>
+        <v>12.91208362579346</v>
       </c>
       <c r="G117" t="n">
         <v>3137200</v>
@@ -4514,7 +4514,7 @@
         <v>19.45999908447266</v>
       </c>
       <c r="F118" t="n">
-        <v>13.29466342926025</v>
+        <v>13.29466533660889</v>
       </c>
       <c r="G118" t="n">
         <v>542200</v>
@@ -4549,7 +4549,7 @@
         <v>20.30999946594238</v>
       </c>
       <c r="F119" t="n">
-        <v>13.95468044281006</v>
+        <v>13.95467948913574</v>
       </c>
       <c r="G119" t="n">
         <v>652200</v>
@@ -4584,7 +4584,7 @@
         <v>21.95000076293945</v>
       </c>
       <c r="F120" t="n">
-        <v>15.08149433135986</v>
+        <v>15.08149909973145</v>
       </c>
       <c r="G120" t="n">
         <v>480700</v>
@@ -4619,7 +4619,7 @@
         <v>22.04999923706055</v>
       </c>
       <c r="F121" t="n">
-        <v>15.15020370483398</v>
+        <v>15.1502046585083</v>
       </c>
       <c r="G121" t="n">
         <v>1643100</v>
@@ -4654,7 +4654,7 @@
         <v>23.04999923706055</v>
       </c>
       <c r="F122" t="n">
-        <v>15.83728408813477</v>
+        <v>15.83729362487793</v>
       </c>
       <c r="G122" t="n">
         <v>546100</v>
@@ -4689,7 +4689,7 @@
         <v>24.17000007629395</v>
       </c>
       <c r="F123" t="n">
-        <v>16.60682487487793</v>
+        <v>16.6068229675293</v>
       </c>
       <c r="G123" t="n">
         <v>502500</v>
@@ -4724,7 +4724,7 @@
         <v>23.11000061035156</v>
       </c>
       <c r="F124" t="n">
-        <v>15.87850856781006</v>
+        <v>15.87851428985596</v>
       </c>
       <c r="G124" t="n">
         <v>400500</v>
@@ -4759,7 +4759,7 @@
         <v>22.94000053405762</v>
       </c>
       <c r="F125" t="n">
-        <v>15.7617073059082</v>
+        <v>15.76170921325684</v>
       </c>
       <c r="G125" t="n">
         <v>333100</v>
@@ -4794,7 +4794,7 @@
         <v>22.90999984741211</v>
       </c>
       <c r="F126" t="n">
-        <v>15.74109840393066</v>
+        <v>15.74109554290771</v>
       </c>
       <c r="G126" t="n">
         <v>510900</v>
@@ -4829,7 +4829,7 @@
         <v>23.76000022888184</v>
       </c>
       <c r="F127" t="n">
-        <v>16.32512092590332</v>
+        <v>16.32512283325195</v>
       </c>
       <c r="G127" t="n">
         <v>429800</v>
@@ -4864,7 +4864,7 @@
         <v>24.03000068664551</v>
       </c>
       <c r="F128" t="n">
-        <v>16.5106315612793</v>
+        <v>16.51063346862793</v>
       </c>
       <c r="G128" t="n">
         <v>1015000</v>
@@ -4934,7 +4934,7 @@
         <v>26.3799991607666</v>
       </c>
       <c r="F130" t="n">
-        <v>18.12528038024902</v>
+        <v>18.12528228759766</v>
       </c>
       <c r="G130" t="n">
         <v>803400</v>
@@ -4969,7 +4969,7 @@
         <v>26.89999961853027</v>
       </c>
       <c r="F131" t="n">
-        <v>18.8331356048584</v>
+        <v>18.83314323425293</v>
       </c>
       <c r="G131" t="n">
         <v>190900</v>
@@ -5004,7 +5004,7 @@
         <v>27.55999946594238</v>
       </c>
       <c r="F132" t="n">
-        <v>19.29521751403809</v>
+        <v>19.29521179199219</v>
       </c>
       <c r="G132" t="n">
         <v>728400</v>
@@ -5039,7 +5039,7 @@
         <v>27.60000038146973</v>
       </c>
       <c r="F133" t="n">
-        <v>19.32322120666504</v>
+        <v>19.32321929931641</v>
       </c>
       <c r="G133" t="n">
         <v>1264800</v>
@@ -5074,7 +5074,7 @@
         <v>28.82999992370605</v>
       </c>
       <c r="F134" t="n">
-        <v>20.18436431884766</v>
+        <v>20.18436622619629</v>
       </c>
       <c r="G134" t="n">
         <v>610800</v>
@@ -5109,7 +5109,7 @@
         <v>31.39999961853027</v>
       </c>
       <c r="F135" t="n">
-        <v>21.98366546630859</v>
+        <v>21.98366165161133</v>
       </c>
       <c r="G135" t="n">
         <v>582400</v>
@@ -5179,7 +5179,7 @@
         <v>33.13000106811523</v>
       </c>
       <c r="F137" t="n">
-        <v>23.19486427307129</v>
+        <v>23.19487190246582</v>
       </c>
       <c r="G137" t="n">
         <v>994600</v>
@@ -5214,7 +5214,7 @@
         <v>31.88999938964844</v>
       </c>
       <c r="F138" t="n">
-        <v>22.32671737670898</v>
+        <v>22.32672119140625</v>
       </c>
       <c r="G138" t="n">
         <v>2215300</v>
@@ -5249,7 +5249,7 @@
         <v>32.25</v>
       </c>
       <c r="F139" t="n">
-        <v>22.57876586914062</v>
+        <v>22.57876777648926</v>
       </c>
       <c r="G139" t="n">
         <v>641900</v>
@@ -5284,7 +5284,7 @@
         <v>34.58000183105469</v>
       </c>
       <c r="F140" t="n">
-        <v>24.21003723144531</v>
+        <v>24.21003913879395</v>
       </c>
       <c r="G140" t="n">
         <v>1047400</v>
@@ -5319,7 +5319,7 @@
         <v>36.27999877929688</v>
       </c>
       <c r="F141" t="n">
-        <v>25.40023040771484</v>
+        <v>25.40023612976074</v>
       </c>
       <c r="G141" t="n">
         <v>785300</v>
@@ -5354,7 +5354,7 @@
         <v>35.61000061035156</v>
       </c>
       <c r="F142" t="n">
-        <v>24.9311580657959</v>
+        <v>24.93115425109863</v>
       </c>
       <c r="G142" t="n">
         <v>776400</v>
@@ -5389,7 +5389,7 @@
         <v>35.43999862670898</v>
       </c>
       <c r="F143" t="n">
-        <v>25.17892074584961</v>
+        <v>25.17891502380371</v>
       </c>
       <c r="G143" t="n">
         <v>512800</v>
@@ -5424,7 +5424,7 @@
         <v>31.20000076293945</v>
       </c>
       <c r="F144" t="n">
-        <v>22.16654014587402</v>
+        <v>22.16654396057129</v>
       </c>
       <c r="G144" t="n">
         <v>4530800</v>
@@ -5494,7 +5494,7 @@
         <v>31.51000022888184</v>
       </c>
       <c r="F146" t="n">
-        <v>22.38678932189941</v>
+        <v>22.38678741455078</v>
       </c>
       <c r="G146" t="n">
         <v>1117400</v>
@@ -5529,7 +5529,7 @@
         <v>32.68000030517578</v>
       </c>
       <c r="F147" t="n">
-        <v>23.21803092956543</v>
+        <v>23.21803283691406</v>
       </c>
       <c r="G147" t="n">
         <v>2532700</v>
@@ -5564,7 +5564,7 @@
         <v>33.52999877929688</v>
       </c>
       <c r="F148" t="n">
-        <v>23.82192420959473</v>
+        <v>23.82192611694336</v>
       </c>
       <c r="G148" t="n">
         <v>367700</v>
@@ -5599,7 +5599,7 @@
         <v>29.44000053405762</v>
       </c>
       <c r="F149" t="n">
-        <v>21.7209358215332</v>
+        <v>21.72093772888184</v>
       </c>
       <c r="G149" t="n">
         <v>974900</v>
@@ -5634,7 +5634,7 @@
         <v>29.18000030517578</v>
       </c>
       <c r="F150" t="n">
-        <v>21.52910423278809</v>
+        <v>21.52911186218262</v>
       </c>
       <c r="G150" t="n">
         <v>2029000</v>
@@ -5669,7 +5669,7 @@
         <v>27.39999961853027</v>
       </c>
       <c r="F151" t="n">
-        <v>20.21582221984863</v>
+        <v>20.2158145904541</v>
       </c>
       <c r="G151" t="n">
         <v>437700</v>
@@ -5704,7 +5704,7 @@
         <v>23.89999961853027</v>
       </c>
       <c r="F152" t="n">
-        <v>17.63350677490234</v>
+        <v>17.63351058959961</v>
       </c>
       <c r="G152" t="n">
         <v>905700</v>
@@ -5739,7 +5739,7 @@
         <v>18.47999954223633</v>
       </c>
       <c r="F153" t="n">
-        <v>13.63460826873779</v>
+        <v>13.63461017608643</v>
       </c>
       <c r="G153" t="n">
         <v>812900</v>
@@ -5809,7 +5809,7 @@
         <v>19.21999931335449</v>
       </c>
       <c r="F155" t="n">
-        <v>14.23862171173096</v>
+        <v>14.23862075805664</v>
       </c>
       <c r="G155" t="n">
         <v>826000</v>
@@ -5844,7 +5844,7 @@
         <v>15.5</v>
       </c>
       <c r="F156" t="n">
-        <v>11.48275852203369</v>
+        <v>11.48275756835938</v>
       </c>
       <c r="G156" t="n">
         <v>466700</v>
@@ -5879,7 +5879,7 @@
         <v>13.48999977111816</v>
       </c>
       <c r="F157" t="n">
-        <v>9.993703842163086</v>
+        <v>9.993704795837402</v>
       </c>
       <c r="G157" t="n">
         <v>321100</v>
@@ -5949,7 +5949,7 @@
         <v>17.29000091552734</v>
       </c>
       <c r="F159" t="n">
-        <v>12.80883312225342</v>
+        <v>12.80883121490479</v>
       </c>
       <c r="G159" t="n">
         <v>487000</v>
@@ -5984,7 +5984,7 @@
         <v>19.34000015258789</v>
       </c>
       <c r="F160" t="n">
-        <v>14.32752132415771</v>
+        <v>14.32751846313477</v>
       </c>
       <c r="G160" t="n">
         <v>2090400</v>
@@ -6019,7 +6019,7 @@
         <v>17.97999954223633</v>
       </c>
       <c r="F161" t="n">
-        <v>13.73942947387695</v>
+        <v>13.73942852020264</v>
       </c>
       <c r="G161" t="n">
         <v>451500</v>
@@ -6054,7 +6054,7 @@
         <v>20.13999938964844</v>
       </c>
       <c r="F162" t="n">
-        <v>15.3899974822998</v>
+        <v>15.38999462127686</v>
       </c>
       <c r="G162" t="n">
         <v>449800</v>
@@ -6089,7 +6089,7 @@
         <v>20.90999984741211</v>
       </c>
       <c r="F163" t="n">
-        <v>15.97839069366455</v>
+        <v>15.9783935546875</v>
       </c>
       <c r="G163" t="n">
         <v>503600</v>
@@ -6124,7 +6124,7 @@
         <v>22.19000053405762</v>
       </c>
       <c r="F164" t="n">
-        <v>16.95650863647461</v>
+        <v>16.95650482177734</v>
       </c>
       <c r="G164" t="n">
         <v>714800</v>
@@ -6159,7 +6159,7 @@
         <v>21</v>
       </c>
       <c r="F165" t="n">
-        <v>16.04716491699219</v>
+        <v>16.04716300964355</v>
       </c>
       <c r="G165" t="n">
         <v>1008000</v>
@@ -6229,7 +6229,7 @@
         <v>22.44000053405762</v>
       </c>
       <c r="F167" t="n">
-        <v>17.15835380554199</v>
+        <v>17.15835571289062</v>
       </c>
       <c r="G167" t="n">
         <v>1209000</v>
@@ -6264,7 +6264,7 @@
         <v>20.34000015258789</v>
       </c>
       <c r="F168" t="n">
-        <v>15.5526237487793</v>
+        <v>15.55262660980225</v>
       </c>
       <c r="G168" t="n">
         <v>1155000</v>
@@ -6299,7 +6299,7 @@
         <v>20.04999923706055</v>
       </c>
       <c r="F169" t="n">
-        <v>15.33088111877441</v>
+        <v>15.33088207244873</v>
       </c>
       <c r="G169" t="n">
         <v>2686300</v>
@@ -6334,7 +6334,7 @@
         <v>21.8700008392334</v>
       </c>
       <c r="F170" t="n">
-        <v>16.72251510620117</v>
+        <v>16.72250938415527</v>
       </c>
       <c r="G170" t="n">
         <v>1708000</v>
@@ -6369,7 +6369,7 @@
         <v>21.38999938964844</v>
       </c>
       <c r="F171" t="n">
-        <v>16.35548782348633</v>
+        <v>16.3554859161377</v>
       </c>
       <c r="G171" t="n">
         <v>2910500</v>
@@ -6404,7 +6404,7 @@
         <v>19.14999961853027</v>
       </c>
       <c r="F172" t="n">
-        <v>14.64271259307861</v>
+        <v>14.64271354675293</v>
       </c>
       <c r="G172" t="n">
         <v>1989700</v>
@@ -6439,7 +6439,7 @@
         <v>18.70999908447266</v>
       </c>
       <c r="F173" t="n">
-        <v>14.51235294342041</v>
+        <v>14.51235103607178</v>
       </c>
       <c r="G173" t="n">
         <v>5453300</v>
@@ -6474,7 +6474,7 @@
         <v>20.73999977111816</v>
       </c>
       <c r="F174" t="n">
-        <v>16.0869140625</v>
+        <v>16.08691787719727</v>
       </c>
       <c r="G174" t="n">
         <v>922300</v>
@@ -6509,7 +6509,7 @@
         <v>19.30999946594238</v>
       </c>
       <c r="F175" t="n">
-        <v>14.97773933410645</v>
+        <v>14.97774028778076</v>
       </c>
       <c r="G175" t="n">
         <v>1062700</v>
@@ -6544,7 +6544,7 @@
         <v>22</v>
       </c>
       <c r="F176" t="n">
-        <v>17.06423187255859</v>
+        <v>17.06422996520996</v>
       </c>
       <c r="G176" t="n">
         <v>914800</v>
@@ -6579,7 +6579,7 @@
         <v>23.82999992370605</v>
       </c>
       <c r="F177" t="n">
-        <v>18.48366355895996</v>
+        <v>18.48367118835449</v>
       </c>
       <c r="G177" t="n">
         <v>1428800</v>
@@ -6649,7 +6649,7 @@
         <v>23.94000053405762</v>
       </c>
       <c r="F179" t="n">
-        <v>18.5689868927002</v>
+        <v>18.56898880004883</v>
       </c>
       <c r="G179" t="n">
         <v>1474400</v>
@@ -6684,7 +6684,7 @@
         <v>25.17000007629395</v>
       </c>
       <c r="F180" t="n">
-        <v>19.52303314208984</v>
+        <v>19.52303695678711</v>
       </c>
       <c r="G180" t="n">
         <v>2545100</v>
@@ -6754,7 +6754,7 @@
         <v>25.95000076293945</v>
       </c>
       <c r="F182" t="n">
-        <v>20.12803840637207</v>
+        <v>20.12803649902344</v>
       </c>
       <c r="G182" t="n">
         <v>2131000</v>
@@ -6824,7 +6824,7 @@
         <v>27.14999961853027</v>
       </c>
       <c r="F184" t="n">
-        <v>21.05881118774414</v>
+        <v>21.05881500244141</v>
       </c>
       <c r="G184" t="n">
         <v>2649700</v>
@@ -6859,7 +6859,7 @@
         <v>26.88999938964844</v>
       </c>
       <c r="F185" t="n">
-        <v>21.38971519470215</v>
+        <v>21.38971328735352</v>
       </c>
       <c r="G185" t="n">
         <v>5115100</v>
@@ -6894,7 +6894,7 @@
         <v>25.71999931335449</v>
       </c>
       <c r="F186" t="n">
-        <v>20.45903205871582</v>
+        <v>20.45903396606445</v>
       </c>
       <c r="G186" t="n">
         <v>2505900</v>
@@ -6964,7 +6964,7 @@
         <v>18.27000045776367</v>
       </c>
       <c r="F188" t="n">
-        <v>14.53291702270508</v>
+        <v>14.53291511535645</v>
       </c>
       <c r="G188" t="n">
         <v>8093600</v>
@@ -6999,7 +6999,7 @@
         <v>21.20000076293945</v>
       </c>
       <c r="F189" t="n">
-        <v>16.86359024047852</v>
+        <v>16.86359214782715</v>
       </c>
       <c r="G189" t="n">
         <v>5193900</v>
@@ -7069,7 +7069,7 @@
         <v>19.21999931335449</v>
       </c>
       <c r="F191" t="n">
-        <v>15.28859424591064</v>
+        <v>15.28859329223633</v>
       </c>
       <c r="G191" t="n">
         <v>2072100</v>
@@ -7104,7 +7104,7 @@
         <v>21.32999992370605</v>
       </c>
       <c r="F192" t="n">
-        <v>16.96699905395508</v>
+        <v>16.96700096130371</v>
       </c>
       <c r="G192" t="n">
         <v>8546400</v>
@@ -7139,7 +7139,7 @@
         <v>22.95000076293945</v>
       </c>
       <c r="F193" t="n">
-        <v>18.25563049316406</v>
+        <v>18.2556324005127</v>
       </c>
       <c r="G193" t="n">
         <v>6914800</v>
@@ -7174,7 +7174,7 @@
         <v>23.28000068664551</v>
       </c>
       <c r="F194" t="n">
-        <v>18.51813125610352</v>
+        <v>18.51813316345215</v>
       </c>
       <c r="G194" t="n">
         <v>5292600</v>
@@ -7209,7 +7209,7 @@
         <v>22.54000091552734</v>
       </c>
       <c r="F195" t="n">
-        <v>17.92949867248535</v>
+        <v>17.92949485778809</v>
       </c>
       <c r="G195" t="n">
         <v>4496300</v>
@@ -7244,7 +7244,7 @@
         <v>19.48999977111816</v>
       </c>
       <c r="F196" t="n">
-        <v>15.50336360931396</v>
+        <v>15.50336837768555</v>
       </c>
       <c r="G196" t="n">
         <v>3403500</v>
@@ -7279,7 +7279,7 @@
         <v>19.79999923706055</v>
       </c>
       <c r="F197" t="n">
-        <v>16.21330833435059</v>
+        <v>16.21330642700195</v>
       </c>
       <c r="G197" t="n">
         <v>4981500</v>
@@ -7314,7 +7314,7 @@
         <v>20.20999908447266</v>
       </c>
       <c r="F198" t="n">
-        <v>16.54903602600098</v>
+        <v>16.54903984069824</v>
       </c>
       <c r="G198" t="n">
         <v>3733700</v>
@@ -7384,7 +7384,7 @@
         <v>22.56999969482422</v>
       </c>
       <c r="F200" t="n">
-        <v>18.48153305053711</v>
+        <v>18.48153686523438</v>
       </c>
       <c r="G200" t="n">
         <v>3525800</v>
@@ -7454,7 +7454,7 @@
         <v>23.52000045776367</v>
       </c>
       <c r="F202" t="n">
-        <v>19.25944328308105</v>
+        <v>19.25944709777832</v>
       </c>
       <c r="G202" t="n">
         <v>1566400</v>
@@ -7489,7 +7489,7 @@
         <v>24.70000076293945</v>
       </c>
       <c r="F203" t="n">
-        <v>20.22569465637207</v>
+        <v>20.22569274902344</v>
       </c>
       <c r="G203" t="n">
         <v>2494400</v>
@@ -7524,7 +7524,7 @@
         <v>25.70999908447266</v>
       </c>
       <c r="F204" t="n">
-        <v>21.05273628234863</v>
+        <v>21.052734375</v>
       </c>
       <c r="G204" t="n">
         <v>4462200</v>
@@ -7559,7 +7559,7 @@
         <v>24.67000007629395</v>
       </c>
       <c r="F205" t="n">
-        <v>20.20112609863281</v>
+        <v>20.20112800598145</v>
       </c>
       <c r="G205" t="n">
         <v>1825500</v>
@@ -7629,7 +7629,7 @@
         <v>25.46999931335449</v>
       </c>
       <c r="F207" t="n">
-        <v>20.85621070861816</v>
+        <v>20.85620880126953</v>
       </c>
       <c r="G207" t="n">
         <v>6124200</v>
@@ -7664,7 +7664,7 @@
         <v>26.14999961853027</v>
       </c>
       <c r="F208" t="n">
-        <v>21.41302871704102</v>
+        <v>21.41303443908691</v>
       </c>
       <c r="G208" t="n">
         <v>2577300</v>
@@ -7699,7 +7699,7 @@
         <v>24.70000076293945</v>
       </c>
       <c r="F209" t="n">
-        <v>20.58182525634766</v>
+        <v>20.58182144165039</v>
       </c>
       <c r="G209" t="n">
         <v>10774600</v>
@@ -7734,7 +7734,7 @@
         <v>26.31999969482422</v>
       </c>
       <c r="F210" t="n">
-        <v>21.93172264099121</v>
+        <v>21.93172454833984</v>
       </c>
       <c r="G210" t="n">
         <v>2557200</v>
@@ -7769,7 +7769,7 @@
         <v>25.65999984741211</v>
       </c>
       <c r="F211" t="n">
-        <v>21.38176345825195</v>
+        <v>21.38176155090332</v>
       </c>
       <c r="G211" t="n">
         <v>3444200</v>
@@ -7839,7 +7839,7 @@
         <v>29.34000015258789</v>
       </c>
       <c r="F213" t="n">
-        <v>24.44820785522461</v>
+        <v>24.44820594787598</v>
       </c>
       <c r="G213" t="n">
         <v>1942300</v>
@@ -7874,7 +7874,7 @@
         <v>30.56999969482422</v>
       </c>
       <c r="F214" t="n">
-        <v>25.47312927246094</v>
+        <v>25.47313117980957</v>
       </c>
       <c r="G214" t="n">
         <v>1511000</v>
@@ -7909,7 +7909,7 @@
         <v>31.76000022888184</v>
       </c>
       <c r="F215" t="n">
-        <v>26.46472358703613</v>
+        <v>26.4647274017334</v>
       </c>
       <c r="G215" t="n">
         <v>1892600</v>
@@ -8014,7 +8014,7 @@
         <v>31.35000038146973</v>
       </c>
       <c r="F218" t="n">
-        <v>26.12308311462402</v>
+        <v>26.12307929992676</v>
       </c>
       <c r="G218" t="n">
         <v>2094700</v>
@@ -8154,7 +8154,7 @@
         <v>29.14999961853027</v>
       </c>
       <c r="F222" t="n">
-        <v>24.77957344055176</v>
+        <v>24.77957534790039</v>
       </c>
       <c r="G222" t="n">
         <v>5496800</v>
@@ -8189,7 +8189,7 @@
         <v>28.92000007629395</v>
       </c>
       <c r="F223" t="n">
-        <v>24.58406448364258</v>
+        <v>24.58406257629395</v>
       </c>
       <c r="G223" t="n">
         <v>2451500</v>
@@ -8294,7 +8294,7 @@
         <v>28.79000091552734</v>
       </c>
       <c r="F226" t="n">
-        <v>24.47355079650879</v>
+        <v>24.47355270385742</v>
       </c>
       <c r="G226" t="n">
         <v>3671100</v>
@@ -8329,7 +8329,7 @@
         <v>27.40999984741211</v>
       </c>
       <c r="F227" t="n">
-        <v>23.30045318603516</v>
+        <v>23.30045127868652</v>
       </c>
       <c r="G227" t="n">
         <v>2454000</v>
@@ -8364,7 +8364,7 @@
         <v>28.04999923706055</v>
       </c>
       <c r="F228" t="n">
-        <v>23.8444995880127</v>
+        <v>23.84450149536133</v>
       </c>
       <c r="G228" t="n">
         <v>6264200</v>
@@ -8434,7 +8434,7 @@
         <v>29.84000015258789</v>
       </c>
       <c r="F230" t="n">
-        <v>25.36612319946289</v>
+        <v>25.36612701416016</v>
       </c>
       <c r="G230" t="n">
         <v>9533000</v>
@@ -8469,7 +8469,7 @@
         <v>29.6200008392334</v>
       </c>
       <c r="F231" t="n">
-        <v>25.17911529541016</v>
+        <v>25.17911338806152</v>
       </c>
       <c r="G231" t="n">
         <v>10081900</v>
@@ -8539,7 +8539,7 @@
         <v>27.8799991607666</v>
       </c>
       <c r="F233" t="n">
-        <v>24.11273956298828</v>
+        <v>24.11274337768555</v>
       </c>
       <c r="G233" t="n">
         <v>21530400</v>
@@ -8574,7 +8574,7 @@
         <v>28.32999992370605</v>
       </c>
       <c r="F234" t="n">
-        <v>24.5019359588623</v>
+        <v>24.50193977355957</v>
       </c>
       <c r="G234" t="n">
         <v>7146000</v>
@@ -8609,7 +8609,7 @@
         <v>26.34000015258789</v>
       </c>
       <c r="F235" t="n">
-        <v>22.78083229064941</v>
+        <v>22.78083419799805</v>
       </c>
       <c r="G235" t="n">
         <v>8330600</v>
@@ -8679,7 +8679,7 @@
         <v>27.11000061035156</v>
       </c>
       <c r="F237" t="n">
-        <v>23.44678688049316</v>
+        <v>23.44679069519043</v>
       </c>
       <c r="G237" t="n">
         <v>3890100</v>
@@ -8714,7 +8714,7 @@
         <v>27.25</v>
       </c>
       <c r="F238" t="n">
-        <v>23.56786918640137</v>
+        <v>23.56787109375</v>
       </c>
       <c r="G238" t="n">
         <v>4826500</v>
@@ -8749,7 +8749,7 @@
         <v>26.19000053405762</v>
       </c>
       <c r="F239" t="n">
-        <v>22.65110015869141</v>
+        <v>22.65110206604004</v>
       </c>
       <c r="G239" t="n">
         <v>6730100</v>
@@ -8819,7 +8819,7 @@
         <v>23.36000061035156</v>
       </c>
       <c r="F241" t="n">
-        <v>20.20350456237793</v>
+        <v>20.2035026550293</v>
       </c>
       <c r="G241" t="n">
         <v>4084400</v>
@@ -8854,7 +8854,7 @@
         <v>25.72999954223633</v>
       </c>
       <c r="F242" t="n">
-        <v>22.25325965881348</v>
+        <v>22.25325775146484</v>
       </c>
       <c r="G242" t="n">
         <v>4347700</v>
@@ -8889,7 +8889,7 @@
         <v>26.22999954223633</v>
       </c>
       <c r="F243" t="n">
-        <v>22.68569374084473</v>
+        <v>22.68569564819336</v>
       </c>
       <c r="G243" t="n">
         <v>7650900</v>
@@ -8924,7 +8924,7 @@
         <v>25.93000030517578</v>
       </c>
       <c r="F244" t="n">
-        <v>22.42623519897461</v>
+        <v>22.42623710632324</v>
       </c>
       <c r="G244" t="n">
         <v>4625700</v>
@@ -8959,7 +8959,7 @@
         <v>24.04999923706055</v>
       </c>
       <c r="F245" t="n">
-        <v>21.30771064758301</v>
+        <v>21.30771255493164</v>
       </c>
       <c r="G245" t="n">
         <v>14300300</v>
@@ -8994,7 +8994,7 @@
         <v>25.64999961853027</v>
       </c>
       <c r="F246" t="n">
-        <v>22.72527122497559</v>
+        <v>22.72527313232422</v>
       </c>
       <c r="G246" t="n">
         <v>2460400</v>
@@ -9029,7 +9029,7 @@
         <v>26.20999908447266</v>
       </c>
       <c r="F247" t="n">
-        <v>23.22142028808594</v>
+        <v>23.2214183807373</v>
       </c>
       <c r="G247" t="n">
         <v>1463400</v>
@@ -9134,7 +9134,7 @@
         <v>24.82999992370605</v>
       </c>
       <c r="F250" t="n">
-        <v>21.99877166748047</v>
+        <v>21.9987735748291</v>
       </c>
       <c r="G250" t="n">
         <v>2764100</v>
@@ -9204,7 +9204,7 @@
         <v>27.51000022888184</v>
       </c>
       <c r="F252" t="n">
-        <v>24.38157844543457</v>
+        <v>24.3815803527832</v>
       </c>
       <c r="G252" t="n">
         <v>3973200</v>
@@ -9239,7 +9239,7 @@
         <v>27.52000045776367</v>
       </c>
       <c r="F253" t="n">
-        <v>24.39044380187988</v>
+        <v>24.39043998718262</v>
       </c>
       <c r="G253" t="n">
         <v>3465400</v>
@@ -9309,7 +9309,7 @@
         <v>29.68000030517578</v>
       </c>
       <c r="F255" t="n">
-        <v>26.3048095703125</v>
+        <v>26.30480766296387</v>
       </c>
       <c r="G255" t="n">
         <v>2548300</v>
@@ -9344,7 +9344,7 @@
         <v>31.02000045776367</v>
       </c>
       <c r="F256" t="n">
-        <v>27.4924259185791</v>
+        <v>27.49242210388184</v>
       </c>
       <c r="G256" t="n">
         <v>2227100</v>
@@ -9414,7 +9414,7 @@
         <v>30.70999908447266</v>
       </c>
       <c r="F258" t="n">
-        <v>27.74253463745117</v>
+        <v>27.7425365447998</v>
       </c>
       <c r="G258" t="n">
         <v>6248000</v>
@@ -9449,7 +9449,7 @@
         <v>30.76000022888184</v>
       </c>
       <c r="F259" t="n">
-        <v>27.7877025604248</v>
+        <v>27.78770446777344</v>
       </c>
       <c r="G259" t="n">
         <v>1973100</v>
@@ -9519,7 +9519,7 @@
         <v>33.06999969482422</v>
       </c>
       <c r="F261" t="n">
-        <v>29.8744945526123</v>
+        <v>29.87449264526367</v>
       </c>
       <c r="G261" t="n">
         <v>2154800</v>
@@ -9554,7 +9554,7 @@
         <v>33.2400016784668</v>
       </c>
       <c r="F262" t="n">
-        <v>30.02806663513184</v>
+        <v>30.0280647277832</v>
       </c>
       <c r="G262" t="n">
         <v>3670300</v>
@@ -9659,7 +9659,7 @@
         <v>32.43000030517578</v>
       </c>
       <c r="F265" t="n">
-        <v>29.3698902130127</v>
+        <v>29.36989212036133</v>
       </c>
       <c r="G265" t="n">
         <v>3021400</v>
@@ -9729,7 +9729,7 @@
         <v>32.45999908447266</v>
       </c>
       <c r="F267" t="n">
-        <v>29.39706039428711</v>
+        <v>29.39705848693848</v>
       </c>
       <c r="G267" t="n">
         <v>1847400</v>
@@ -9764,7 +9764,7 @@
         <v>31.63999938964844</v>
       </c>
       <c r="F268" t="n">
-        <v>28.65443420410156</v>
+        <v>28.6544361114502</v>
       </c>
       <c r="G268" t="n">
         <v>8929800</v>
@@ -9834,7 +9834,7 @@
         <v>31.30999946594238</v>
       </c>
       <c r="F270" t="n">
-        <v>29.03183364868164</v>
+        <v>29.03183555603027</v>
       </c>
       <c r="G270" t="n">
         <v>5280900</v>
@@ -9869,7 +9869,7 @@
         <v>30.22999954223633</v>
       </c>
       <c r="F271" t="n">
-        <v>28.0304126739502</v>
+        <v>28.03041458129883</v>
       </c>
       <c r="G271" t="n">
         <v>2893700</v>
@@ -9904,7 +9904,7 @@
         <v>29.73999977111816</v>
       </c>
       <c r="F272" t="n">
-        <v>27.5760669708252</v>
+        <v>27.57606887817383</v>
       </c>
       <c r="G272" t="n">
         <v>6817100</v>
@@ -9939,7 +9939,7 @@
         <v>27.25</v>
       </c>
       <c r="F273" t="n">
-        <v>25.26724624633789</v>
+        <v>25.26724433898926</v>
       </c>
       <c r="G273" t="n">
         <v>8475700</v>
@@ -9974,7 +9974,7 @@
         <v>26.84000015258789</v>
       </c>
       <c r="F274" t="n">
-        <v>24.88707733154297</v>
+        <v>24.8870792388916</v>
       </c>
       <c r="G274" t="n">
         <v>1951200</v>
@@ -10009,7 +10009,7 @@
         <v>25.35000038146973</v>
       </c>
       <c r="F275" t="n">
-        <v>23.5054931640625</v>
+        <v>23.50549125671387</v>
       </c>
       <c r="G275" t="n">
         <v>3211300</v>
@@ -10044,7 +10044,7 @@
         <v>26.79000091552734</v>
       </c>
       <c r="F276" t="n">
-        <v>24.8407154083252</v>
+        <v>24.84071731567383</v>
       </c>
       <c r="G276" t="n">
         <v>3030800</v>
@@ -10079,7 +10079,7 @@
         <v>27.29999923706055</v>
       </c>
       <c r="F277" t="n">
-        <v>25.31360816955566</v>
+        <v>25.3136043548584</v>
       </c>
       <c r="G277" t="n">
         <v>2085900</v>
@@ -10114,7 +10114,7 @@
         <v>26.92000007629395</v>
       </c>
       <c r="F278" t="n">
-        <v>24.96125793457031</v>
+        <v>24.96125411987305</v>
       </c>
       <c r="G278" t="n">
         <v>2357400</v>
@@ -10149,7 +10149,7 @@
         <v>28.79999923706055</v>
       </c>
       <c r="F279" t="n">
-        <v>26.7044620513916</v>
+        <v>26.70446395874023</v>
       </c>
       <c r="G279" t="n">
         <v>5427000</v>
@@ -10184,7 +10184,7 @@
         <v>26.92000007629395</v>
       </c>
       <c r="F280" t="n">
-        <v>24.96125793457031</v>
+        <v>24.96125411987305</v>
       </c>
       <c r="G280" t="n">
         <v>13075200</v>
@@ -10254,7 +10254,7 @@
         <v>26.81999969482422</v>
       </c>
       <c r="F282" t="n">
-        <v>25.54948425292969</v>
+        <v>25.54948234558105</v>
       </c>
       <c r="G282" t="n">
         <v>3985900</v>
@@ -10324,7 +10324,7 @@
         <v>26.90999984741211</v>
       </c>
       <c r="F284" t="n">
-        <v>25.63522148132324</v>
+        <v>25.63521957397461</v>
       </c>
       <c r="G284" t="n">
         <v>1533600</v>
@@ -10359,7 +10359,7 @@
         <v>28.54999923706055</v>
       </c>
       <c r="F285" t="n">
-        <v>27.19752883911133</v>
+        <v>27.19753074645996</v>
       </c>
       <c r="G285" t="n">
         <v>2897900</v>
@@ -10394,7 +10394,7 @@
         <v>28.94000053405762</v>
       </c>
       <c r="F286" t="n">
-        <v>27.56905555725098</v>
+        <v>27.56905746459961</v>
       </c>
       <c r="G286" t="n">
         <v>1042800</v>
@@ -10499,7 +10499,7 @@
         <v>26.21999931335449</v>
       </c>
       <c r="F289" t="n">
-        <v>24.97790336608887</v>
+        <v>24.9779052734375</v>
       </c>
       <c r="G289" t="n">
         <v>8276300</v>
@@ -10569,7 +10569,7 @@
         <v>23.57999992370605</v>
       </c>
       <c r="F291" t="n">
-        <v>22.46296691894531</v>
+        <v>22.46296882629395</v>
       </c>
       <c r="G291" t="n">
         <v>13775900</v>
@@ -10604,7 +10604,7 @@
         <v>25.79000091552734</v>
       </c>
       <c r="F292" t="n">
-        <v>24.56827545166016</v>
+        <v>24.56827735900879</v>
       </c>
       <c r="G292" t="n">
         <v>9001100</v>
@@ -10709,7 +10709,7 @@
         <v>30.10000038146973</v>
       </c>
       <c r="F295" t="n">
-        <v>28.97661781311035</v>
+        <v>28.97661972045898</v>
       </c>
       <c r="G295" t="n">
         <v>5092300</v>
@@ -10814,7 +10814,7 @@
         <v>30.55999946594238</v>
       </c>
       <c r="F298" t="n">
-        <v>29.4194507598877</v>
+        <v>29.41944885253906</v>
       </c>
       <c r="G298" t="n">
         <v>5362000</v>
@@ -10849,7 +10849,7 @@
         <v>31.77000045776367</v>
       </c>
       <c r="F299" t="n">
-        <v>30.97219657897949</v>
+        <v>30.97219467163086</v>
       </c>
       <c r="G299" t="n">
         <v>2926200</v>
@@ -10884,7 +10884,7 @@
         <v>31.45999908447266</v>
       </c>
       <c r="F300" t="n">
-        <v>30.66997909545898</v>
+        <v>30.66997718811035</v>
       </c>
       <c r="G300" t="n">
         <v>3305800</v>
@@ -10919,7 +10919,7 @@
         <v>32.0099983215332</v>
       </c>
       <c r="F301" t="n">
-        <v>31.2061653137207</v>
+        <v>31.20616722106934</v>
       </c>
       <c r="G301" t="n">
         <v>6199600</v>
@@ -11199,7 +11199,7 @@
         <v>33.77000045776367</v>
       </c>
       <c r="F309" t="n">
-        <v>33.48122787475586</v>
+        <v>33.48123168945312</v>
       </c>
       <c r="G309" t="n">
         <v>4095000</v>
@@ -11301,25 +11301,25 @@
         <v>33.29499816894531</v>
       </c>
       <c r="E312" t="n">
-        <v>33.35499954223633</v>
+        <v>33.31000137329102</v>
       </c>
       <c r="F312" t="n">
-        <v>33.35499954223633</v>
+        <v>33.31000137329102</v>
       </c>
       <c r="G312" t="n">
-        <v>500365</v>
+        <v>712276</v>
       </c>
       <c r="H312" t="n">
-        <v>0.01754120757632882</v>
+        <v>0.01616847509856778</v>
       </c>
       <c r="I312" t="n">
-        <v>0.05189334740973562</v>
+        <v>0.05189072928980631</v>
       </c>
       <c r="J312" t="n">
-        <v>0.06023523562971</v>
+        <v>0.05880490599668975</v>
       </c>
       <c r="K312" t="n">
-        <v>0.06023523562971</v>
+        <v>0.05880490599668975</v>
       </c>
     </row>
   </sheetData>
